--- a/article list.xlsx
+++ b/article list.xlsx
@@ -42,13 +42,199 @@
     <t>Assessment 3 Use</t>
   </si>
   <si>
+    <t>Competency based teaching of college physics: The philosophy and the practice</t>
+  </si>
+  <si>
+    <t>Ajith Rajapaksha and Andrew S. Hirsch</t>
+  </si>
+  <si>
+    <t>Late</t>
+  </si>
+  <si>
+    <t>Phys. Rev.- PER</t>
+  </si>
+  <si>
+    <t>https://journals.aps.org/prper/abstract/10.1103/PhysRevPhysEducRes.13.020130</t>
+  </si>
+  <si>
+    <t>FCI</t>
+  </si>
+  <si>
+    <t>Introduction of interactive learning into French university physics classrooms</t>
+  </si>
+  <si>
+    <t>Alexander L. Rudolph, Brahim Lamine, Michael Joyce, Hélène Vignolles, and David Consiglio</t>
+  </si>
+  <si>
+    <t>https://journals.aps.org/prper/abstract/10.1103/PhysRevSTPER.10.010103</t>
+  </si>
+  <si>
+    <t>CSEM</t>
+  </si>
+  <si>
+    <t>Teaching assistants’ performance at identifying common introductory student difficulties in mechanics revealed by the Force Concept Inventory</t>
+  </si>
+  <si>
+    <t>Alexandru Maries and Chandralekha Singh</t>
+  </si>
+  <si>
+    <t>https://journals.aps.org/prper/abstract/10.1103/PhysRevPhysEducRes.12.010131</t>
+  </si>
+  <si>
+    <t>Energy Project professional development: Promoting positive attitudes about science among K-12 teachers</t>
+  </si>
+  <si>
+    <t>Amy D. Robertson and Abigail R. Daane</t>
+  </si>
+  <si>
+    <t>https://journals.aps.org/prper/abstract/10.1103/PhysRevPhysEducRes.13.020102</t>
+  </si>
+  <si>
+    <t>CLASS</t>
+  </si>
+  <si>
+    <t>What do seniors remember from freshman physics?</t>
+  </si>
+  <si>
+    <t>Andrew Pawl, Analia Barrantes, David E. Pritchard, and Rudolph Mitchell</t>
+  </si>
+  <si>
+    <t>https://journals.aps.org/prper/abstract/10.1103/PhysRevSTPER.8.020118</t>
+  </si>
+  <si>
+    <t>Can dual processing theory explain physics students’ performance on the Force Concept Inventory?</t>
+  </si>
+  <si>
+    <t>Anna K. Wood, Ross K. Galloway, and Judy Hardy</t>
+  </si>
+  <si>
+    <t>https://journals.aps.org/prper/abstract/10.1103/PhysRevPhysEducRes.12.023101</t>
+  </si>
+  <si>
+    <t>Does using a visual-representation tool foster students’ ability to identify forces and construct free-body diagrams?</t>
+  </si>
+  <si>
+    <t>Antti Savinainen, Asko Mäkynen, Pasi Nieminen, and Jouni Viiri</t>
+  </si>
+  <si>
+    <t>https://journals.aps.org/prper/abstract/10.1103/PhysRevSTPER.9.010104</t>
+  </si>
+  <si>
+    <t>Lessons from a large-scale assessment: Results from conceptual inventories</t>
+  </si>
+  <si>
+    <t>Beth Thacker, Hani Dulli, Dave Pattillo, and Keith West</t>
+  </si>
+  <si>
+    <t>https://journals.aps.org/prper/abstract/10.1103/PhysRevSTPER.10.020104</t>
+  </si>
+  <si>
+    <t>BEMA</t>
+  </si>
+  <si>
+    <t>Impact of peer interaction on conceptual test performance</t>
+  </si>
+  <si>
+    <t>Chandralekha Singh</t>
+  </si>
+  <si>
+    <t>Early</t>
+  </si>
+  <si>
+    <t>AJP</t>
+  </si>
+  <si>
+    <t>https://aapt.scitation.org/doi/pdf/10.1119/1.1858450</t>
+  </si>
+  <si>
+    <t>Development of quantum perspectives in modern physics</t>
+  </si>
+  <si>
+    <t>Charles Baily and Noah D. Finkelstein</t>
+  </si>
+  <si>
+    <t>https://journals.aps.org/prper/abstract/10.1103/PhysRevSTPER.5.010106</t>
+  </si>
+  <si>
+    <t>Modeling the motion of a toy train powered with a time-dependent applied voltage: Educational implementation and analysis</t>
+  </si>
+  <si>
+    <t>David Wick and Michael Ramsdell</t>
+  </si>
+  <si>
+    <t>https://aapt.scitation.org/doi/pdf/10.1119/1.1637040</t>
+  </si>
+  <si>
+    <t>College physics students’ epistemological self-reflection and its relationship to conceptual learning</t>
+  </si>
+  <si>
+    <t>David B. May, and Eugenia Etkina</t>
+  </si>
+  <si>
+    <t>https://aapt.scitation.org/doi/pdf/10.1119/1.1503377</t>
+  </si>
+  <si>
+    <t>The effects of a concept-construction lab course on FCI performance</t>
+  </si>
+  <si>
+    <t>David J. Van Domelen, and Alan Van Heuvelen</t>
+  </si>
+  <si>
+    <t>https://aapt.scitation.org/doi/pdf/10.1119/1.1377284</t>
+  </si>
+  <si>
+    <t>MPEX</t>
+  </si>
+  <si>
+    <t>Surveying students’ conceptual knowledge of electricity and magnetism</t>
+  </si>
+  <si>
+    <t>David P. Maloney, Thomas L. O’Kuma, Curtis J. Hieggelke, and Alan Van Heuvelen</t>
+  </si>
+  <si>
+    <t>https://aapt.scitation.org/doi/pdf/10.1119/1.1371296</t>
+  </si>
+  <si>
+    <t>Characterizing the epistemological development of physics majors</t>
+  </si>
+  <si>
+    <t>Elizabeth Gire, Barbara Jones, and Edward Price</t>
+  </si>
+  <si>
+    <t>https://journals.aps.org/prper/abstract/10.1103/PhysRevSTPER.5.010103</t>
+  </si>
+  <si>
+    <t>Extending positive CLASS results across multiple instructors and multiple classes of Modeling Instruction</t>
+  </si>
+  <si>
+    <t>Eric Brewe, Adrienne Traxler, Jorge de la Garza, and Laird H. Kramer</t>
+  </si>
+  <si>
+    <t>https://journals.aps.org/prper/abstract/10.1103/PhysRevSTPER.9.020116</t>
+  </si>
+  <si>
+    <t>Using module analysis for multiple choice responses: A new method applied to Force Concept Inventory data</t>
+  </si>
+  <si>
+    <t>Eric Brewe, Jesper Bruun, and Ian G. Bearden</t>
+  </si>
+  <si>
+    <t>https://journals.aps.org/prper/abstract/10.1103/PhysRevPhysEducRes.12.020131</t>
+  </si>
+  <si>
+    <t>Secondary implementation of interactive engagement teaching techniques: Choices and challenges in a Gulf Arab context</t>
+  </si>
+  <si>
+    <t>George Hitt and Abdel Isakovic and O. Fawwaz and MS Bawa'aneh and Nayla el kork and S. Makkiyil and I. A. Qattan</t>
+  </si>
+  <si>
+    <t>https://journals.aps.org/prper/abstract/10.1103/PhysRevSTPER.10.020123</t>
+  </si>
+  <si>
     <t>Force concept inventory</t>
   </si>
   <si>
-    <t>Hestenes, David, Malcolm Wells, and Gregg Swackhamer.</t>
-  </si>
-  <si>
-    <t>Early</t>
+    <t>David Hestenes and Malcolm Wells and Gregg Swackhamer</t>
   </si>
   <si>
     <t>the physics teacher</t>
@@ -57,18 +243,402 @@
     <t>https://aapt.scitation.org/doi/abs/10.1119/1.2343497?journalCode=pte</t>
   </si>
   <si>
-    <t>FCI</t>
-  </si>
-  <si>
     <t>What Does the Force Concept Inventory Actually Measure?</t>
   </si>
   <si>
-    <t>Huffman, Douglas, and Patricia Heller</t>
+    <t>Douglas Huffman and Patricia Heller</t>
   </si>
   <si>
     <t>https://aapt.scitation.org/doi/pdf/10.1119/1.2344171</t>
   </si>
   <si>
+    <t>Correlating student interest and high school preparation with learning and performance in an introductory university physics course</t>
+  </si>
+  <si>
+    <t>Jason J. B. Harlow, David M. Harrison, and Andrew Meyertholen</t>
+  </si>
+  <si>
+    <t>https://journals.aps.org/prper/abstract/10.1103/PhysRevSTPER.10.010112</t>
+  </si>
+  <si>
+    <t>Effective student teams for collaborative learning in an introductory university physics course</t>
+  </si>
+  <si>
+    <t>https://journals.aps.org/prper/abstract/10.1103/PhysRevPhysEducRes.12.010138</t>
+  </si>
+  <si>
+    <t>Personality types and student performance in an introductory physics course</t>
+  </si>
+  <si>
+    <t>Jason J. B. Harlow, David M. Harrison, Michael Justason, Andrew Meyertholen, and Brian Wilson</t>
+  </si>
+  <si>
+    <t>https://journals.aps.org/prper/abstract/10.1103/PhysRevPhysEducRes.13.020124</t>
+  </si>
+  <si>
+    <t>Gender, experience, and self-efficacy in introductory physics</t>
+  </si>
+  <si>
+    <t>Jayson M. Nissen and Jonathan T. Shemwell</t>
+  </si>
+  <si>
+    <t>https://journals.aps.org/prper/abstract/10.1103/PhysRevPhysEducRes.12.020105</t>
+  </si>
+  <si>
+    <t>FMCE</t>
+  </si>
+  <si>
+    <t>Talking and learning physics: Predicting future grades from network measures and Force Concept Inventory pretest scores</t>
+  </si>
+  <si>
+    <t>Jesper Bruun and Eric Brewe</t>
+  </si>
+  <si>
+    <t>https://journals.aps.org/prper/abstract/10.1103/PhysRevSTPER.9.020109</t>
+  </si>
+  <si>
+    <t>Experimental validation of the half-length Force Concept Inventory</t>
+  </si>
+  <si>
+    <t>Jing Han, Kathleen Koenig, Lili Cui, Joseph Fritchman, Dan Li, Wanyi Sun, Zhao Fu, and Lei Bao</t>
+  </si>
+  <si>
+    <t>https://journals.aps.org/prper/abstract/10.1103/PhysRevPhysEducRes.12.020122</t>
+  </si>
+  <si>
+    <t>Dividing the Force Concept Inventory into two equivalent half-length tests</t>
+  </si>
+  <si>
+    <t>Jing Han, Lei Bao, Li Chen, Tianfang Cai, Yuan Pi, Shaona Zhou, Yan Tu, and Kathleen Koenig</t>
+  </si>
+  <si>
+    <t>https://journals.aps.org/prper/abstract/10.1103/PhysRevSTPER.11.010112</t>
+  </si>
+  <si>
+    <t>Using time-on-task measurements to understand student performance in a physics class: A four-year study</t>
+  </si>
+  <si>
+    <t>John Stewart, Gay Stewart, and Jennifer Taylor</t>
+  </si>
+  <si>
+    <t>https://journals.aps.org/prper/abstract/10.1103/PhysRevSTPER.8.010114</t>
+  </si>
+  <si>
+    <t>Using cluster analysis to identify patterns in students’ responses to contextually different conceptual problems</t>
+  </si>
+  <si>
+    <t>John Stewart, Mayo Miller, Christine Audo, and Gay Stewart</t>
+  </si>
+  <si>
+    <t>https://journals.aps.org/prper/abstract/10.1103/PhysRevSTPER.8.020112</t>
+  </si>
+  <si>
+    <t>Behavioral self-regulation in a physics class</t>
+  </si>
+  <si>
+    <t>John Stewart, Seth DeVore, Gay Stewart, and Lynnette Michaluk</t>
+  </si>
+  <si>
+    <t>https://journals.aps.org/prper/abstract/10.1103/PhysRevPhysEducRes.12.010125</t>
+  </si>
+  <si>
+    <t>Validating two questions in the Force Concept Inventory with subquestions</t>
+  </si>
+  <si>
+    <t>Jun-ichiro Yasuda and Masa-aki Taniguchi</t>
+  </si>
+  <si>
+    <t>https://journals.aps.org/prper/abstract/10.1103/PhysRevSTPER.9.010113</t>
+  </si>
+  <si>
+    <t>Evaluation of Colorado Learning Attitudes about Science Survey</t>
+  </si>
+  <si>
+    <t>Kerrie A. Douglas and MS Yale and DE Bennett and Mark P. Haugan and Lynn Bryan</t>
+  </si>
+  <si>
+    <t>https://journals.aps.org/prper/abstract/10.1103/PhysRevSTPER.10.020128</t>
+  </si>
+  <si>
+    <t>Students know what physicists believe, but they don’t agree: A study using the CLASS survey</t>
+  </si>
+  <si>
+    <t>Kara E. Gray, Wendy K. Adams, Carl E. Wieman, and Katherine K. Perkins</t>
+  </si>
+  <si>
+    <t>https://journals.aps.org/prper/abstract/10.1103/PhysRevSTPER.4.020106</t>
+  </si>
+  <si>
+    <t>Response switching and self-efficacy in Peer Instruction classrooms</t>
+  </si>
+  <si>
+    <t>Kelly Miller, Julie Schell, Andrew Ho, Brian Lukoff, and Eric Mazur</t>
+  </si>
+  <si>
+    <t>https://journals.aps.org/prper/abstract/10.1103/PhysRevSTPER.11.010104</t>
+  </si>
+  <si>
+    <t>Conceptual question response times in Peer Instruction classrooms</t>
+  </si>
+  <si>
+    <t>Kelly Miller, Nathaniel Lasry, Brian Lukoff, Julie Schell, and Eric Mazur</t>
+  </si>
+  <si>
+    <t>https://journals.aps.org/prper/abstract/10.1103/PhysRevSTPER.10.020113</t>
+  </si>
+  <si>
+    <t>Analysis of student engagement in an online annotation system in the context of a flipped introductory physics class</t>
+  </si>
+  <si>
+    <t>Kelly Miller, Sacha Zyto, David Karger, Junehee Yoo, and Eric Mazur</t>
+  </si>
+  <si>
+    <t>https://journals.aps.org/prper/abstract/10.1103/PhysRevPhysEducRes.12.020143</t>
+  </si>
+  <si>
+    <t>Preliminary investigation of instructor effects on gender gap in introductory physics</t>
+  </si>
+  <si>
+    <t>Kimberley Kreutzer and Andrew Boudreaux</t>
+  </si>
+  <si>
+    <t>https://journals.aps.org/prper/abstract/10.1103/PhysRevSTPER.8.010120</t>
+  </si>
+  <si>
+    <t>Addressing students’ difficulties with Faraday’s law: A guided problem solving approach</t>
+  </si>
+  <si>
+    <t>Kristina Zuza, José-Manuel Almudí, Ane Leniz, and Jenaro Guisasola</t>
+  </si>
+  <si>
+    <t>https://journals.aps.org/prper/abstract/10.1103/PhysRevSTPER.10.010122</t>
+  </si>
+  <si>
+    <t>Gender disparities in second-semester college physics: The incremental effects of a “smog of bias”</t>
+  </si>
+  <si>
+    <t>Lauren E. Kost-Smith, Steven J. Pollock, and Noah D. Finkelstein</t>
+  </si>
+  <si>
+    <t>https://journals.aps.org/prper/abstract/10.1103/PhysRevSTPER.6.020112</t>
+  </si>
+  <si>
+    <t>Characterizing the gender gap in introductory physics</t>
+  </si>
+  <si>
+    <t>Lauren E. Kost, Steven J. Pollock, and Noah D. Finkelstein</t>
+  </si>
+  <si>
+    <t>https://journals.aps.org/prper/abstract/10.1103/PhysRevSTPER.5.010101</t>
+  </si>
+  <si>
+    <t>Learning of content knowledge and development of scientific reasoning ability: A cross culture comparison</t>
+  </si>
+  <si>
+    <t>Lei Bao, Kai Fang, Tianfang Cai, Jing Wang, Lijia Yang, Lili Cui, Jing Han, Lin Ding, Ying Luo</t>
+  </si>
+  <si>
+    <t>https://aapt.scitation.org/doi/full/10.1119/1.2976334</t>
+  </si>
+  <si>
+    <t>Seeking missing pieces in science concept assessments: Reevaluating the Brief Electricity and Magnetism Assessment through Rasch analysis</t>
+  </si>
+  <si>
+    <t>Lin Ding</t>
+  </si>
+  <si>
+    <t>https://journals.aps.org/prper/abstract/10.1103/PhysRevSTPER.10.010105</t>
+  </si>
+  <si>
+    <t>Verification of causal influences of reasoning skills and epistemology on physics conceptual learning</t>
+  </si>
+  <si>
+    <t>https://journals.aps.org/prper/abstract/10.1103/PhysRevSTPER.10.023101</t>
+  </si>
+  <si>
+    <t>Uncovering the hidden meaning of cross-curriculum comparison results on the Force Concept Inventory</t>
+  </si>
+  <si>
+    <t>Lin Ding and Marcos D. Caballero</t>
+  </si>
+  <si>
+    <t>https://journals.aps.org/prper/abstract/10.1103/PhysRevSTPER.10.020125</t>
+  </si>
+  <si>
+    <t>Making of epistemologically sophisticated physics teachers: A cross-sequential study of epistemological progression from preservice to in-service teachers</t>
+  </si>
+  <si>
+    <t>Lin Ding and Ping Zhang</t>
+  </si>
+  <si>
+    <t>https://journals.aps.org/prper/abstract/10.1103/PhysRevPhysEducRes.12.020137</t>
+  </si>
+  <si>
+    <t>Evaluating an electricity and magnetism assessment tool: Brief electricity and magnetism assessment</t>
+  </si>
+  <si>
+    <t>Lin Ding, Ruth Chabay, Bruce Sherwood, and Robert Beichner</t>
+  </si>
+  <si>
+    <t>https://journals.aps.org/prper/abstract/10.1103/PhysRevSTPER.2.010105</t>
+  </si>
+  <si>
+    <t>Examining evolving performance on the Force Concept Inventory using factor analysis</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Matthew Semak, Robert D. Dietz, Robert Pearson, Celestine Willis </t>
+  </si>
+  <si>
+    <t>https://journals.aps.org/prper/abstract/10.1103/PhysRevPhysEducRes.13.010103</t>
+  </si>
+  <si>
+    <t>Role of beliefs and emotions in numerical problem solving in university physics education</t>
+  </si>
+  <si>
+    <t>Madelen Bodin and Mikael Winberg</t>
+  </si>
+  <si>
+    <t>https://journals.aps.org/prper/abstract/10.1103/PhysRevSTPER.8.010108</t>
+  </si>
+  <si>
+    <t>Assessment of difficulties of some conceptual areas from electricity and magnetism using the Conceptual Survey of Electricity and Magnetism</t>
+  </si>
+  <si>
+    <t>Maja Planinic</t>
+  </si>
+  <si>
+    <t>https://aapt.scitation.org/doi/full/10.1119/1.2366733</t>
+  </si>
+  <si>
+    <t>Attitudes about science and conceptual physics learning in university introductory physics courses</t>
+  </si>
+  <si>
+    <t>Marina Milner-Bolotin, Tetyana Antimirova, Andrea Noack, and Anna Petrov</t>
+  </si>
+  <si>
+    <t>https://journals.aps.org/prper/abstract/10.1103/PhysRevSTPER.7.020107</t>
+  </si>
+  <si>
+    <t>Dissociative conceptual and quantitative problem solving outcomes across interactive engagement and traditional format introductory physics</t>
+  </si>
+  <si>
+    <t>Mark A. McDaniel, Siera M. Stoen, Regina F. Frey, Zachary E. Markow, K. Mairin Hynes, Jiuqing Zhao, and Michael J. Cahill</t>
+  </si>
+  <si>
+    <t>https://journals.aps.org/prper/abstract/10.1103/PhysRevPhysEducRes.12.020141</t>
+  </si>
+  <si>
+    <t>Tale of two curricula: The performance of 2000 students in introductory electromagnetism</t>
+  </si>
+  <si>
+    <t>Matthew A. Kohlmyer, Marcos D. Caballero, Richard Catrambone, Ruth W. Chabay, Lin Ding, Mark P. Haugan, M. Jackson Marr, Bruce A. Sherwood, and Michael F. Schatz</t>
+  </si>
+  <si>
+    <t>https://journals.aps.org/prper/abstract/10.1103/PhysRevSTPER.5.020105</t>
+  </si>
+  <si>
+    <t>Multiyear, multi-instructor evaluation of a large-class interactive-engagement curriculum</t>
+  </si>
+  <si>
+    <t>Michael J. Cahill, K. Mairin Hynes, Rebecca Trousil, Lisa A. Brooks, Mark A. McDaniel, Michelle Repice, Jiuqing Zhao, and Regina F. Frey</t>
+  </si>
+  <si>
+    <t>https://journals.aps.org/prper/abstract/10.1103/PhysRevSTPER.10.020101</t>
+  </si>
+  <si>
+    <t>Unexpected attitudinal growth in a course combining reformed curricula</t>
+  </si>
+  <si>
+    <t>Michael M. Hull, Beth A. Lindsey, Matthew Archambault, Kathleen Davey, and Amy Y. Liu</t>
+  </si>
+  <si>
+    <t>https://journals.aps.org/prper/abstract/10.1103/PhysRevPhysEducRes.12.010101</t>
+  </si>
+  <si>
+    <t>Assessing students’ conceptual knowledge of electricity and magnetism</t>
+  </si>
+  <si>
+    <t>Michele W. McColgan, Rose A. Finn, Darren L. Broder, and George E. Hassel</t>
+  </si>
+  <si>
+    <t>https://journals.aps.org/prper/abstract/10.1103/PhysRevPhysEducRes.13.020121</t>
+  </si>
+  <si>
+    <t>EMCA</t>
+  </si>
+  <si>
+    <t>Effects of two different types of physics learning on the results of CLASS test</t>
+  </si>
+  <si>
+    <t>Mirko Marušić and Josip Sliško</t>
+  </si>
+  <si>
+    <t>https://journals.aps.org/prper/abstract/10.1103/PhysRevSTPER.8.010107</t>
+  </si>
+  <si>
+    <t>Large-scale survey of Chinese precollege students’ epistemological beliefs about physics: A progression or a regression?</t>
+  </si>
+  <si>
+    <t>Ping Zhang and Lin Ding</t>
+  </si>
+  <si>
+    <t>https://journals.aps.org/prper/abstract/10.1103/PhysRevSTPER.9.010110</t>
+  </si>
+  <si>
+    <t>Peer Instruction in introductory physics: A method to bring about positive changes in students’ attitudes and beliefs</t>
+  </si>
+  <si>
+    <t>Ping Zhang, Lin Ding, and Eric Mazur</t>
+  </si>
+  <si>
+    <t>https://journals.aps.org/prper/abstract/10.1103/PhysRevPhysEducRes.13.010104</t>
+  </si>
+  <si>
+    <t>Exploring the gender gap in the conceptual survey of electricity and magnetism</t>
+  </si>
+  <si>
+    <t>Rachel Henderson, Gay Stewart, John Stewart, Lynnette Michaluk, and Adrienne Traxler</t>
+  </si>
+  <si>
+    <t>https://journals.aps.org/prper/abstract/10.1103/PhysRevPhysEducRes.13.020114</t>
+  </si>
+  <si>
+    <t>Longitudinal study of student conceptual understanding in electricity and magnetism</t>
+  </si>
+  <si>
+    <t>Steven J. Pollock</t>
+  </si>
+  <si>
+    <t>https://journals.aps.org/prper/abstract/10.1103/PhysRevSTPER.5.020110</t>
+  </si>
+  <si>
+    <t>Examining the effects of testwiseness in conceptual physics evaluations</t>
+  </si>
+  <si>
+    <t>Seth DeVore, John Stewart, and Gay Stewart</t>
+  </si>
+  <si>
+    <t>https://journals.aps.org/prper/abstract/10.1103/PhysRevPhysEducRes.12.020138</t>
+  </si>
+  <si>
+    <t>Effect of scaffolding on helping introductory physics students solve quantitative problems involving strong alternative conceptions</t>
+  </si>
+  <si>
+    <t>Shih-Yin Lin and Chandralekha Singh</t>
+  </si>
+  <si>
+    <t>https://journals.aps.org/prper/abstract/10.1103/PhysRevSTPER.11.020105</t>
+  </si>
+  <si>
+    <t>How attitudes and beliefs about physics change from high school to faculty</t>
+  </si>
+  <si>
+    <t>Simon P. Bates, Ross K. Galloway, Claire Loptson, and Katherine A. Slaughter</t>
+  </si>
+  <si>
+    <t>https://journals.aps.org/prper/abstract/10.1103/PhysRevSTPER.7.020114</t>
+  </si>
+  <si>
     <t>Performance on multiple-choice diagnostics and complementary exam problems.</t>
   </si>
   <si>
@@ -78,662 +648,92 @@
     <t>https://aapt.scitation.org/doi/abs/10.1119/1.2344625</t>
   </si>
   <si>
-    <t>Surveying students’ conceptual knowledge of electricity and magnetism</t>
-  </si>
-  <si>
-    <t>David P. Maloney, Thomas L. O’Kuma, Curtis J. Hieggelke, and Alan Van Heuvelen</t>
-  </si>
-  <si>
-    <t>AJP</t>
-  </si>
-  <si>
-    <t>https://aapt.scitation.org/doi/pdf/10.1119/1.1371296</t>
-  </si>
-  <si>
-    <t>CSEM</t>
-  </si>
-  <si>
-    <t>College physics students’ epistemological self-reflection and its relationship to conceptual learning</t>
-  </si>
-  <si>
-    <t>David B. May, and Eugenia Etkina</t>
-  </si>
-  <si>
-    <t>https://aapt.scitation.org/doi/pdf/10.1119/1.1503377</t>
-  </si>
-  <si>
-    <t>The effects of a concept-construction lab course on FCI performance</t>
-  </si>
-  <si>
-    <t>David J. Van Domelen, and Alan Van Heuvelen</t>
-  </si>
-  <si>
-    <t>https://aapt.scitation.org/doi/pdf/10.1119/1.1377284</t>
-  </si>
-  <si>
-    <t>MPEX</t>
-  </si>
-  <si>
-    <t>Modeling the motion of a toy train powered with a time-dependent applied voltage: Educational implementation and analysis</t>
-  </si>
-  <si>
-    <t>D. P. Wick, and M. W. Ramsdell</t>
-  </si>
-  <si>
-    <t>https://aapt.scitation.org/doi/pdf/10.1119/1.1637040</t>
-  </si>
-  <si>
-    <t>Impact of peer interaction on conceptual test performance</t>
-  </si>
-  <si>
-    <t>Chandralekha Singh</t>
-  </si>
-  <si>
-    <t>https://aapt.scitation.org/doi/pdf/10.1119/1.1858450</t>
-  </si>
-  <si>
-    <t>Assessment of difficulties of some conceptual areas from electricity and magnetism using the Conceptual Survey of Electricity and Magnetism</t>
-  </si>
-  <si>
-    <t>Maja Planinic</t>
-  </si>
-  <si>
-    <t>https://aapt.scitation.org/doi/full/10.1119/1.2366733</t>
-  </si>
-  <si>
-    <t>Evaluating an electricity and magnetism assessment tool: Brief electricity and magnetism assessment</t>
-  </si>
-  <si>
-    <t>Lin Ding, Ruth Chabay, Bruce Sherwood, and Robert Beichner</t>
-  </si>
-  <si>
-    <t>Phys. Rev.- PER</t>
-  </si>
-  <si>
-    <t>https://journals.aps.org/prper/abstract/10.1103/PhysRevSTPER.2.010105</t>
-  </si>
-  <si>
-    <t>BEMA</t>
+    <t>Sustaining educational reforms in introductory physics</t>
+  </si>
+  <si>
+    <t>Steven J. Pollock and Noah D. Finkelstein</t>
+  </si>
+  <si>
+    <t>https://journals.aps.org/prper/abstract/10.1103/PhysRevSTPER.4.010110</t>
+  </si>
+  <si>
+    <t>Reducing the gender gap in the physics classroom: How sufficient is interactive engagement?</t>
+  </si>
+  <si>
+    <t>Steven J. Pollock, Noah D. Finkelstein, and Lauren E. Kost</t>
+  </si>
+  <si>
+    <t>https://journals.aps.org/prper/abstract/10.1103/PhysRevSTPER.3.010107</t>
+  </si>
+  <si>
+    <t>Students’ proficiency scores within multitrait item response theory</t>
+  </si>
+  <si>
+    <t>Terry F. Scott and Daniel Schumayer</t>
+  </si>
+  <si>
+    <t>https://journals.aps.org/prper/abstract/10.1103/PhysRevSTPER.11.020134</t>
+  </si>
+  <si>
+    <t>Conceptual coherence of non-Newtonian worldviews in Force Concept Inventory data</t>
+  </si>
+  <si>
+    <t>Terry F. Scott and Dániel Schumayer</t>
+  </si>
+  <si>
+    <t>https://journals.aps.org/prper/abstract/10.1103/PhysRevPhysEducRes.13.010126</t>
+  </si>
+  <si>
+    <t>Exploratory factor analysis of a Force Concept Inventory data set</t>
+  </si>
+  <si>
+    <t>Terry F. Scott, Daniel Schumayer, and Andrew R. Gray</t>
+  </si>
+  <si>
+    <t>https://journals.aps.org/prper/abstract/10.1103/PhysRevSTPER.8.020105</t>
+  </si>
+  <si>
+    <t>A physics department's role in preparing physics teachers: The Colorado learning assistant model</t>
+  </si>
+  <si>
+    <t>Valerie K. Otero, Steven J. Pollock, Noah D. Finkelstein</t>
+  </si>
+  <si>
+    <t>https://aapt.scitation.org/doi/full/10.1119/1.3471291</t>
+  </si>
+  <si>
+    <t>Attitudinal gains across multiple universities using the Physics and Everyday Thinking curriculum</t>
+  </si>
+  <si>
+    <t>Valerie K. Otero and Kara E. Gray</t>
+  </si>
+  <si>
+    <t>https://journals.aps.org/prper/abstract/10.1103/PhysRevSTPER.4.020104</t>
+  </si>
+  <si>
+    <t>Validation study of the Colorado Learning Attitudes about Science Survey at a Hispanic-serving institution</t>
+  </si>
+  <si>
+    <t>Vashti Sawtelle, Eric Brewe, and Laird Kramer</t>
+  </si>
+  <si>
+    <t>https://journals.aps.org/prper/abstract/10.1103/PhysRevSTPER.5.023101</t>
   </si>
   <si>
     <t>New instrument for measuring student beliefs about physics and learning physics: The Colorado Learning Attitudes about Science Survey</t>
   </si>
   <si>
-    <t>W. K. Adams, K. K. Perkins, N. S. Podolefsky, M. Dubson, N. D. Finkelstein, and C. E. Wieman</t>
+    <t>Wendy K. Adams, Katherine K. Perkins, Noah. S. Podolefsky, Michael Dubson, Noah D. Finkelstein, and Carl E. Wieman</t>
   </si>
   <si>
     <t>https://journals.aps.org/prper/abstract/10.1103/PhysRevSTPER.2.010101</t>
-  </si>
-  <si>
-    <t>CLASS</t>
-  </si>
-  <si>
-    <t>Reducing the gender gap in the physics classroom: How sufficient is interactive engagement?</t>
-  </si>
-  <si>
-    <t>Steven J. Pollock, Noah D. Finkelstein, and Lauren E. Kost</t>
-  </si>
-  <si>
-    <t>https://journals.aps.org/prper/abstract/10.1103/PhysRevSTPER.3.010107</t>
-  </si>
-  <si>
-    <t>FMCE</t>
-  </si>
-  <si>
-    <t>Attitudinal gains across multiple universities using the Physics and Everyday Thinking curriculum</t>
-  </si>
-  <si>
-    <t>Valerie K. Otero and Kara E. Gray</t>
-  </si>
-  <si>
-    <t>https://journals.aps.org/prper/abstract/10.1103/PhysRevSTPER.4.020104</t>
-  </si>
-  <si>
-    <t>Students know what physicists believe, but they don’t agree: A study using the CLASS survey</t>
-  </si>
-  <si>
-    <t>Kara E. Gray, Wendy K. Adams, Carl E. Wieman, and Katherine K. Perkins</t>
-  </si>
-  <si>
-    <t>https://journals.aps.org/prper/abstract/10.1103/PhysRevSTPER.4.020106</t>
-  </si>
-  <si>
-    <t>Sustaining educational reforms in introductory physics</t>
-  </si>
-  <si>
-    <t>Steven J. Pollock and Noah D. Finkelstein</t>
-  </si>
-  <si>
-    <t>https://journals.aps.org/prper/abstract/10.1103/PhysRevSTPER.4.010110</t>
-  </si>
-  <si>
-    <t>Characterizing the epistemological development of physics majors</t>
-  </si>
-  <si>
-    <t>Elizabeth Gire, Barbara Jones, and Edward Price</t>
-  </si>
-  <si>
-    <t>https://journals.aps.org/prper/abstract/10.1103/PhysRevSTPER.5.010103</t>
-  </si>
-  <si>
-    <t>Characterizing the gender gap in introductory physics</t>
-  </si>
-  <si>
-    <t>Lauren E. Kost, Steven J. Pollock, and Noah D. Finkelstein</t>
-  </si>
-  <si>
-    <t>https://journals.aps.org/prper/abstract/10.1103/PhysRevSTPER.5.010101</t>
-  </si>
-  <si>
-    <t>Development of quantum perspectives in modern physics</t>
-  </si>
-  <si>
-    <t>Charles Baily and Noah D. Finkelstein</t>
-  </si>
-  <si>
-    <t>https://journals.aps.org/prper/abstract/10.1103/PhysRevSTPER.5.010106</t>
-  </si>
-  <si>
-    <t>Learning of content knowledge and development of scientific reasoning ability: A cross culture comparison</t>
-  </si>
-  <si>
-    <t>Lei Bao, Kai Fang, Tianfang Cai, Jing Wang, Lijia Yang, Lili Cui, Jing Han, Lin Ding, Ying Luo</t>
-  </si>
-  <si>
-    <t>https://aapt.scitation.org/doi/full/10.1119/1.2976334</t>
-  </si>
-  <si>
-    <t>Longitudinal study of student conceptual understanding in electricity and magnetism</t>
-  </si>
-  <si>
-    <t>S. J. Pollock</t>
-  </si>
-  <si>
-    <t>https://journals.aps.org/prper/abstract/10.1103/PhysRevSTPER.5.020110</t>
-  </si>
-  <si>
-    <t>Tale of two curricula: The performance of 2000 students in introductory electromagnetism</t>
-  </si>
-  <si>
-    <t>Matthew A. Kohlmyer, Marcos D. Caballero, Richard Catrambone, Ruth W. Chabay, Lin Ding, Mark P. Haugan, M. Jackson Marr, Bruce A. Sherwood, and Michael F. Schatz</t>
-  </si>
-  <si>
-    <t>https://journals.aps.org/prper/abstract/10.1103/PhysRevSTPER.5.020105</t>
-  </si>
-  <si>
-    <t>Validation study of the Colorado Learning Attitudes about Science Survey at a Hispanic-serving institution</t>
-  </si>
-  <si>
-    <t>Vashti Sawtelle, Eric Brewe, and Laird Kramer</t>
-  </si>
-  <si>
-    <t>https://journals.aps.org/prper/abstract/10.1103/PhysRevSTPER.5.023101</t>
-  </si>
-  <si>
-    <t>A physics department's role in preparing physics teachers: The Colorado learning assistant model</t>
-  </si>
-  <si>
-    <t>V Otero, S Pollock, N Finkelstein</t>
-  </si>
-  <si>
-    <t>https://aapt.scitation.org/doi/full/10.1119/1.3471291</t>
-  </si>
-  <si>
-    <t>Gender disparities in second-semester college physics: The incremental effects of a “smog of bias”</t>
-  </si>
-  <si>
-    <t>Lauren E. Kost-Smith, Steven J. Pollock, and Noah D. Finkelstein</t>
-  </si>
-  <si>
-    <t>https://journals.aps.org/prper/abstract/10.1103/PhysRevSTPER.6.020112</t>
-  </si>
-  <si>
-    <t>Attitudes about science and conceptual physics learning in university introductory physics courses</t>
-  </si>
-  <si>
-    <t>Marina Milner-Bolotin, Tetyana Antimirova, Andrea Noack, and Anna Petrov</t>
-  </si>
-  <si>
-    <t>https://journals.aps.org/prper/abstract/10.1103/PhysRevSTPER.7.020107</t>
-  </si>
-  <si>
-    <t>How attitudes and beliefs about physics change from high school to faculty</t>
-  </si>
-  <si>
-    <t>Simon P. Bates, Ross K. Galloway, Claire Loptson, and Katherine A. Slaughter</t>
-  </si>
-  <si>
-    <t>https://journals.aps.org/prper/abstract/10.1103/PhysRevSTPER.7.020114</t>
-  </si>
-  <si>
-    <t>Effects of two different types of physics learning on the results of CLASS test</t>
-  </si>
-  <si>
-    <t>Mirko Marušić and Josip Sliško</t>
-  </si>
-  <si>
-    <t>Late</t>
-  </si>
-  <si>
-    <t>https://journals.aps.org/prper/abstract/10.1103/PhysRevSTPER.8.010107</t>
-  </si>
-  <si>
-    <t>Exploratory factor analysis of a Force Concept Inventory data set</t>
-  </si>
-  <si>
-    <t>Terry F. Scott, Daniel Schumayer, and Andrew R. Gray</t>
-  </si>
-  <si>
-    <t>https://journals.aps.org/prper/abstract/10.1103/PhysRevSTPER.8.020105</t>
-  </si>
-  <si>
-    <t>Preliminary investigation of instructor effects on gender gap in introductory physics</t>
-  </si>
-  <si>
-    <t>Kimberley Kreutzer and Andrew Boudreaux</t>
-  </si>
-  <si>
-    <t>https://journals.aps.org/prper/abstract/10.1103/PhysRevSTPER.8.010120</t>
-  </si>
-  <si>
-    <t>Role of beliefs and emotions in numerical problem solving in university physics education</t>
-  </si>
-  <si>
-    <t>Madelen Bodin and Mikael Winberg</t>
-  </si>
-  <si>
-    <t>https://journals.aps.org/prper/abstract/10.1103/PhysRevSTPER.8.010108</t>
-  </si>
-  <si>
-    <t>Using cluster analysis to identify patterns in students’ responses to contextually different conceptual problems</t>
-  </si>
-  <si>
-    <t>John Stewart, Mayo Miller, Christine Audo, and Gay Stewart</t>
-  </si>
-  <si>
-    <t>https://journals.aps.org/prper/abstract/10.1103/PhysRevSTPER.8.020112</t>
-  </si>
-  <si>
-    <t>Using time-on-task measurements to understand student performance in a physics class: A four-year study</t>
-  </si>
-  <si>
-    <t>John Stewart, Gay Stewart, and Jennifer Taylor</t>
-  </si>
-  <si>
-    <t>https://journals.aps.org/prper/abstract/10.1103/PhysRevSTPER.8.010114</t>
-  </si>
-  <si>
-    <t>What do seniors remember from freshman physics?</t>
-  </si>
-  <si>
-    <t>Andrew Pawl, Analia Barrantes, David E. Pritchard, and Rudolph Mitchell</t>
-  </si>
-  <si>
-    <t>https://journals.aps.org/prper/abstract/10.1103/PhysRevSTPER.8.020118</t>
-  </si>
-  <si>
-    <t>Does using a visual-representation tool foster students’ ability to identify forces and construct free-body diagrams?</t>
-  </si>
-  <si>
-    <t>Antti Savinainen, Asko Mäkynen, Pasi Nieminen, and Jouni Viiri</t>
-  </si>
-  <si>
-    <t>https://journals.aps.org/prper/abstract/10.1103/PhysRevSTPER.9.010104</t>
-  </si>
-  <si>
-    <t>Extending positive CLASS results across multiple instructors and multiple classes of Modeling Instruction</t>
-  </si>
-  <si>
-    <t>Eric Brewe, Adrienne Traxler, Jorge de la Garza, and Laird H. Kramer</t>
-  </si>
-  <si>
-    <t>https://journals.aps.org/prper/abstract/10.1103/PhysRevSTPER.9.020116</t>
-  </si>
-  <si>
-    <t>Large-scale survey of Chinese precollege students’ epistemological beliefs about physics: A progression or a regression?</t>
-  </si>
-  <si>
-    <t>Ping Zhang and Lin Ding</t>
-  </si>
-  <si>
-    <t>https://journals.aps.org/prper/abstract/10.1103/PhysRevSTPER.9.010110</t>
-  </si>
-  <si>
-    <t>Talking and learning physics: Predicting future grades from network measures and Force Concept Inventory pretest scores</t>
-  </si>
-  <si>
-    <t>Jesper Bruun and Eric Brewe</t>
-  </si>
-  <si>
-    <t>https://journals.aps.org/prper/abstract/10.1103/PhysRevSTPER.9.020109</t>
-  </si>
-  <si>
-    <t>Validating two questions in the Force Concept Inventory with subquestions</t>
-  </si>
-  <si>
-    <t>Jun-ichiro Yasuda and Masa-aki Taniguchi</t>
-  </si>
-  <si>
-    <t>https://journals.aps.org/prper/abstract/10.1103/PhysRevSTPER.9.010113</t>
-  </si>
-  <si>
-    <t>Addressing students’ difficulties with Faraday’s law: A guided problem solving approach</t>
-  </si>
-  <si>
-    <t>Kristina Zuza, José-Manuel Almudí, Ane Leniz, and Jenaro Guisasola</t>
-  </si>
-  <si>
-    <t>https://journals.aps.org/prper/abstract/10.1103/PhysRevSTPER.10.010122</t>
-  </si>
-  <si>
-    <t>Conceptual question response times in Peer Instruction classrooms</t>
-  </si>
-  <si>
-    <t>Kelly Miller, Nathaniel Lasry, Brian Lukoff, Julie Schell, and Eric Mazur</t>
-  </si>
-  <si>
-    <t>https://journals.aps.org/prper/abstract/10.1103/PhysRevSTPER.10.020113</t>
-  </si>
-  <si>
-    <t>Correlating student interest and high school preparation with learning and performance in an introductory university physics course</t>
-  </si>
-  <si>
-    <t>Jason J. B. Harlow, David M. Harrison, and Andrew Meyertholen</t>
-  </si>
-  <si>
-    <t>https://journals.aps.org/prper/abstract/10.1103/PhysRevSTPER.10.010112</t>
-  </si>
-  <si>
-    <t>Evaluation of Colorado Learning Attitudes about Science Survey</t>
-  </si>
-  <si>
-    <t>K. A. Douglas, M. S. Yale, D. E. Bennett, M. P. Haugan, and L. A. Bryan</t>
-  </si>
-  <si>
-    <t>https://journals.aps.org/prper/abstract/10.1103/PhysRevSTPER.10.020128</t>
-  </si>
-  <si>
-    <t>Introduction of interactive learning into French university physics classrooms</t>
-  </si>
-  <si>
-    <t>Alexander L. Rudolph, Brahim Lamine, Michael Joyce, Hélène Vignolles, and David Consiglio</t>
-  </si>
-  <si>
-    <t>https://journals.aps.org/prper/abstract/10.1103/PhysRevSTPER.10.010103</t>
-  </si>
-  <si>
-    <t>Lessons from a large-scale assessment: Results from conceptual inventories</t>
-  </si>
-  <si>
-    <t>Beth Thacker, Hani Dulli, Dave Pattillo, and Keith West</t>
-  </si>
-  <si>
-    <t>https://journals.aps.org/prper/abstract/10.1103/PhysRevSTPER.10.020104</t>
-  </si>
-  <si>
-    <t>Multiyear, multi-instructor evaluation of a large-class interactive-engagement curriculum</t>
-  </si>
-  <si>
-    <t>Michael J. Cahill, K. Mairin Hynes, Rebecca Trousil, Lisa A. Brooks, Mark A. McDaniel, Michelle Repice, Jiuqing Zhao, and Regina F. Frey</t>
-  </si>
-  <si>
-    <t>https://journals.aps.org/prper/abstract/10.1103/PhysRevSTPER.10.020101</t>
-  </si>
-  <si>
-    <t>Secondary implementation of interactive engagement teaching techniques: Choices and challenges in a Gulf Arab context</t>
-  </si>
-  <si>
-    <t>G. W. Hitt, A. F. Isakovic, O. Fawwaz, M. S. Bawa’aneh, N. El-Kork, S. Makkiyil, and I. A. Qattan</t>
-  </si>
-  <si>
-    <t>https://journals.aps.org/prper/abstract/10.1103/PhysRevSTPER.10.020123</t>
-  </si>
-  <si>
-    <t>Seeking missing pieces in science concept assessments: Reevaluating the Brief Electricity and Magnetism Assessment through Rasch analysis</t>
-  </si>
-  <si>
-    <t>Lin Ding</t>
-  </si>
-  <si>
-    <t>https://journals.aps.org/prper/abstract/10.1103/PhysRevSTPER.10.010105</t>
-  </si>
-  <si>
-    <t>Uncovering the hidden meaning of cross-curriculum comparison results on the Force Concept Inventory</t>
-  </si>
-  <si>
-    <t>Lin Ding and Marcos D. Caballero</t>
-  </si>
-  <si>
-    <t>https://journals.aps.org/prper/abstract/10.1103/PhysRevSTPER.10.020125</t>
-  </si>
-  <si>
-    <t>Verification of causal influences of reasoning skills and epistemology on physics conceptual learning</t>
-  </si>
-  <si>
-    <t>https://journals.aps.org/prper/abstract/10.1103/PhysRevSTPER.10.023101</t>
-  </si>
-  <si>
-    <t>Dividing the Force Concept Inventory into two equivalent half-length tests</t>
-  </si>
-  <si>
-    <t>Jing Han, Lei Bao, Li Chen, Tianfang Cai, Yuan Pi, Shaona Zhou, Yan Tu, and Kathleen Koenig</t>
-  </si>
-  <si>
-    <t>https://journals.aps.org/prper/abstract/10.1103/PhysRevSTPER.11.010112</t>
-  </si>
-  <si>
-    <t>Effect of scaffolding on helping introductory physics students solve quantitative problems involving strong alternative conceptions</t>
-  </si>
-  <si>
-    <t>Shih-Yin Lin and Chandralekha Singh</t>
-  </si>
-  <si>
-    <t>https://journals.aps.org/prper/abstract/10.1103/PhysRevSTPER.11.020105</t>
-  </si>
-  <si>
-    <t>Response switching and self-efficacy in Peer Instruction classrooms</t>
-  </si>
-  <si>
-    <t>Kelly Miller, Julie Schell, Andrew Ho, Brian Lukoff, and Eric Mazur</t>
-  </si>
-  <si>
-    <t>https://journals.aps.org/prper/abstract/10.1103/PhysRevSTPER.11.010104</t>
-  </si>
-  <si>
-    <t>Students’ proficiency scores within multitrait item response theory</t>
-  </si>
-  <si>
-    <t>Terry F. Scott and Daniel Schumayer</t>
-  </si>
-  <si>
-    <t>https://journals.aps.org/prper/abstract/10.1103/PhysRevSTPER.11.020134</t>
-  </si>
-  <si>
-    <t>Analysis of student engagement in an online annotation system in the context of a flipped introductory physics class</t>
-  </si>
-  <si>
-    <t>Kelly Miller, Sacha Zyto, David Karger, Junehee Yoo, and Eric Mazur</t>
-  </si>
-  <si>
-    <t>https://journals.aps.org/prper/abstract/10.1103/PhysRevPhysEducRes.12.020143</t>
-  </si>
-  <si>
-    <t>Behavioral self-regulation in a physics class</t>
-  </si>
-  <si>
-    <t>John Stewart, Seth DeVore, Gay Stewart, and Lynnette Michaluk</t>
-  </si>
-  <si>
-    <t>https://journals.aps.org/prper/abstract/10.1103/PhysRevPhysEducRes.12.010125</t>
-  </si>
-  <si>
-    <t>Can dual processing theory explain physics students’ performance on the Force Concept Inventory?</t>
-  </si>
-  <si>
-    <t>Anna K. Wood, Ross K. Galloway, and Judy Hardy</t>
-  </si>
-  <si>
-    <t>https://journals.aps.org/prper/abstract/10.1103/PhysRevPhysEducRes.12.023101</t>
-  </si>
-  <si>
-    <t>Dissociative conceptual and quantitative problem solving outcomes across interactive engagement and traditional format introductory physics</t>
-  </si>
-  <si>
-    <t>Mark A. McDaniel, Siera M. Stoen, Regina F. Frey, Zachary E. Markow, K. Mairin Hynes, Jiuqing Zhao, and Michael J. Cahill</t>
-  </si>
-  <si>
-    <t>https://journals.aps.org/prper/abstract/10.1103/PhysRevPhysEducRes.12.020141</t>
-  </si>
-  <si>
-    <t>Effective student teams for collaborative learning in an introductory university physics course</t>
-  </si>
-  <si>
-    <t>https://journals.aps.org/prper/abstract/10.1103/PhysRevPhysEducRes.12.010138</t>
-  </si>
-  <si>
-    <t>Examining the effects of testwiseness in conceptual physics evaluations</t>
-  </si>
-  <si>
-    <t>Seth DeVore, John Stewart, and Gay Stewart</t>
-  </si>
-  <si>
-    <t>https://journals.aps.org/prper/abstract/10.1103/PhysRevPhysEducRes.12.020138</t>
-  </si>
-  <si>
-    <t>Experimental validation of the half-length Force Concept Inventory</t>
-  </si>
-  <si>
-    <t>Jing Han, Kathleen Koenig, Lili Cui, Joseph Fritchman, Dan Li, Wanyi Sun, Zhao Fu, and Lei Bao</t>
-  </si>
-  <si>
-    <t>https://journals.aps.org/prper/abstract/10.1103/PhysRevPhysEducRes.12.020122</t>
-  </si>
-  <si>
-    <t>Gender, experience, and self-efficacy in introductory physics</t>
-  </si>
-  <si>
-    <t>Jayson M. Nissen and Jonathan T. Shemwell</t>
-  </si>
-  <si>
-    <t>https://journals.aps.org/prper/abstract/10.1103/PhysRevPhysEducRes.12.020105</t>
-  </si>
-  <si>
-    <t>Making of epistemologically sophisticated physics teachers: A cross-sequential study of epistemological progression from preservice to in-service teachers</t>
-  </si>
-  <si>
-    <t>Lin Ding and Ping Zhang</t>
-  </si>
-  <si>
-    <t>https://journals.aps.org/prper/abstract/10.1103/PhysRevPhysEducRes.12.020137</t>
-  </si>
-  <si>
-    <t>Teaching assistants’ performance at identifying common introductory student difficulties in mechanics revealed by the Force Concept Inventory</t>
-  </si>
-  <si>
-    <t>Alexandru Maries and Chandralekha Singh</t>
-  </si>
-  <si>
-    <t>https://journals.aps.org/prper/abstract/10.1103/PhysRevPhysEducRes.12.010131</t>
-  </si>
-  <si>
-    <t>Unexpected attitudinal growth in a course combining reformed curricula</t>
-  </si>
-  <si>
-    <t>Michael M. Hull, Beth A. Lindsey, Matthew Archambault, Kathleen Davey, and Amy Y. Liu</t>
-  </si>
-  <si>
-    <t>https://journals.aps.org/prper/abstract/10.1103/PhysRevPhysEducRes.12.010101</t>
-  </si>
-  <si>
-    <t>Using module analysis for multiple choice responses: A new method applied to Force Concept Inventory data</t>
-  </si>
-  <si>
-    <t>Eric Brewe, Jesper Bruun, and Ian G. Bearden</t>
-  </si>
-  <si>
-    <t>https://journals.aps.org/prper/abstract/10.1103/PhysRevPhysEducRes.12.020131</t>
-  </si>
-  <si>
-    <t>Assessing students’ conceptual knowledge of electricity and magnetism</t>
-  </si>
-  <si>
-    <t>Michele W. McColgan, Rose A. Finn, Darren L. Broder, and George E. Hassel</t>
-  </si>
-  <si>
-    <t>https://journals.aps.org/prper/abstract/10.1103/PhysRevPhysEducRes.13.020121</t>
-  </si>
-  <si>
-    <t>EMCA</t>
-  </si>
-  <si>
-    <t>Competency based teaching of college physics: The philosophy and the practice</t>
-  </si>
-  <si>
-    <t>Ajith Rajapaksha and Andrew S. Hirsch</t>
-  </si>
-  <si>
-    <t>https://journals.aps.org/prper/abstract/10.1103/PhysRevPhysEducRes.13.020130</t>
-  </si>
-  <si>
-    <t>Conceptual coherence of non-Newtonian worldviews in Force Concept Inventory data</t>
-  </si>
-  <si>
-    <t>Terry F. Scott and Dániel Schumayer</t>
-  </si>
-  <si>
-    <t>https://journals.aps.org/prper/abstract/10.1103/PhysRevPhysEducRes.13.010126</t>
-  </si>
-  <si>
-    <t>Energy Project professional development: Promoting positive attitudes about science among K-12 teachers</t>
-  </si>
-  <si>
-    <t>Amy D. Robertson and Abigail R. Daane</t>
-  </si>
-  <si>
-    <t>https://journals.aps.org/prper/abstract/10.1103/PhysRevPhysEducRes.13.020102</t>
-  </si>
-  <si>
-    <t>Examining evolving performance on the Force Concept Inventory using factor analysis</t>
-  </si>
-  <si>
-    <t>M. R. Semak, R. D. Dietz, R. H. Pearson, and C. W. Willis</t>
-  </si>
-  <si>
-    <t>https://journals.aps.org/prper/abstract/10.1103/PhysRevPhysEducRes.13.010103</t>
-  </si>
-  <si>
-    <t>Exploring the gender gap in the conceptual survey of electricity and magnetism</t>
-  </si>
-  <si>
-    <t>Rachel Henderson, Gay Stewart, John Stewart, Lynnette Michaluk, and Adrienne Traxler</t>
-  </si>
-  <si>
-    <t>https://journals.aps.org/prper/abstract/10.1103/PhysRevPhysEducRes.13.020114</t>
-  </si>
-  <si>
-    <t>Peer Instruction in introductory physics: A method to bring about positive changes in students’ attitudes and beliefs</t>
-  </si>
-  <si>
-    <t>Ping Zhang, Lin Ding, and Eric Mazur</t>
-  </si>
-  <si>
-    <t>https://journals.aps.org/prper/abstract/10.1103/PhysRevPhysEducRes.13.010104</t>
-  </si>
-  <si>
-    <t>Personality types and student performance in an introductory physics course</t>
-  </si>
-  <si>
-    <t>Jason J. B. Harlow, David M. Harrison, Michael Justason, Andrew Meyertholen, and Brian Wilson</t>
-  </si>
-  <si>
-    <t>https://journals.aps.org/prper/abstract/10.1103/PhysRevPhysEducRes.13.020124</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="6">
+  <fonts count="7">
     <font>
       <sz val="10.0"/>
       <color rgb="FF000000"/>
@@ -744,6 +744,10 @@
       <name val="Arial"/>
     </font>
     <font>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <color rgb="FF000000"/>
       <name val="Arial"/>
     </font>
     <font>
@@ -784,7 +788,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="18">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -795,32 +799,35 @@
       <alignment horizontal="left" vertical="bottom"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="left" readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="left"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment vertical="bottom"/>
+      <alignment horizontal="left"/>
     </xf>
-    <xf borderId="0" fillId="3" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
-      <alignment horizontal="left" vertical="bottom"/>
+    <xf borderId="0" fillId="3" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
+      <alignment horizontal="left" readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="left" vertical="bottom"/>
+      <alignment vertical="bottom"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="left" readingOrder="0" vertical="bottom"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="left" vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="3" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="left" vertical="bottom"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment vertical="bottom"/>
@@ -831,7 +838,7 @@
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="left" vertical="bottom"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
@@ -898,7 +905,7 @@
         <v>10</v>
       </c>
       <c r="C2" s="3">
-        <v>1992.0</v>
+        <v>2017.0</v>
       </c>
       <c r="D2" s="3" t="s">
         <v>11</v>
@@ -906,10 +913,10 @@
       <c r="E2" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="F2" s="4" t="s">
+      <c r="F2" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="G2" s="5" t="s">
+      <c r="G2" s="4" t="s">
         <v>14</v>
       </c>
       <c r="H2" s="3"/>
@@ -923,7 +930,7 @@
         <v>16</v>
       </c>
       <c r="C3" s="3">
-        <v>1995.0</v>
+        <v>2014.0</v>
       </c>
       <c r="D3" s="3" t="s">
         <v>11</v>
@@ -934,21 +941,23 @@
       <c r="F3" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="G3" s="5" t="s">
+      <c r="G3" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="H3" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="H3" s="3"/>
       <c r="I3" s="3"/>
     </row>
     <row r="4">
       <c r="A4" s="3" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C4" s="3">
-        <v>1997.0</v>
+        <v>2016.0</v>
       </c>
       <c r="D4" s="3" t="s">
         <v>11</v>
@@ -956,10 +965,10 @@
       <c r="E4" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="F4" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="G4" s="5" t="s">
+      <c r="F4" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="G4" s="4" t="s">
         <v>14</v>
       </c>
       <c r="H4" s="3"/>
@@ -967,19 +976,19 @@
     </row>
     <row r="5">
       <c r="A5" s="3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C5" s="3">
-        <v>2001.0</v>
+        <v>2017.0</v>
       </c>
       <c r="D5" s="3" t="s">
         <v>11</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="F5" s="3" t="s">
         <v>24</v>
@@ -991,20 +1000,20 @@
       <c r="I5" s="3"/>
     </row>
     <row r="6">
-      <c r="A6" s="7" t="s">
+      <c r="A6" s="3" t="s">
         <v>26</v>
       </c>
       <c r="B6" s="3" t="s">
         <v>27</v>
       </c>
       <c r="C6" s="3">
-        <v>2002.0</v>
+        <v>2012.0</v>
       </c>
       <c r="D6" s="3" t="s">
         <v>11</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="F6" s="3" t="s">
         <v>28</v>
@@ -1023,74 +1032,76 @@
         <v>30</v>
       </c>
       <c r="C7" s="3">
-        <v>2002.0</v>
+        <v>2016.0</v>
       </c>
       <c r="D7" s="3" t="s">
         <v>11</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="F7" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="G7" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="H7" s="3" t="s">
+      <c r="G7" s="4" t="s">
         <v>14</v>
       </c>
+      <c r="H7" s="3"/>
       <c r="I7" s="3"/>
     </row>
     <row r="8">
       <c r="A8" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="B8" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="B8" s="3" t="s">
-        <v>34</v>
-      </c>
       <c r="C8" s="3">
-        <v>2004.0</v>
+        <v>2013.0</v>
       </c>
       <c r="D8" s="3" t="s">
         <v>11</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="F8" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="G8" s="6" t="s">
-        <v>25</v>
+        <v>34</v>
+      </c>
+      <c r="G8" s="4" t="s">
+        <v>14</v>
       </c>
       <c r="H8" s="3"/>
       <c r="I8" s="3"/>
     </row>
     <row r="9">
       <c r="A9" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="B9" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="B9" s="3" t="s">
-        <v>37</v>
-      </c>
       <c r="C9" s="3">
-        <v>2005.0</v>
+        <v>2014.0</v>
       </c>
       <c r="D9" s="3" t="s">
         <v>11</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="F9" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="G9" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="H9" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="G9" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="H9" s="3"/>
-      <c r="I9" s="3"/>
+      <c r="I9" s="3" t="s">
+        <v>18</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="3" t="s">
@@ -1100,44 +1111,44 @@
         <v>40</v>
       </c>
       <c r="C10" s="3">
-        <v>2006.0</v>
+        <v>2005.0</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>11</v>
+        <v>41</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>23</v>
+        <v>42</v>
       </c>
       <c r="F10" s="3" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="G10" s="6" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="H10" s="3"/>
       <c r="I10" s="3"/>
     </row>
     <row r="11">
       <c r="A11" s="3" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="C11" s="3">
-        <v>2006.0</v>
+        <v>2009.0</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>11</v>
+        <v>41</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>44</v>
+        <v>12</v>
       </c>
       <c r="F11" s="3" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G11" s="6" t="s">
-        <v>46</v>
+        <v>25</v>
       </c>
       <c r="H11" s="3"/>
       <c r="I11" s="3"/>
@@ -1146,252 +1157,252 @@
       <c r="A12" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="B12" s="3" t="s">
+      <c r="B12" s="5" t="s">
         <v>48</v>
       </c>
       <c r="C12" s="3">
-        <v>2006.0</v>
+        <v>2004.0</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>11</v>
+        <v>41</v>
       </c>
       <c r="E12" s="3" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="F12" s="3" t="s">
         <v>49</v>
       </c>
       <c r="G12" s="6" t="s">
-        <v>50</v>
+        <v>18</v>
       </c>
       <c r="H12" s="3"/>
       <c r="I12" s="3"/>
     </row>
     <row r="13">
-      <c r="A13" s="3" t="s">
+      <c r="A13" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="B13" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="B13" s="3" t="s">
+      <c r="C13" s="3">
+        <v>2002.0</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="E13" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="F13" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="C13" s="3">
-        <v>2007.0</v>
-      </c>
-      <c r="D13" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="E13" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="F13" s="3" t="s">
-        <v>53</v>
-      </c>
       <c r="G13" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="H13" s="3" t="s">
-        <v>54</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="H13" s="3"/>
       <c r="I13" s="3"/>
     </row>
     <row r="14">
       <c r="A14" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="C14" s="3">
+        <v>2002.0</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="F14" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="B14" s="3" t="s">
+      <c r="G14" s="6" t="s">
         <v>56</v>
       </c>
-      <c r="C14" s="3">
-        <v>2008.0</v>
-      </c>
-      <c r="D14" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="E14" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="F14" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="G14" s="6" t="s">
-        <v>50</v>
-      </c>
-      <c r="H14" s="3"/>
+      <c r="H14" s="3" t="s">
+        <v>14</v>
+      </c>
       <c r="I14" s="3"/>
     </row>
     <row r="15">
       <c r="A15" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="B15" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="B15" s="3" t="s">
+      <c r="C15" s="3">
+        <v>2001.0</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="E15" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="F15" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="C15" s="3">
-        <v>2008.0</v>
-      </c>
-      <c r="D15" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="E15" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="F15" s="3" t="s">
-        <v>60</v>
-      </c>
       <c r="G15" s="6" t="s">
-        <v>50</v>
+        <v>18</v>
       </c>
       <c r="H15" s="3"/>
       <c r="I15" s="3"/>
     </row>
     <row r="16">
       <c r="A16" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="B16" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="B16" s="3" t="s">
+      <c r="C16" s="3">
+        <v>2009.0</v>
+      </c>
+      <c r="D16" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="E16" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="F16" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="C16" s="3">
-        <v>2008.0</v>
-      </c>
-      <c r="D16" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="E16" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="F16" s="3" t="s">
-        <v>63</v>
-      </c>
       <c r="G16" s="6" t="s">
-        <v>46</v>
+        <v>25</v>
       </c>
       <c r="H16" s="3"/>
       <c r="I16" s="3"/>
     </row>
     <row r="17">
       <c r="A17" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="B17" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="B17" s="3" t="s">
-        <v>65</v>
-      </c>
       <c r="C17" s="3">
-        <v>2009.0</v>
+        <v>2013.0</v>
       </c>
       <c r="D17" s="3" t="s">
         <v>11</v>
       </c>
       <c r="E17" s="3" t="s">
-        <v>44</v>
+        <v>12</v>
       </c>
       <c r="F17" s="3" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G17" s="6" t="s">
-        <v>50</v>
+        <v>25</v>
       </c>
       <c r="H17" s="3"/>
       <c r="I17" s="3"/>
     </row>
     <row r="18">
       <c r="A18" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="B18" s="3" t="s">
         <v>67</v>
       </c>
-      <c r="B18" s="3" t="s">
-        <v>68</v>
-      </c>
       <c r="C18" s="3">
-        <v>2009.0</v>
+        <v>2016.0</v>
       </c>
       <c r="D18" s="3" t="s">
         <v>11</v>
       </c>
       <c r="E18" s="3" t="s">
-        <v>44</v>
+        <v>12</v>
       </c>
       <c r="F18" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="G18" s="6" t="s">
-        <v>50</v>
+        <v>68</v>
+      </c>
+      <c r="G18" s="4" t="s">
+        <v>14</v>
       </c>
       <c r="H18" s="3"/>
       <c r="I18" s="3"/>
     </row>
     <row r="19">
       <c r="A19" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="B19" s="5" t="s">
         <v>70</v>
       </c>
-      <c r="B19" s="3" t="s">
-        <v>71</v>
-      </c>
       <c r="C19" s="3">
-        <v>2009.0</v>
+        <v>2014.0</v>
       </c>
       <c r="D19" s="3" t="s">
         <v>11</v>
       </c>
       <c r="E19" s="3" t="s">
-        <v>44</v>
+        <v>12</v>
       </c>
       <c r="F19" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="G19" s="6" t="s">
-        <v>50</v>
-      </c>
-      <c r="H19" s="3"/>
+        <v>71</v>
+      </c>
+      <c r="G19" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="H19" s="3" t="s">
+        <v>56</v>
+      </c>
       <c r="I19" s="3"/>
     </row>
     <row r="20">
       <c r="A20" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="B20" s="7" t="s">
         <v>73</v>
       </c>
-      <c r="B20" s="3" t="s">
+      <c r="C20" s="3">
+        <v>1992.0</v>
+      </c>
+      <c r="D20" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="E20" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="C20" s="3">
-        <v>2009.0</v>
-      </c>
-      <c r="D20" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="E20" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="F20" s="3" t="s">
+      <c r="F20" s="8" t="s">
         <v>75</v>
       </c>
-      <c r="G20" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="H20" s="3" t="s">
+      <c r="G20" s="4" t="s">
         <v>14</v>
       </c>
+      <c r="H20" s="3"/>
       <c r="I20" s="3"/>
     </row>
     <row r="21">
       <c r="A21" s="3" t="s">
         <v>76</v>
       </c>
-      <c r="B21" s="3" t="s">
+      <c r="B21" s="5" t="s">
         <v>77</v>
       </c>
       <c r="C21" s="3">
-        <v>2009.0</v>
+        <v>1995.0</v>
       </c>
       <c r="D21" s="3" t="s">
-        <v>11</v>
+        <v>41</v>
       </c>
       <c r="E21" s="3" t="s">
-        <v>44</v>
+        <v>74</v>
       </c>
       <c r="F21" s="3" t="s">
         <v>78</v>
       </c>
-      <c r="G21" s="6" t="s">
-        <v>46</v>
+      <c r="G21" s="4" t="s">
+        <v>14</v>
       </c>
       <c r="H21" s="3"/>
       <c r="I21" s="3"/>
@@ -1404,19 +1415,19 @@
         <v>80</v>
       </c>
       <c r="C22" s="3">
-        <v>2009.0</v>
+        <v>2014.0</v>
       </c>
       <c r="D22" s="3" t="s">
         <v>11</v>
       </c>
       <c r="E22" s="3" t="s">
-        <v>44</v>
+        <v>12</v>
       </c>
       <c r="F22" s="3" t="s">
         <v>81</v>
       </c>
-      <c r="G22" s="6" t="s">
-        <v>46</v>
+      <c r="G22" s="4" t="s">
+        <v>14</v>
       </c>
       <c r="H22" s="3"/>
       <c r="I22" s="3"/>
@@ -1426,81 +1437,77 @@
         <v>82</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="C23" s="3">
-        <v>2009.0</v>
+        <v>2016.0</v>
       </c>
       <c r="D23" s="3" t="s">
         <v>11</v>
       </c>
       <c r="E23" s="3" t="s">
-        <v>44</v>
+        <v>12</v>
       </c>
       <c r="F23" s="3" t="s">
-        <v>84</v>
-      </c>
-      <c r="G23" s="6" t="s">
-        <v>50</v>
+        <v>83</v>
+      </c>
+      <c r="G23" s="4" t="s">
+        <v>14</v>
       </c>
       <c r="H23" s="3"/>
       <c r="I23" s="3"/>
     </row>
     <row r="24">
-      <c r="A24" s="8" t="s">
+      <c r="A24" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="B24" s="3" t="s">
         <v>85</v>
       </c>
-      <c r="B24" s="8" t="s">
+      <c r="C24" s="3">
+        <v>2017.0</v>
+      </c>
+      <c r="D24" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E24" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="F24" s="3" t="s">
         <v>86</v>
       </c>
-      <c r="C24" s="8">
-        <v>2010.0</v>
-      </c>
-      <c r="D24" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="E24" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="F24" s="8" t="s">
-        <v>87</v>
-      </c>
-      <c r="G24" s="9" t="s">
-        <v>46</v>
-      </c>
-      <c r="H24" s="8" t="s">
-        <v>50</v>
-      </c>
-      <c r="I24" s="8"/>
+      <c r="G24" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="H24" s="3"/>
+      <c r="I24" s="3"/>
     </row>
     <row r="25">
       <c r="A25" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="B25" s="3" t="s">
         <v>88</v>
       </c>
-      <c r="B25" s="3" t="s">
-        <v>89</v>
-      </c>
       <c r="C25" s="3">
-        <v>2010.0</v>
+        <v>2016.0</v>
       </c>
       <c r="D25" s="3" t="s">
         <v>11</v>
       </c>
       <c r="E25" s="3" t="s">
-        <v>44</v>
+        <v>12</v>
       </c>
       <c r="F25" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="G25" s="6" t="s">
         <v>90</v>
       </c>
-      <c r="G25" s="6" t="s">
-        <v>46</v>
-      </c>
       <c r="H25" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="I25" s="3" t="s">
-        <v>50</v>
-      </c>
+        <v>25</v>
+      </c>
+      <c r="I25" s="3"/>
     </row>
     <row r="26">
       <c r="A26" s="3" t="s">
@@ -1510,23 +1517,21 @@
         <v>92</v>
       </c>
       <c r="C26" s="3">
-        <v>2011.0</v>
+        <v>2013.0</v>
       </c>
       <c r="D26" s="3" t="s">
         <v>11</v>
       </c>
       <c r="E26" s="3" t="s">
-        <v>44</v>
+        <v>12</v>
       </c>
       <c r="F26" s="3" t="s">
         <v>93</v>
       </c>
-      <c r="G26" s="6" t="s">
-        <v>50</v>
-      </c>
-      <c r="H26" s="3" t="s">
+      <c r="G26" s="4" t="s">
         <v>14</v>
       </c>
+      <c r="H26" s="3"/>
       <c r="I26" s="3"/>
     </row>
     <row r="27">
@@ -1537,19 +1542,19 @@
         <v>95</v>
       </c>
       <c r="C27" s="3">
-        <v>2011.0</v>
+        <v>2016.0</v>
       </c>
       <c r="D27" s="3" t="s">
         <v>11</v>
       </c>
       <c r="E27" s="3" t="s">
-        <v>44</v>
+        <v>12</v>
       </c>
       <c r="F27" s="3" t="s">
         <v>96</v>
       </c>
-      <c r="G27" s="6" t="s">
-        <v>50</v>
+      <c r="G27" s="4" t="s">
+        <v>14</v>
       </c>
       <c r="H27" s="3"/>
       <c r="I27" s="3"/>
@@ -1562,118 +1567,118 @@
         <v>98</v>
       </c>
       <c r="C28" s="3">
-        <v>2012.0</v>
+        <v>2015.0</v>
       </c>
       <c r="D28" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E28" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="F28" s="3" t="s">
         <v>99</v>
       </c>
-      <c r="E28" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="F28" s="3" t="s">
-        <v>100</v>
-      </c>
-      <c r="G28" s="6" t="s">
-        <v>50</v>
+      <c r="G28" s="4" t="s">
+        <v>14</v>
       </c>
       <c r="H28" s="3"/>
       <c r="I28" s="3"/>
     </row>
     <row r="29">
       <c r="A29" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="B29" s="3" t="s">
         <v>101</v>
-      </c>
-      <c r="B29" s="3" t="s">
-        <v>102</v>
       </c>
       <c r="C29" s="3">
         <v>2012.0</v>
       </c>
       <c r="D29" s="3" t="s">
-        <v>99</v>
+        <v>11</v>
       </c>
       <c r="E29" s="3" t="s">
-        <v>44</v>
+        <v>12</v>
       </c>
       <c r="F29" s="3" t="s">
-        <v>103</v>
-      </c>
-      <c r="G29" s="5" t="s">
-        <v>14</v>
+        <v>102</v>
+      </c>
+      <c r="G29" s="6" t="s">
+        <v>18</v>
       </c>
       <c r="H29" s="3"/>
       <c r="I29" s="3"/>
     </row>
     <row r="30">
       <c r="A30" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="B30" s="3" t="s">
         <v>104</v>
-      </c>
-      <c r="B30" s="3" t="s">
-        <v>105</v>
       </c>
       <c r="C30" s="3">
         <v>2012.0</v>
       </c>
       <c r="D30" s="3" t="s">
-        <v>99</v>
+        <v>11</v>
       </c>
       <c r="E30" s="3" t="s">
-        <v>44</v>
+        <v>12</v>
       </c>
       <c r="F30" s="3" t="s">
-        <v>106</v>
-      </c>
-      <c r="G30" s="6" t="s">
-        <v>25</v>
+        <v>105</v>
+      </c>
+      <c r="G30" s="4" t="s">
+        <v>14</v>
       </c>
       <c r="H30" s="3"/>
       <c r="I30" s="3"/>
     </row>
     <row r="31">
       <c r="A31" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="B31" s="3" t="s">
         <v>107</v>
       </c>
-      <c r="B31" s="3" t="s">
+      <c r="C31" s="3">
+        <v>2016.0</v>
+      </c>
+      <c r="D31" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E31" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="F31" s="3" t="s">
         <v>108</v>
       </c>
-      <c r="C31" s="3">
-        <v>2012.0</v>
-      </c>
-      <c r="D31" s="3" t="s">
-        <v>99</v>
-      </c>
-      <c r="E31" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="F31" s="3" t="s">
-        <v>109</v>
-      </c>
       <c r="G31" s="6" t="s">
-        <v>50</v>
+        <v>18</v>
       </c>
       <c r="H31" s="3"/>
       <c r="I31" s="3"/>
     </row>
     <row r="32">
       <c r="A32" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="B32" s="3" t="s">
         <v>110</v>
       </c>
-      <c r="B32" s="3" t="s">
+      <c r="C32" s="3">
+        <v>2013.0</v>
+      </c>
+      <c r="D32" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E32" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="F32" s="3" t="s">
         <v>111</v>
       </c>
-      <c r="C32" s="3">
-        <v>2012.0</v>
-      </c>
-      <c r="D32" s="3" t="s">
-        <v>99</v>
-      </c>
-      <c r="E32" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="F32" s="3" t="s">
-        <v>112</v>
-      </c>
-      <c r="G32" s="5" t="s">
+      <c r="G32" s="4" t="s">
         <v>14</v>
       </c>
       <c r="H32" s="3"/>
@@ -1681,22 +1686,22 @@
     </row>
     <row r="33">
       <c r="A33" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="B33" s="5" t="s">
         <v>113</v>
       </c>
-      <c r="B33" s="3" t="s">
+      <c r="C33" s="3">
+        <v>2014.0</v>
+      </c>
+      <c r="D33" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E33" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="F33" s="3" t="s">
         <v>114</v>
-      </c>
-      <c r="C33" s="3">
-        <v>2012.0</v>
-      </c>
-      <c r="D33" s="3" t="s">
-        <v>99</v>
-      </c>
-      <c r="E33" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="F33" s="3" t="s">
-        <v>115</v>
       </c>
       <c r="G33" s="6" t="s">
         <v>25</v>
@@ -1706,197 +1711,203 @@
     </row>
     <row r="34">
       <c r="A34" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="B34" s="3" t="s">
         <v>116</v>
       </c>
-      <c r="B34" s="3" t="s">
+      <c r="C34" s="3">
+        <v>2008.0</v>
+      </c>
+      <c r="D34" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="E34" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="F34" s="3" t="s">
         <v>117</v>
       </c>
-      <c r="C34" s="3">
-        <v>2012.0</v>
-      </c>
-      <c r="D34" s="3" t="s">
-        <v>99</v>
-      </c>
-      <c r="E34" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="F34" s="3" t="s">
-        <v>118</v>
-      </c>
       <c r="G34" s="6" t="s">
-        <v>50</v>
+        <v>25</v>
       </c>
       <c r="H34" s="3"/>
       <c r="I34" s="3"/>
     </row>
     <row r="35">
       <c r="A35" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="B35" s="3" t="s">
         <v>119</v>
       </c>
-      <c r="B35" s="3" t="s">
+      <c r="C35" s="3">
+        <v>2015.0</v>
+      </c>
+      <c r="D35" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E35" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="F35" s="3" t="s">
         <v>120</v>
       </c>
-      <c r="C35" s="3">
-        <v>2013.0</v>
-      </c>
-      <c r="D35" s="3" t="s">
-        <v>99</v>
-      </c>
-      <c r="E35" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="F35" s="3" t="s">
-        <v>121</v>
-      </c>
-      <c r="G35" s="5" t="s">
-        <v>14</v>
+      <c r="G35" s="6" t="s">
+        <v>18</v>
       </c>
       <c r="H35" s="3"/>
       <c r="I35" s="3"/>
     </row>
     <row r="36">
       <c r="A36" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="B36" s="3" t="s">
         <v>122</v>
       </c>
-      <c r="B36" s="3" t="s">
+      <c r="C36" s="3">
+        <v>2014.0</v>
+      </c>
+      <c r="D36" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E36" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="F36" s="3" t="s">
         <v>123</v>
       </c>
-      <c r="C36" s="3">
-        <v>2013.0</v>
-      </c>
-      <c r="D36" s="3" t="s">
-        <v>99</v>
-      </c>
-      <c r="E36" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="F36" s="3" t="s">
-        <v>124</v>
-      </c>
       <c r="G36" s="6" t="s">
-        <v>50</v>
+        <v>18</v>
       </c>
       <c r="H36" s="3"/>
       <c r="I36" s="3"/>
     </row>
     <row r="37">
-      <c r="A37" s="3" t="s">
+      <c r="A37" s="9" t="s">
+        <v>124</v>
+      </c>
+      <c r="B37" s="9" t="s">
         <v>125</v>
       </c>
-      <c r="B37" s="3" t="s">
+      <c r="C37" s="9">
+        <v>2016.0</v>
+      </c>
+      <c r="D37" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="E37" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="F37" s="9" t="s">
         <v>126</v>
       </c>
-      <c r="C37" s="3">
-        <v>2013.0</v>
-      </c>
-      <c r="D37" s="3" t="s">
-        <v>99</v>
-      </c>
-      <c r="E37" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="F37" s="3" t="s">
-        <v>127</v>
-      </c>
-      <c r="G37" s="6" t="s">
-        <v>50</v>
-      </c>
-      <c r="H37" s="3"/>
-      <c r="I37" s="3"/>
+      <c r="G37" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="H37" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="I37" s="9"/>
     </row>
     <row r="38">
       <c r="A38" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="B38" s="3" t="s">
         <v>128</v>
       </c>
-      <c r="B38" s="3" t="s">
+      <c r="C38" s="3">
+        <v>2012.0</v>
+      </c>
+      <c r="D38" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E38" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="F38" s="3" t="s">
         <v>129</v>
       </c>
-      <c r="C38" s="3">
-        <v>2013.0</v>
-      </c>
-      <c r="D38" s="3" t="s">
-        <v>99</v>
-      </c>
-      <c r="E38" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="F38" s="3" t="s">
-        <v>130</v>
-      </c>
-      <c r="G38" s="5" t="s">
-        <v>14</v>
+      <c r="G38" s="6" t="s">
+        <v>18</v>
       </c>
       <c r="H38" s="3"/>
       <c r="I38" s="3"/>
     </row>
     <row r="39">
-      <c r="A39" s="3" t="s">
+      <c r="A39" s="9" t="s">
+        <v>130</v>
+      </c>
+      <c r="B39" s="9" t="s">
         <v>131</v>
       </c>
-      <c r="B39" s="3" t="s">
+      <c r="C39" s="9">
+        <v>2014.0</v>
+      </c>
+      <c r="D39" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="E39" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="F39" s="9" t="s">
         <v>132</v>
       </c>
-      <c r="C39" s="3">
-        <v>2013.0</v>
-      </c>
-      <c r="D39" s="3" t="s">
-        <v>99</v>
-      </c>
-      <c r="E39" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="F39" s="3" t="s">
+      <c r="G39" s="13" t="s">
+        <v>38</v>
+      </c>
+      <c r="H39" s="9"/>
+      <c r="I39" s="9"/>
+    </row>
+    <row r="40">
+      <c r="A40" s="3" t="s">
         <v>133</v>
       </c>
-      <c r="G39" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="H39" s="3"/>
-      <c r="I39" s="3"/>
-    </row>
-    <row r="40">
-      <c r="A40" s="8" t="s">
+      <c r="B40" s="3" t="s">
         <v>134</v>
       </c>
-      <c r="B40" s="8" t="s">
+      <c r="C40" s="3">
+        <v>2010.0</v>
+      </c>
+      <c r="D40" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="E40" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="F40" s="3" t="s">
         <v>135</v>
       </c>
-      <c r="C40" s="8">
-        <v>2014.0</v>
-      </c>
-      <c r="D40" s="10" t="s">
-        <v>99</v>
-      </c>
-      <c r="E40" s="8" t="s">
-        <v>44</v>
-      </c>
-      <c r="F40" s="8" t="s">
-        <v>136</v>
-      </c>
-      <c r="G40" s="9" t="s">
-        <v>46</v>
-      </c>
-      <c r="H40" s="8"/>
-      <c r="I40" s="8"/>
+      <c r="G40" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="H40" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="I40" s="3" t="s">
+        <v>25</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="B41" s="3" t="s">
         <v>137</v>
       </c>
-      <c r="B41" s="3" t="s">
+      <c r="C41" s="3">
+        <v>2009.0</v>
+      </c>
+      <c r="D41" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="E41" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="F41" s="3" t="s">
         <v>138</v>
-      </c>
-      <c r="C41" s="3">
-        <v>2014.0</v>
-      </c>
-      <c r="D41" s="3" t="s">
-        <v>99</v>
-      </c>
-      <c r="E41" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="F41" s="3" t="s">
-        <v>139</v>
       </c>
       <c r="G41" s="6" t="s">
         <v>25</v>
@@ -1906,288 +1917,280 @@
     </row>
     <row r="42">
       <c r="A42" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="B42" s="3" t="s">
         <v>140</v>
       </c>
-      <c r="B42" s="3" t="s">
+      <c r="C42" s="3">
+        <v>2009.0</v>
+      </c>
+      <c r="D42" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="E42" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="F42" s="3" t="s">
         <v>141</v>
       </c>
-      <c r="C42" s="3">
-        <v>2014.0</v>
-      </c>
-      <c r="D42" s="3" t="s">
-        <v>99</v>
-      </c>
-      <c r="E42" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="F42" s="3" t="s">
-        <v>142</v>
-      </c>
-      <c r="G42" s="5" t="s">
+      <c r="G42" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="H42" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="H42" s="3"/>
       <c r="I42" s="3"/>
     </row>
     <row r="43">
       <c r="A43" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="B43" s="3" t="s">
         <v>143</v>
-      </c>
-      <c r="B43" s="3" t="s">
-        <v>144</v>
       </c>
       <c r="C43" s="3">
         <v>2014.0</v>
       </c>
       <c r="D43" s="3" t="s">
-        <v>99</v>
+        <v>11</v>
       </c>
       <c r="E43" s="3" t="s">
-        <v>44</v>
+        <v>12</v>
       </c>
       <c r="F43" s="3" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="G43" s="6" t="s">
-        <v>50</v>
+        <v>38</v>
       </c>
       <c r="H43" s="3"/>
       <c r="I43" s="3"/>
     </row>
     <row r="44">
       <c r="A44" s="3" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B44" s="3" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="C44" s="3">
         <v>2014.0</v>
       </c>
       <c r="D44" s="3" t="s">
-        <v>99</v>
+        <v>11</v>
       </c>
       <c r="E44" s="3" t="s">
-        <v>44</v>
+        <v>12</v>
       </c>
       <c r="F44" s="3" t="s">
-        <v>148</v>
-      </c>
-      <c r="G44" s="5" t="s">
+        <v>146</v>
+      </c>
+      <c r="G44" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="H44" s="3" t="s">
         <v>25</v>
-      </c>
-      <c r="H44" s="7" t="s">
-        <v>14</v>
       </c>
       <c r="I44" s="3"/>
     </row>
     <row r="45">
       <c r="A45" s="3" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="B45" s="3" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="C45" s="3">
         <v>2014.0</v>
       </c>
       <c r="D45" s="3" t="s">
-        <v>99</v>
+        <v>11</v>
       </c>
       <c r="E45" s="3" t="s">
-        <v>44</v>
+        <v>12</v>
       </c>
       <c r="F45" s="3" t="s">
-        <v>151</v>
-      </c>
-      <c r="G45" s="5" t="s">
+        <v>149</v>
+      </c>
+      <c r="G45" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="H45" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="I45" s="3" t="s">
-        <v>25</v>
-      </c>
+      <c r="H45" s="3"/>
+      <c r="I45" s="3"/>
     </row>
     <row r="46">
       <c r="A46" s="3" t="s">
+        <v>150</v>
+      </c>
+      <c r="B46" s="3" t="s">
+        <v>151</v>
+      </c>
+      <c r="C46" s="3">
+        <v>2016.0</v>
+      </c>
+      <c r="D46" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E46" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="F46" s="3" t="s">
         <v>152</v>
       </c>
-      <c r="B46" s="3" t="s">
-        <v>153</v>
-      </c>
-      <c r="C46" s="3">
-        <v>2014.0</v>
-      </c>
-      <c r="D46" s="3" t="s">
-        <v>99</v>
-      </c>
-      <c r="E46" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="F46" s="3" t="s">
-        <v>154</v>
-      </c>
-      <c r="G46" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="H46" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="I46" s="3" t="s">
-        <v>50</v>
-      </c>
+      <c r="G46" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="H46" s="3"/>
+      <c r="I46" s="3"/>
     </row>
     <row r="47">
       <c r="A47" s="3" t="s">
+        <v>153</v>
+      </c>
+      <c r="B47" s="3" t="s">
+        <v>154</v>
+      </c>
+      <c r="C47" s="3">
+        <v>2006.0</v>
+      </c>
+      <c r="D47" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="E47" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="F47" s="3" t="s">
         <v>155</v>
       </c>
-      <c r="B47" s="3" t="s">
-        <v>156</v>
-      </c>
-      <c r="C47" s="3">
-        <v>2014.0</v>
-      </c>
-      <c r="D47" s="3" t="s">
-        <v>99</v>
-      </c>
-      <c r="E47" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="F47" s="3" t="s">
-        <v>157</v>
-      </c>
-      <c r="G47" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="H47" s="3" t="s">
-        <v>32</v>
-      </c>
+      <c r="G47" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="H47" s="3"/>
       <c r="I47" s="3"/>
     </row>
     <row r="48">
       <c r="A48" s="3" t="s">
+        <v>156</v>
+      </c>
+      <c r="B48" s="5" t="s">
+        <v>157</v>
+      </c>
+      <c r="C48" s="3">
+        <v>2017.0</v>
+      </c>
+      <c r="D48" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E48" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="F48" s="3" t="s">
         <v>158</v>
       </c>
-      <c r="B48" s="3" t="s">
-        <v>159</v>
-      </c>
-      <c r="C48" s="3">
-        <v>2014.0</v>
-      </c>
-      <c r="D48" s="3" t="s">
-        <v>99</v>
-      </c>
-      <c r="E48" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="F48" s="3" t="s">
-        <v>160</v>
-      </c>
-      <c r="G48" s="6" t="s">
-        <v>46</v>
+      <c r="G48" s="4" t="s">
+        <v>14</v>
       </c>
       <c r="H48" s="3"/>
       <c r="I48" s="3"/>
     </row>
     <row r="49">
       <c r="A49" s="3" t="s">
+        <v>159</v>
+      </c>
+      <c r="B49" s="3" t="s">
+        <v>160</v>
+      </c>
+      <c r="C49" s="3">
+        <v>2012.0</v>
+      </c>
+      <c r="D49" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E49" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="F49" s="3" t="s">
         <v>161</v>
       </c>
-      <c r="B49" s="3" t="s">
-        <v>162</v>
-      </c>
-      <c r="C49" s="3">
-        <v>2014.0</v>
-      </c>
-      <c r="D49" s="3" t="s">
-        <v>99</v>
-      </c>
-      <c r="E49" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="F49" s="3" t="s">
-        <v>163</v>
-      </c>
-      <c r="G49" s="5" t="s">
-        <v>14</v>
+      <c r="G49" s="6" t="s">
+        <v>25</v>
       </c>
       <c r="H49" s="3"/>
       <c r="I49" s="3"/>
     </row>
     <row r="50">
       <c r="A50" s="3" t="s">
+        <v>162</v>
+      </c>
+      <c r="B50" s="3" t="s">
+        <v>163</v>
+      </c>
+      <c r="C50" s="3">
+        <v>2006.0</v>
+      </c>
+      <c r="D50" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="E50" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="F50" s="3" t="s">
         <v>164</v>
       </c>
-      <c r="B50" s="3" t="s">
-        <v>159</v>
-      </c>
-      <c r="C50" s="3">
-        <v>2014.0</v>
-      </c>
-      <c r="D50" s="3" t="s">
-        <v>99</v>
-      </c>
-      <c r="E50" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="F50" s="3" t="s">
-        <v>165</v>
-      </c>
-      <c r="G50" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="H50" s="3" t="s">
-        <v>50</v>
-      </c>
+      <c r="G50" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="H50" s="3"/>
       <c r="I50" s="3"/>
     </row>
     <row r="51">
       <c r="A51" s="3" t="s">
+        <v>165</v>
+      </c>
+      <c r="B51" s="3" t="s">
         <v>166</v>
       </c>
-      <c r="B51" s="3" t="s">
+      <c r="C51" s="3">
+        <v>2011.0</v>
+      </c>
+      <c r="D51" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="E51" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="F51" s="3" t="s">
         <v>167</v>
       </c>
-      <c r="C51" s="3">
-        <v>2015.0</v>
-      </c>
-      <c r="D51" s="3" t="s">
-        <v>99</v>
-      </c>
-      <c r="E51" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="F51" s="3" t="s">
-        <v>168</v>
-      </c>
-      <c r="G51" s="5" t="s">
+      <c r="G51" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="H51" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="H51" s="3"/>
       <c r="I51" s="3"/>
     </row>
     <row r="52">
       <c r="A52" s="3" t="s">
+        <v>168</v>
+      </c>
+      <c r="B52" s="3" t="s">
         <v>169</v>
       </c>
-      <c r="B52" s="3" t="s">
+      <c r="C52" s="3">
+        <v>2016.0</v>
+      </c>
+      <c r="D52" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E52" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="F52" s="3" t="s">
         <v>170</v>
       </c>
-      <c r="C52" s="3">
-        <v>2015.0</v>
-      </c>
-      <c r="D52" s="3" t="s">
-        <v>99</v>
-      </c>
-      <c r="E52" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="F52" s="3" t="s">
-        <v>171</v>
-      </c>
-      <c r="G52" s="5" t="s">
+      <c r="G52" s="4" t="s">
         <v>14</v>
       </c>
       <c r="H52" s="3"/>
@@ -2195,104 +2198,108 @@
     </row>
     <row r="53">
       <c r="A53" s="3" t="s">
+        <v>171</v>
+      </c>
+      <c r="B53" s="3" t="s">
         <v>172</v>
       </c>
-      <c r="B53" s="3" t="s">
+      <c r="C53" s="3">
+        <v>2009.0</v>
+      </c>
+      <c r="D53" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="E53" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="F53" s="3" t="s">
         <v>173</v>
       </c>
-      <c r="C53" s="3">
-        <v>2015.0</v>
-      </c>
-      <c r="D53" s="3" t="s">
-        <v>99</v>
-      </c>
-      <c r="E53" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="F53" s="3" t="s">
-        <v>174</v>
-      </c>
       <c r="G53" s="6" t="s">
-        <v>25</v>
+        <v>38</v>
       </c>
       <c r="H53" s="3"/>
       <c r="I53" s="3"/>
     </row>
     <row r="54">
       <c r="A54" s="3" t="s">
+        <v>174</v>
+      </c>
+      <c r="B54" s="3" t="s">
         <v>175</v>
       </c>
-      <c r="B54" s="3" t="s">
+      <c r="C54" s="3">
+        <v>2014.0</v>
+      </c>
+      <c r="D54" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E54" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="F54" s="3" t="s">
         <v>176</v>
       </c>
-      <c r="C54" s="3">
-        <v>2015.0</v>
-      </c>
-      <c r="D54" s="3" t="s">
-        <v>99</v>
-      </c>
-      <c r="E54" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="F54" s="3" t="s">
+      <c r="G54" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="H54" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="I54" s="3" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="3" t="s">
         <v>177</v>
       </c>
-      <c r="G54" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="H54" s="3"/>
-      <c r="I54" s="3"/>
-    </row>
-    <row r="55">
-      <c r="A55" s="8" t="s">
+      <c r="B55" s="3" t="s">
         <v>178</v>
       </c>
-      <c r="B55" s="8" t="s">
+      <c r="C55" s="3">
+        <v>2016.0</v>
+      </c>
+      <c r="D55" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E55" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="F55" s="3" t="s">
         <v>179</v>
       </c>
-      <c r="C55" s="8">
-        <v>2016.0</v>
-      </c>
-      <c r="D55" s="8" t="s">
-        <v>99</v>
-      </c>
-      <c r="E55" s="8" t="s">
-        <v>44</v>
-      </c>
-      <c r="F55" s="8" t="s">
-        <v>180</v>
-      </c>
-      <c r="G55" s="11" t="s">
+      <c r="G55" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="H55" s="12" t="s">
-        <v>14</v>
-      </c>
-      <c r="I55" s="8"/>
+      <c r="H55" s="3"/>
+      <c r="I55" s="3"/>
     </row>
     <row r="56">
       <c r="A56" s="3" t="s">
+        <v>180</v>
+      </c>
+      <c r="B56" s="3" t="s">
         <v>181</v>
       </c>
-      <c r="B56" s="3" t="s">
+      <c r="C56" s="3">
+        <v>2017.0</v>
+      </c>
+      <c r="D56" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E56" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="F56" s="3" t="s">
         <v>182</v>
       </c>
-      <c r="C56" s="3">
-        <v>2016.0</v>
-      </c>
-      <c r="D56" s="3" t="s">
-        <v>99</v>
-      </c>
-      <c r="E56" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="F56" s="3" t="s">
+      <c r="G56" s="6" t="s">
         <v>183</v>
       </c>
-      <c r="G56" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="H56" s="3"/>
+      <c r="H56" s="3" t="s">
+        <v>14</v>
+      </c>
       <c r="I56" s="3"/>
     </row>
     <row r="57">
@@ -2303,19 +2310,19 @@
         <v>185</v>
       </c>
       <c r="C57" s="3">
-        <v>2016.0</v>
+        <v>2012.0</v>
       </c>
       <c r="D57" s="3" t="s">
-        <v>99</v>
+        <v>11</v>
       </c>
       <c r="E57" s="3" t="s">
-        <v>44</v>
+        <v>12</v>
       </c>
       <c r="F57" s="3" t="s">
         <v>186</v>
       </c>
-      <c r="G57" s="5" t="s">
-        <v>14</v>
+      <c r="G57" s="6" t="s">
+        <v>25</v>
       </c>
       <c r="H57" s="3"/>
       <c r="I57" s="3"/>
@@ -2328,19 +2335,19 @@
         <v>188</v>
       </c>
       <c r="C58" s="3">
-        <v>2016.0</v>
+        <v>2013.0</v>
       </c>
       <c r="D58" s="3" t="s">
-        <v>99</v>
+        <v>11</v>
       </c>
       <c r="E58" s="3" t="s">
-        <v>44</v>
+        <v>12</v>
       </c>
       <c r="F58" s="3" t="s">
         <v>189</v>
       </c>
-      <c r="G58" s="5" t="s">
-        <v>14</v>
+      <c r="G58" s="6" t="s">
+        <v>25</v>
       </c>
       <c r="H58" s="3"/>
       <c r="I58" s="3"/>
@@ -2350,227 +2357,225 @@
         <v>190</v>
       </c>
       <c r="B59" s="3" t="s">
-        <v>141</v>
+        <v>191</v>
       </c>
       <c r="C59" s="3">
-        <v>2016.0</v>
+        <v>2017.0</v>
       </c>
       <c r="D59" s="3" t="s">
-        <v>99</v>
+        <v>11</v>
       </c>
       <c r="E59" s="3" t="s">
-        <v>44</v>
+        <v>12</v>
       </c>
       <c r="F59" s="3" t="s">
-        <v>191</v>
-      </c>
-      <c r="G59" s="5" t="s">
-        <v>14</v>
+        <v>192</v>
+      </c>
+      <c r="G59" s="6" t="s">
+        <v>25</v>
       </c>
       <c r="H59" s="3"/>
       <c r="I59" s="3"/>
     </row>
     <row r="60">
       <c r="A60" s="3" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="B60" s="3" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="C60" s="3">
-        <v>2016.0</v>
+        <v>2017.0</v>
       </c>
       <c r="D60" s="3" t="s">
-        <v>99</v>
+        <v>11</v>
       </c>
       <c r="E60" s="3" t="s">
-        <v>44</v>
+        <v>12</v>
       </c>
       <c r="F60" s="3" t="s">
-        <v>194</v>
-      </c>
-      <c r="G60" s="5" t="s">
-        <v>14</v>
+        <v>195</v>
+      </c>
+      <c r="G60" s="6" t="s">
+        <v>18</v>
       </c>
       <c r="H60" s="3"/>
       <c r="I60" s="3"/>
     </row>
     <row r="61">
       <c r="A61" s="3" t="s">
-        <v>195</v>
-      </c>
-      <c r="B61" s="3" t="s">
         <v>196</v>
       </c>
+      <c r="B61" s="5" t="s">
+        <v>197</v>
+      </c>
       <c r="C61" s="3">
-        <v>2016.0</v>
+        <v>2009.0</v>
       </c>
       <c r="D61" s="3" t="s">
-        <v>99</v>
+        <v>41</v>
       </c>
       <c r="E61" s="3" t="s">
-        <v>44</v>
+        <v>12</v>
       </c>
       <c r="F61" s="3" t="s">
-        <v>197</v>
-      </c>
-      <c r="G61" s="5" t="s">
-        <v>14</v>
+        <v>198</v>
+      </c>
+      <c r="G61" s="6" t="s">
+        <v>38</v>
       </c>
       <c r="H61" s="3"/>
       <c r="I61" s="3"/>
     </row>
     <row r="62">
       <c r="A62" s="3" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="B62" s="3" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="C62" s="3">
         <v>2016.0</v>
       </c>
       <c r="D62" s="3" t="s">
-        <v>99</v>
+        <v>11</v>
       </c>
       <c r="E62" s="3" t="s">
-        <v>44</v>
+        <v>12</v>
       </c>
       <c r="F62" s="3" t="s">
-        <v>200</v>
-      </c>
-      <c r="G62" s="6" t="s">
-        <v>54</v>
-      </c>
-      <c r="H62" s="3" t="s">
-        <v>50</v>
-      </c>
+        <v>201</v>
+      </c>
+      <c r="G62" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="H62" s="3"/>
       <c r="I62" s="3"/>
     </row>
     <row r="63">
       <c r="A63" s="3" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="B63" s="3" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="C63" s="3">
-        <v>2016.0</v>
+        <v>2015.0</v>
       </c>
       <c r="D63" s="3" t="s">
-        <v>99</v>
+        <v>11</v>
       </c>
       <c r="E63" s="3" t="s">
-        <v>44</v>
+        <v>12</v>
       </c>
       <c r="F63" s="3" t="s">
-        <v>203</v>
-      </c>
-      <c r="G63" s="6" t="s">
-        <v>50</v>
+        <v>204</v>
+      </c>
+      <c r="G63" s="4" t="s">
+        <v>14</v>
       </c>
       <c r="H63" s="3"/>
       <c r="I63" s="3"/>
     </row>
     <row r="64">
       <c r="A64" s="3" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="B64" s="3" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="C64" s="3">
-        <v>2016.0</v>
+        <v>2011.0</v>
       </c>
       <c r="D64" s="3" t="s">
-        <v>99</v>
+        <v>41</v>
       </c>
       <c r="E64" s="3" t="s">
-        <v>44</v>
+        <v>12</v>
       </c>
       <c r="F64" s="3" t="s">
-        <v>206</v>
-      </c>
-      <c r="G64" s="5" t="s">
-        <v>14</v>
+        <v>207</v>
+      </c>
+      <c r="G64" s="6" t="s">
+        <v>25</v>
       </c>
       <c r="H64" s="3"/>
       <c r="I64" s="3"/>
     </row>
     <row r="65">
       <c r="A65" s="3" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="B65" s="3" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="C65" s="3">
-        <v>2016.0</v>
+        <v>1997.0</v>
       </c>
       <c r="D65" s="3" t="s">
-        <v>99</v>
+        <v>41</v>
       </c>
       <c r="E65" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="F65" s="3" t="s">
-        <v>209</v>
-      </c>
-      <c r="G65" s="6" t="s">
-        <v>50</v>
+        <v>74</v>
+      </c>
+      <c r="F65" s="8" t="s">
+        <v>210</v>
+      </c>
+      <c r="G65" s="4" t="s">
+        <v>14</v>
       </c>
       <c r="H65" s="3"/>
       <c r="I65" s="3"/>
     </row>
     <row r="66">
       <c r="A66" s="3" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="B66" s="3" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="C66" s="3">
-        <v>2016.0</v>
+        <v>2008.0</v>
       </c>
       <c r="D66" s="3" t="s">
-        <v>99</v>
+        <v>41</v>
       </c>
       <c r="E66" s="3" t="s">
-        <v>44</v>
+        <v>12</v>
       </c>
       <c r="F66" s="3" t="s">
-        <v>212</v>
-      </c>
-      <c r="G66" s="5" t="s">
-        <v>14</v>
+        <v>213</v>
+      </c>
+      <c r="G66" s="6" t="s">
+        <v>38</v>
       </c>
       <c r="H66" s="3"/>
       <c r="I66" s="3"/>
     </row>
     <row r="67">
       <c r="A67" s="3" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="B67" s="3" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="C67" s="3">
-        <v>2017.0</v>
+        <v>2007.0</v>
       </c>
       <c r="D67" s="3" t="s">
-        <v>99</v>
+        <v>41</v>
       </c>
       <c r="E67" s="3" t="s">
-        <v>44</v>
+        <v>12</v>
       </c>
       <c r="F67" s="3" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="G67" s="6" t="s">
-        <v>216</v>
+        <v>38</v>
       </c>
       <c r="H67" s="3" t="s">
-        <v>14</v>
+        <v>90</v>
       </c>
       <c r="I67" s="3"/>
     </row>
@@ -2582,18 +2587,18 @@
         <v>218</v>
       </c>
       <c r="C68" s="3">
-        <v>2017.0</v>
+        <v>2015.0</v>
       </c>
       <c r="D68" s="3" t="s">
-        <v>99</v>
+        <v>11</v>
       </c>
       <c r="E68" s="3" t="s">
-        <v>44</v>
+        <v>12</v>
       </c>
       <c r="F68" s="3" t="s">
         <v>219</v>
       </c>
-      <c r="G68" s="5" t="s">
+      <c r="G68" s="4" t="s">
         <v>14</v>
       </c>
       <c r="H68" s="3"/>
@@ -2610,15 +2615,15 @@
         <v>2017.0</v>
       </c>
       <c r="D69" s="3" t="s">
-        <v>99</v>
+        <v>11</v>
       </c>
       <c r="E69" s="3" t="s">
-        <v>44</v>
+        <v>12</v>
       </c>
       <c r="F69" s="3" t="s">
         <v>222</v>
       </c>
-      <c r="G69" s="5" t="s">
+      <c r="G69" s="4" t="s">
         <v>14</v>
       </c>
       <c r="H69" s="3"/>
@@ -2632,47 +2637,49 @@
         <v>224</v>
       </c>
       <c r="C70" s="3">
-        <v>2017.0</v>
+        <v>2012.0</v>
       </c>
       <c r="D70" s="3" t="s">
-        <v>99</v>
+        <v>11</v>
       </c>
       <c r="E70" s="3" t="s">
-        <v>44</v>
+        <v>12</v>
       </c>
       <c r="F70" s="3" t="s">
         <v>225</v>
       </c>
-      <c r="G70" s="6" t="s">
-        <v>50</v>
+      <c r="G70" s="4" t="s">
+        <v>14</v>
       </c>
       <c r="H70" s="3"/>
       <c r="I70" s="3"/>
     </row>
     <row r="71">
-      <c r="A71" s="3" t="s">
+      <c r="A71" s="9" t="s">
         <v>226</v>
       </c>
-      <c r="B71" s="3" t="s">
+      <c r="B71" s="11" t="s">
         <v>227</v>
       </c>
-      <c r="C71" s="3">
-        <v>2017.0</v>
-      </c>
-      <c r="D71" s="3" t="s">
-        <v>99</v>
-      </c>
-      <c r="E71" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="F71" s="3" t="s">
+      <c r="C71" s="9">
+        <v>2010.0</v>
+      </c>
+      <c r="D71" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="E71" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="F71" s="9" t="s">
         <v>228</v>
       </c>
-      <c r="G71" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="H71" s="3"/>
-      <c r="I71" s="3"/>
+      <c r="G71" s="13" t="s">
+        <v>38</v>
+      </c>
+      <c r="H71" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="I71" s="9"/>
     </row>
     <row r="72">
       <c r="A72" s="3" t="s">
@@ -2682,13 +2689,13 @@
         <v>230</v>
       </c>
       <c r="C72" s="3">
-        <v>2017.0</v>
+        <v>2008.0</v>
       </c>
       <c r="D72" s="3" t="s">
-        <v>99</v>
+        <v>41</v>
       </c>
       <c r="E72" s="3" t="s">
-        <v>44</v>
+        <v>12</v>
       </c>
       <c r="F72" s="3" t="s">
         <v>231</v>
@@ -2707,19 +2714,19 @@
         <v>233</v>
       </c>
       <c r="C73" s="3">
-        <v>2017.0</v>
+        <v>2009.0</v>
       </c>
       <c r="D73" s="3" t="s">
-        <v>99</v>
+        <v>41</v>
       </c>
       <c r="E73" s="3" t="s">
-        <v>44</v>
+        <v>12</v>
       </c>
       <c r="F73" s="3" t="s">
         <v>234</v>
       </c>
       <c r="G73" s="6" t="s">
-        <v>50</v>
+        <v>25</v>
       </c>
       <c r="H73" s="3"/>
       <c r="I73" s="3"/>
@@ -2728,2742 +2735,2742 @@
       <c r="A74" s="3" t="s">
         <v>235</v>
       </c>
-      <c r="B74" s="3" t="s">
+      <c r="B74" s="5" t="s">
         <v>236</v>
       </c>
       <c r="C74" s="3">
-        <v>2017.0</v>
+        <v>2006.0</v>
       </c>
       <c r="D74" s="3" t="s">
-        <v>99</v>
+        <v>41</v>
       </c>
       <c r="E74" s="3" t="s">
-        <v>44</v>
+        <v>12</v>
       </c>
       <c r="F74" s="3" t="s">
         <v>237</v>
       </c>
-      <c r="G74" s="5" t="s">
-        <v>14</v>
+      <c r="G74" s="6" t="s">
+        <v>25</v>
       </c>
       <c r="H74" s="3"/>
       <c r="I74" s="3"/>
     </row>
     <row r="75">
-      <c r="A75" s="13"/>
-      <c r="B75" s="13"/>
-      <c r="C75" s="13"/>
-      <c r="D75" s="14"/>
-      <c r="E75" s="13"/>
-      <c r="F75" s="13"/>
-      <c r="G75" s="15"/>
-      <c r="H75" s="13"/>
-      <c r="I75" s="13"/>
+      <c r="A75" s="14"/>
+      <c r="B75" s="14"/>
+      <c r="C75" s="14"/>
+      <c r="D75" s="15"/>
+      <c r="E75" s="14"/>
+      <c r="F75" s="14"/>
+      <c r="G75" s="16"/>
+      <c r="H75" s="14"/>
+      <c r="I75" s="14"/>
     </row>
     <row r="76">
-      <c r="A76" s="13"/>
-      <c r="B76" s="13"/>
-      <c r="C76" s="13"/>
-      <c r="D76" s="14"/>
-      <c r="E76" s="13"/>
-      <c r="F76" s="13"/>
-      <c r="G76" s="15"/>
-      <c r="H76" s="13"/>
-      <c r="I76" s="13"/>
+      <c r="A76" s="14"/>
+      <c r="B76" s="14"/>
+      <c r="C76" s="14"/>
+      <c r="D76" s="15"/>
+      <c r="E76" s="14"/>
+      <c r="F76" s="14"/>
+      <c r="G76" s="16"/>
+      <c r="H76" s="14"/>
+      <c r="I76" s="14"/>
     </row>
     <row r="77">
-      <c r="G77" s="16"/>
+      <c r="G77" s="17"/>
     </row>
     <row r="78">
-      <c r="G78" s="16"/>
+      <c r="G78" s="17"/>
     </row>
     <row r="79">
-      <c r="G79" s="16"/>
+      <c r="G79" s="17"/>
     </row>
     <row r="80">
-      <c r="G80" s="16"/>
+      <c r="G80" s="17"/>
     </row>
     <row r="81">
-      <c r="G81" s="16"/>
+      <c r="G81" s="17"/>
     </row>
     <row r="82">
-      <c r="G82" s="16"/>
+      <c r="G82" s="17"/>
     </row>
     <row r="83">
-      <c r="G83" s="16"/>
+      <c r="G83" s="17"/>
     </row>
     <row r="84">
-      <c r="G84" s="16"/>
+      <c r="G84" s="17"/>
     </row>
     <row r="85">
-      <c r="G85" s="16"/>
+      <c r="G85" s="17"/>
     </row>
     <row r="86">
-      <c r="G86" s="16"/>
+      <c r="G86" s="17"/>
     </row>
     <row r="87">
-      <c r="G87" s="16"/>
+      <c r="G87" s="17"/>
     </row>
     <row r="88">
-      <c r="G88" s="16"/>
+      <c r="G88" s="17"/>
     </row>
     <row r="89">
-      <c r="G89" s="16"/>
+      <c r="G89" s="17"/>
     </row>
     <row r="90">
-      <c r="G90" s="16"/>
+      <c r="G90" s="17"/>
     </row>
     <row r="91">
-      <c r="G91" s="16"/>
+      <c r="G91" s="17"/>
     </row>
     <row r="92">
-      <c r="G92" s="16"/>
+      <c r="G92" s="17"/>
     </row>
     <row r="93">
-      <c r="G93" s="16"/>
+      <c r="G93" s="17"/>
     </row>
     <row r="94">
-      <c r="G94" s="16"/>
+      <c r="G94" s="17"/>
     </row>
     <row r="95">
-      <c r="G95" s="16"/>
+      <c r="G95" s="17"/>
     </row>
     <row r="96">
-      <c r="G96" s="16"/>
+      <c r="G96" s="17"/>
     </row>
     <row r="97">
-      <c r="G97" s="16"/>
+      <c r="G97" s="17"/>
     </row>
     <row r="98">
-      <c r="G98" s="16"/>
+      <c r="G98" s="17"/>
     </row>
     <row r="99">
-      <c r="G99" s="16"/>
+      <c r="G99" s="17"/>
     </row>
     <row r="100">
-      <c r="G100" s="16"/>
+      <c r="G100" s="17"/>
     </row>
     <row r="101">
-      <c r="G101" s="16"/>
+      <c r="G101" s="17"/>
     </row>
     <row r="102">
-      <c r="G102" s="16"/>
+      <c r="G102" s="17"/>
     </row>
     <row r="103">
-      <c r="G103" s="16"/>
+      <c r="G103" s="17"/>
     </row>
     <row r="104">
-      <c r="G104" s="16"/>
+      <c r="G104" s="17"/>
     </row>
     <row r="105">
-      <c r="G105" s="16"/>
+      <c r="G105" s="17"/>
     </row>
     <row r="106">
-      <c r="G106" s="16"/>
+      <c r="G106" s="17"/>
     </row>
     <row r="107">
-      <c r="G107" s="16"/>
+      <c r="G107" s="17"/>
     </row>
     <row r="108">
-      <c r="G108" s="16"/>
+      <c r="G108" s="17"/>
     </row>
     <row r="109">
-      <c r="G109" s="16"/>
+      <c r="G109" s="17"/>
     </row>
     <row r="110">
-      <c r="G110" s="16"/>
+      <c r="G110" s="17"/>
     </row>
     <row r="111">
-      <c r="G111" s="16"/>
+      <c r="G111" s="17"/>
     </row>
     <row r="112">
-      <c r="G112" s="16"/>
+      <c r="G112" s="17"/>
     </row>
     <row r="113">
-      <c r="G113" s="16"/>
+      <c r="G113" s="17"/>
     </row>
     <row r="114">
-      <c r="G114" s="16"/>
+      <c r="G114" s="17"/>
     </row>
     <row r="115">
-      <c r="G115" s="16"/>
+      <c r="G115" s="17"/>
     </row>
     <row r="116">
-      <c r="G116" s="16"/>
+      <c r="G116" s="17"/>
     </row>
     <row r="117">
-      <c r="G117" s="16"/>
+      <c r="G117" s="17"/>
     </row>
     <row r="118">
-      <c r="G118" s="16"/>
+      <c r="G118" s="17"/>
     </row>
     <row r="119">
-      <c r="G119" s="16"/>
+      <c r="G119" s="17"/>
     </row>
     <row r="120">
-      <c r="G120" s="16"/>
+      <c r="G120" s="17"/>
     </row>
     <row r="121">
-      <c r="G121" s="16"/>
+      <c r="G121" s="17"/>
     </row>
     <row r="122">
-      <c r="G122" s="16"/>
+      <c r="G122" s="17"/>
     </row>
     <row r="123">
-      <c r="G123" s="16"/>
+      <c r="G123" s="17"/>
     </row>
     <row r="124">
-      <c r="G124" s="16"/>
+      <c r="G124" s="17"/>
     </row>
     <row r="125">
-      <c r="G125" s="16"/>
+      <c r="G125" s="17"/>
     </row>
     <row r="126">
-      <c r="G126" s="16"/>
+      <c r="G126" s="17"/>
     </row>
     <row r="127">
-      <c r="G127" s="16"/>
+      <c r="G127" s="17"/>
     </row>
     <row r="128">
-      <c r="G128" s="16"/>
+      <c r="G128" s="17"/>
     </row>
     <row r="129">
-      <c r="G129" s="16"/>
+      <c r="G129" s="17"/>
     </row>
     <row r="130">
-      <c r="G130" s="16"/>
+      <c r="G130" s="17"/>
     </row>
     <row r="131">
-      <c r="G131" s="16"/>
+      <c r="G131" s="17"/>
     </row>
     <row r="132">
-      <c r="G132" s="16"/>
+      <c r="G132" s="17"/>
     </row>
     <row r="133">
-      <c r="G133" s="16"/>
+      <c r="G133" s="17"/>
     </row>
     <row r="134">
-      <c r="G134" s="16"/>
+      <c r="G134" s="17"/>
     </row>
     <row r="135">
-      <c r="G135" s="16"/>
+      <c r="G135" s="17"/>
     </row>
     <row r="136">
-      <c r="G136" s="16"/>
+      <c r="G136" s="17"/>
     </row>
     <row r="137">
-      <c r="G137" s="16"/>
+      <c r="G137" s="17"/>
     </row>
     <row r="138">
-      <c r="G138" s="16"/>
+      <c r="G138" s="17"/>
     </row>
     <row r="139">
-      <c r="G139" s="16"/>
+      <c r="G139" s="17"/>
     </row>
     <row r="140">
-      <c r="G140" s="16"/>
+      <c r="G140" s="17"/>
     </row>
     <row r="141">
-      <c r="G141" s="16"/>
+      <c r="G141" s="17"/>
     </row>
     <row r="142">
-      <c r="G142" s="16"/>
+      <c r="G142" s="17"/>
     </row>
     <row r="143">
-      <c r="G143" s="16"/>
+      <c r="G143" s="17"/>
     </row>
     <row r="144">
-      <c r="G144" s="16"/>
+      <c r="G144" s="17"/>
     </row>
     <row r="145">
-      <c r="G145" s="16"/>
+      <c r="G145" s="17"/>
     </row>
     <row r="146">
-      <c r="G146" s="16"/>
+      <c r="G146" s="17"/>
     </row>
     <row r="147">
-      <c r="G147" s="16"/>
+      <c r="G147" s="17"/>
     </row>
     <row r="148">
-      <c r="G148" s="16"/>
+      <c r="G148" s="17"/>
     </row>
     <row r="149">
-      <c r="G149" s="16"/>
+      <c r="G149" s="17"/>
     </row>
     <row r="150">
-      <c r="G150" s="16"/>
+      <c r="G150" s="17"/>
     </row>
     <row r="151">
-      <c r="G151" s="16"/>
+      <c r="G151" s="17"/>
     </row>
     <row r="152">
-      <c r="G152" s="16"/>
+      <c r="G152" s="17"/>
     </row>
     <row r="153">
-      <c r="G153" s="16"/>
+      <c r="G153" s="17"/>
     </row>
     <row r="154">
-      <c r="G154" s="16"/>
+      <c r="G154" s="17"/>
     </row>
     <row r="155">
-      <c r="G155" s="16"/>
+      <c r="G155" s="17"/>
     </row>
     <row r="156">
-      <c r="G156" s="16"/>
+      <c r="G156" s="17"/>
     </row>
     <row r="157">
-      <c r="G157" s="16"/>
+      <c r="G157" s="17"/>
     </row>
     <row r="158">
-      <c r="G158" s="16"/>
+      <c r="G158" s="17"/>
     </row>
     <row r="159">
-      <c r="G159" s="16"/>
+      <c r="G159" s="17"/>
     </row>
     <row r="160">
-      <c r="G160" s="16"/>
+      <c r="G160" s="17"/>
     </row>
     <row r="161">
-      <c r="G161" s="16"/>
+      <c r="G161" s="17"/>
     </row>
     <row r="162">
-      <c r="G162" s="16"/>
+      <c r="G162" s="17"/>
     </row>
     <row r="163">
-      <c r="G163" s="16"/>
+      <c r="G163" s="17"/>
     </row>
     <row r="164">
-      <c r="G164" s="16"/>
+      <c r="G164" s="17"/>
     </row>
     <row r="165">
-      <c r="G165" s="16"/>
+      <c r="G165" s="17"/>
     </row>
     <row r="166">
-      <c r="G166" s="16"/>
+      <c r="G166" s="17"/>
     </row>
     <row r="167">
-      <c r="G167" s="16"/>
+      <c r="G167" s="17"/>
     </row>
     <row r="168">
-      <c r="G168" s="16"/>
+      <c r="G168" s="17"/>
     </row>
     <row r="169">
-      <c r="G169" s="16"/>
+      <c r="G169" s="17"/>
     </row>
     <row r="170">
-      <c r="G170" s="16"/>
+      <c r="G170" s="17"/>
     </row>
     <row r="171">
-      <c r="G171" s="16"/>
+      <c r="G171" s="17"/>
     </row>
     <row r="172">
-      <c r="G172" s="16"/>
+      <c r="G172" s="17"/>
     </row>
     <row r="173">
-      <c r="G173" s="16"/>
+      <c r="G173" s="17"/>
     </row>
     <row r="174">
-      <c r="G174" s="16"/>
+      <c r="G174" s="17"/>
     </row>
     <row r="175">
-      <c r="G175" s="16"/>
+      <c r="G175" s="17"/>
     </row>
     <row r="176">
-      <c r="G176" s="16"/>
+      <c r="G176" s="17"/>
     </row>
     <row r="177">
-      <c r="G177" s="16"/>
+      <c r="G177" s="17"/>
     </row>
     <row r="178">
-      <c r="G178" s="16"/>
+      <c r="G178" s="17"/>
     </row>
     <row r="179">
-      <c r="G179" s="16"/>
+      <c r="G179" s="17"/>
     </row>
     <row r="180">
-      <c r="G180" s="16"/>
+      <c r="G180" s="17"/>
     </row>
     <row r="181">
-      <c r="G181" s="16"/>
+      <c r="G181" s="17"/>
     </row>
     <row r="182">
-      <c r="G182" s="16"/>
+      <c r="G182" s="17"/>
     </row>
     <row r="183">
-      <c r="G183" s="16"/>
+      <c r="G183" s="17"/>
     </row>
     <row r="184">
-      <c r="G184" s="16"/>
+      <c r="G184" s="17"/>
     </row>
     <row r="185">
-      <c r="G185" s="16"/>
+      <c r="G185" s="17"/>
     </row>
     <row r="186">
-      <c r="G186" s="16"/>
+      <c r="G186" s="17"/>
     </row>
     <row r="187">
-      <c r="G187" s="16"/>
+      <c r="G187" s="17"/>
     </row>
     <row r="188">
-      <c r="G188" s="16"/>
+      <c r="G188" s="17"/>
     </row>
     <row r="189">
-      <c r="G189" s="16"/>
+      <c r="G189" s="17"/>
     </row>
     <row r="190">
-      <c r="G190" s="16"/>
+      <c r="G190" s="17"/>
     </row>
     <row r="191">
-      <c r="G191" s="16"/>
+      <c r="G191" s="17"/>
     </row>
     <row r="192">
-      <c r="G192" s="16"/>
+      <c r="G192" s="17"/>
     </row>
     <row r="193">
-      <c r="G193" s="16"/>
+      <c r="G193" s="17"/>
     </row>
     <row r="194">
-      <c r="G194" s="16"/>
+      <c r="G194" s="17"/>
     </row>
     <row r="195">
-      <c r="G195" s="16"/>
+      <c r="G195" s="17"/>
     </row>
     <row r="196">
-      <c r="G196" s="16"/>
+      <c r="G196" s="17"/>
     </row>
     <row r="197">
-      <c r="G197" s="16"/>
+      <c r="G197" s="17"/>
     </row>
     <row r="198">
-      <c r="G198" s="16"/>
+      <c r="G198" s="17"/>
     </row>
     <row r="199">
-      <c r="G199" s="16"/>
+      <c r="G199" s="17"/>
     </row>
     <row r="200">
-      <c r="G200" s="16"/>
+      <c r="G200" s="17"/>
     </row>
     <row r="201">
-      <c r="G201" s="16"/>
+      <c r="G201" s="17"/>
     </row>
     <row r="202">
-      <c r="G202" s="16"/>
+      <c r="G202" s="17"/>
     </row>
     <row r="203">
-      <c r="G203" s="16"/>
+      <c r="G203" s="17"/>
     </row>
     <row r="204">
-      <c r="G204" s="16"/>
+      <c r="G204" s="17"/>
     </row>
     <row r="205">
-      <c r="G205" s="16"/>
+      <c r="G205" s="17"/>
     </row>
     <row r="206">
-      <c r="G206" s="16"/>
+      <c r="G206" s="17"/>
     </row>
     <row r="207">
-      <c r="G207" s="16"/>
+      <c r="G207" s="17"/>
     </row>
     <row r="208">
-      <c r="G208" s="16"/>
+      <c r="G208" s="17"/>
     </row>
     <row r="209">
-      <c r="G209" s="16"/>
+      <c r="G209" s="17"/>
     </row>
     <row r="210">
-      <c r="G210" s="16"/>
+      <c r="G210" s="17"/>
     </row>
     <row r="211">
-      <c r="G211" s="16"/>
+      <c r="G211" s="17"/>
     </row>
     <row r="212">
-      <c r="G212" s="16"/>
+      <c r="G212" s="17"/>
     </row>
     <row r="213">
-      <c r="G213" s="16"/>
+      <c r="G213" s="17"/>
     </row>
     <row r="214">
-      <c r="G214" s="16"/>
+      <c r="G214" s="17"/>
     </row>
     <row r="215">
-      <c r="G215" s="16"/>
+      <c r="G215" s="17"/>
     </row>
     <row r="216">
-      <c r="G216" s="16"/>
+      <c r="G216" s="17"/>
     </row>
     <row r="217">
-      <c r="G217" s="16"/>
+      <c r="G217" s="17"/>
     </row>
     <row r="218">
-      <c r="G218" s="16"/>
+      <c r="G218" s="17"/>
     </row>
     <row r="219">
-      <c r="G219" s="16"/>
+      <c r="G219" s="17"/>
     </row>
     <row r="220">
-      <c r="G220" s="16"/>
+      <c r="G220" s="17"/>
     </row>
     <row r="221">
-      <c r="G221" s="16"/>
+      <c r="G221" s="17"/>
     </row>
     <row r="222">
-      <c r="G222" s="16"/>
+      <c r="G222" s="17"/>
     </row>
     <row r="223">
-      <c r="G223" s="16"/>
+      <c r="G223" s="17"/>
     </row>
     <row r="224">
-      <c r="G224" s="16"/>
+      <c r="G224" s="17"/>
     </row>
     <row r="225">
-      <c r="G225" s="16"/>
+      <c r="G225" s="17"/>
     </row>
     <row r="226">
-      <c r="G226" s="16"/>
+      <c r="G226" s="17"/>
     </row>
     <row r="227">
-      <c r="G227" s="16"/>
+      <c r="G227" s="17"/>
     </row>
     <row r="228">
-      <c r="G228" s="16"/>
+      <c r="G228" s="17"/>
     </row>
     <row r="229">
-      <c r="G229" s="16"/>
+      <c r="G229" s="17"/>
     </row>
     <row r="230">
-      <c r="G230" s="16"/>
+      <c r="G230" s="17"/>
     </row>
     <row r="231">
-      <c r="G231" s="16"/>
+      <c r="G231" s="17"/>
     </row>
     <row r="232">
-      <c r="G232" s="16"/>
+      <c r="G232" s="17"/>
     </row>
     <row r="233">
-      <c r="G233" s="16"/>
+      <c r="G233" s="17"/>
     </row>
     <row r="234">
-      <c r="G234" s="16"/>
+      <c r="G234" s="17"/>
     </row>
     <row r="235">
-      <c r="G235" s="16"/>
+      <c r="G235" s="17"/>
     </row>
     <row r="236">
-      <c r="G236" s="16"/>
+      <c r="G236" s="17"/>
     </row>
     <row r="237">
-      <c r="G237" s="16"/>
+      <c r="G237" s="17"/>
     </row>
     <row r="238">
-      <c r="G238" s="16"/>
+      <c r="G238" s="17"/>
     </row>
     <row r="239">
-      <c r="G239" s="16"/>
+      <c r="G239" s="17"/>
     </row>
     <row r="240">
-      <c r="G240" s="16"/>
+      <c r="G240" s="17"/>
     </row>
     <row r="241">
-      <c r="G241" s="16"/>
+      <c r="G241" s="17"/>
     </row>
     <row r="242">
-      <c r="G242" s="16"/>
+      <c r="G242" s="17"/>
     </row>
     <row r="243">
-      <c r="G243" s="16"/>
+      <c r="G243" s="17"/>
     </row>
     <row r="244">
-      <c r="G244" s="16"/>
+      <c r="G244" s="17"/>
     </row>
     <row r="245">
-      <c r="G245" s="16"/>
+      <c r="G245" s="17"/>
     </row>
     <row r="246">
-      <c r="G246" s="16"/>
+      <c r="G246" s="17"/>
     </row>
     <row r="247">
-      <c r="G247" s="16"/>
+      <c r="G247" s="17"/>
     </row>
     <row r="248">
-      <c r="G248" s="16"/>
+      <c r="G248" s="17"/>
     </row>
     <row r="249">
-      <c r="G249" s="16"/>
+      <c r="G249" s="17"/>
     </row>
     <row r="250">
-      <c r="G250" s="16"/>
+      <c r="G250" s="17"/>
     </row>
     <row r="251">
-      <c r="G251" s="16"/>
+      <c r="G251" s="17"/>
     </row>
     <row r="252">
-      <c r="G252" s="16"/>
+      <c r="G252" s="17"/>
     </row>
     <row r="253">
-      <c r="G253" s="16"/>
+      <c r="G253" s="17"/>
     </row>
     <row r="254">
-      <c r="G254" s="16"/>
+      <c r="G254" s="17"/>
     </row>
     <row r="255">
-      <c r="G255" s="16"/>
+      <c r="G255" s="17"/>
     </row>
     <row r="256">
-      <c r="G256" s="16"/>
+      <c r="G256" s="17"/>
     </row>
     <row r="257">
-      <c r="G257" s="16"/>
+      <c r="G257" s="17"/>
     </row>
     <row r="258">
-      <c r="G258" s="16"/>
+      <c r="G258" s="17"/>
     </row>
     <row r="259">
-      <c r="G259" s="16"/>
+      <c r="G259" s="17"/>
     </row>
     <row r="260">
-      <c r="G260" s="16"/>
+      <c r="G260" s="17"/>
     </row>
     <row r="261">
-      <c r="G261" s="16"/>
+      <c r="G261" s="17"/>
     </row>
     <row r="262">
-      <c r="G262" s="16"/>
+      <c r="G262" s="17"/>
     </row>
     <row r="263">
-      <c r="G263" s="16"/>
+      <c r="G263" s="17"/>
     </row>
     <row r="264">
-      <c r="G264" s="16"/>
+      <c r="G264" s="17"/>
     </row>
     <row r="265">
-      <c r="G265" s="16"/>
+      <c r="G265" s="17"/>
     </row>
     <row r="266">
-      <c r="G266" s="16"/>
+      <c r="G266" s="17"/>
     </row>
     <row r="267">
-      <c r="G267" s="16"/>
+      <c r="G267" s="17"/>
     </row>
     <row r="268">
-      <c r="G268" s="16"/>
+      <c r="G268" s="17"/>
     </row>
     <row r="269">
-      <c r="G269" s="16"/>
+      <c r="G269" s="17"/>
     </row>
     <row r="270">
-      <c r="G270" s="16"/>
+      <c r="G270" s="17"/>
     </row>
     <row r="271">
-      <c r="G271" s="16"/>
+      <c r="G271" s="17"/>
     </row>
     <row r="272">
-      <c r="G272" s="16"/>
+      <c r="G272" s="17"/>
     </row>
     <row r="273">
-      <c r="G273" s="16"/>
+      <c r="G273" s="17"/>
     </row>
     <row r="274">
-      <c r="G274" s="16"/>
+      <c r="G274" s="17"/>
     </row>
     <row r="275">
-      <c r="G275" s="16"/>
+      <c r="G275" s="17"/>
     </row>
     <row r="276">
-      <c r="G276" s="16"/>
+      <c r="G276" s="17"/>
     </row>
     <row r="277">
-      <c r="G277" s="16"/>
+      <c r="G277" s="17"/>
     </row>
     <row r="278">
-      <c r="G278" s="16"/>
+      <c r="G278" s="17"/>
     </row>
     <row r="279">
-      <c r="G279" s="16"/>
+      <c r="G279" s="17"/>
     </row>
     <row r="280">
-      <c r="G280" s="16"/>
+      <c r="G280" s="17"/>
     </row>
     <row r="281">
-      <c r="G281" s="16"/>
+      <c r="G281" s="17"/>
     </row>
     <row r="282">
-      <c r="G282" s="16"/>
+      <c r="G282" s="17"/>
     </row>
     <row r="283">
-      <c r="G283" s="16"/>
+      <c r="G283" s="17"/>
     </row>
     <row r="284">
-      <c r="G284" s="16"/>
+      <c r="G284" s="17"/>
     </row>
     <row r="285">
-      <c r="G285" s="16"/>
+      <c r="G285" s="17"/>
     </row>
     <row r="286">
-      <c r="G286" s="16"/>
+      <c r="G286" s="17"/>
     </row>
     <row r="287">
-      <c r="G287" s="16"/>
+      <c r="G287" s="17"/>
     </row>
     <row r="288">
-      <c r="G288" s="16"/>
+      <c r="G288" s="17"/>
     </row>
     <row r="289">
-      <c r="G289" s="16"/>
+      <c r="G289" s="17"/>
     </row>
     <row r="290">
-      <c r="G290" s="16"/>
+      <c r="G290" s="17"/>
     </row>
     <row r="291">
-      <c r="G291" s="16"/>
+      <c r="G291" s="17"/>
     </row>
     <row r="292">
-      <c r="G292" s="16"/>
+      <c r="G292" s="17"/>
     </row>
     <row r="293">
-      <c r="G293" s="16"/>
+      <c r="G293" s="17"/>
     </row>
     <row r="294">
-      <c r="G294" s="16"/>
+      <c r="G294" s="17"/>
     </row>
     <row r="295">
-      <c r="G295" s="16"/>
+      <c r="G295" s="17"/>
     </row>
     <row r="296">
-      <c r="G296" s="16"/>
+      <c r="G296" s="17"/>
     </row>
     <row r="297">
-      <c r="G297" s="16"/>
+      <c r="G297" s="17"/>
     </row>
     <row r="298">
-      <c r="G298" s="16"/>
+      <c r="G298" s="17"/>
     </row>
     <row r="299">
-      <c r="G299" s="16"/>
+      <c r="G299" s="17"/>
     </row>
     <row r="300">
-      <c r="G300" s="16"/>
+      <c r="G300" s="17"/>
     </row>
     <row r="301">
-      <c r="G301" s="16"/>
+      <c r="G301" s="17"/>
     </row>
     <row r="302">
-      <c r="G302" s="16"/>
+      <c r="G302" s="17"/>
     </row>
     <row r="303">
-      <c r="G303" s="16"/>
+      <c r="G303" s="17"/>
     </row>
     <row r="304">
-      <c r="G304" s="16"/>
+      <c r="G304" s="17"/>
     </row>
     <row r="305">
-      <c r="G305" s="16"/>
+      <c r="G305" s="17"/>
     </row>
     <row r="306">
-      <c r="G306" s="16"/>
+      <c r="G306" s="17"/>
     </row>
     <row r="307">
-      <c r="G307" s="16"/>
+      <c r="G307" s="17"/>
     </row>
     <row r="308">
-      <c r="G308" s="16"/>
+      <c r="G308" s="17"/>
     </row>
     <row r="309">
-      <c r="G309" s="16"/>
+      <c r="G309" s="17"/>
     </row>
     <row r="310">
-      <c r="G310" s="16"/>
+      <c r="G310" s="17"/>
     </row>
     <row r="311">
-      <c r="G311" s="16"/>
+      <c r="G311" s="17"/>
     </row>
     <row r="312">
-      <c r="G312" s="16"/>
+      <c r="G312" s="17"/>
     </row>
     <row r="313">
-      <c r="G313" s="16"/>
+      <c r="G313" s="17"/>
     </row>
     <row r="314">
-      <c r="G314" s="16"/>
+      <c r="G314" s="17"/>
     </row>
     <row r="315">
-      <c r="G315" s="16"/>
+      <c r="G315" s="17"/>
     </row>
     <row r="316">
-      <c r="G316" s="16"/>
+      <c r="G316" s="17"/>
     </row>
     <row r="317">
-      <c r="G317" s="16"/>
+      <c r="G317" s="17"/>
     </row>
     <row r="318">
-      <c r="G318" s="16"/>
+      <c r="G318" s="17"/>
     </row>
     <row r="319">
-      <c r="G319" s="16"/>
+      <c r="G319" s="17"/>
     </row>
     <row r="320">
-      <c r="G320" s="16"/>
+      <c r="G320" s="17"/>
     </row>
     <row r="321">
-      <c r="G321" s="16"/>
+      <c r="G321" s="17"/>
     </row>
     <row r="322">
-      <c r="G322" s="16"/>
+      <c r="G322" s="17"/>
     </row>
     <row r="323">
-      <c r="G323" s="16"/>
+      <c r="G323" s="17"/>
     </row>
     <row r="324">
-      <c r="G324" s="16"/>
+      <c r="G324" s="17"/>
     </row>
     <row r="325">
-      <c r="G325" s="16"/>
+      <c r="G325" s="17"/>
     </row>
     <row r="326">
-      <c r="G326" s="16"/>
+      <c r="G326" s="17"/>
     </row>
     <row r="327">
-      <c r="G327" s="16"/>
+      <c r="G327" s="17"/>
     </row>
     <row r="328">
-      <c r="G328" s="16"/>
+      <c r="G328" s="17"/>
     </row>
     <row r="329">
-      <c r="G329" s="16"/>
+      <c r="G329" s="17"/>
     </row>
     <row r="330">
-      <c r="G330" s="16"/>
+      <c r="G330" s="17"/>
     </row>
     <row r="331">
-      <c r="G331" s="16"/>
+      <c r="G331" s="17"/>
     </row>
     <row r="332">
-      <c r="G332" s="16"/>
+      <c r="G332" s="17"/>
     </row>
     <row r="333">
-      <c r="G333" s="16"/>
+      <c r="G333" s="17"/>
     </row>
     <row r="334">
-      <c r="G334" s="16"/>
+      <c r="G334" s="17"/>
     </row>
     <row r="335">
-      <c r="G335" s="16"/>
+      <c r="G335" s="17"/>
     </row>
     <row r="336">
-      <c r="G336" s="16"/>
+      <c r="G336" s="17"/>
     </row>
     <row r="337">
-      <c r="G337" s="16"/>
+      <c r="G337" s="17"/>
     </row>
     <row r="338">
-      <c r="G338" s="16"/>
+      <c r="G338" s="17"/>
     </row>
     <row r="339">
-      <c r="G339" s="16"/>
+      <c r="G339" s="17"/>
     </row>
     <row r="340">
-      <c r="G340" s="16"/>
+      <c r="G340" s="17"/>
     </row>
     <row r="341">
-      <c r="G341" s="16"/>
+      <c r="G341" s="17"/>
     </row>
     <row r="342">
-      <c r="G342" s="16"/>
+      <c r="G342" s="17"/>
     </row>
     <row r="343">
-      <c r="G343" s="16"/>
+      <c r="G343" s="17"/>
     </row>
     <row r="344">
-      <c r="G344" s="16"/>
+      <c r="G344" s="17"/>
     </row>
     <row r="345">
-      <c r="G345" s="16"/>
+      <c r="G345" s="17"/>
     </row>
     <row r="346">
-      <c r="G346" s="16"/>
+      <c r="G346" s="17"/>
     </row>
     <row r="347">
-      <c r="G347" s="16"/>
+      <c r="G347" s="17"/>
     </row>
     <row r="348">
-      <c r="G348" s="16"/>
+      <c r="G348" s="17"/>
     </row>
     <row r="349">
-      <c r="G349" s="16"/>
+      <c r="G349" s="17"/>
     </row>
     <row r="350">
-      <c r="G350" s="16"/>
+      <c r="G350" s="17"/>
     </row>
     <row r="351">
-      <c r="G351" s="16"/>
+      <c r="G351" s="17"/>
     </row>
     <row r="352">
-      <c r="G352" s="16"/>
+      <c r="G352" s="17"/>
     </row>
     <row r="353">
-      <c r="G353" s="16"/>
+      <c r="G353" s="17"/>
     </row>
     <row r="354">
-      <c r="G354" s="16"/>
+      <c r="G354" s="17"/>
     </row>
     <row r="355">
-      <c r="G355" s="16"/>
+      <c r="G355" s="17"/>
     </row>
     <row r="356">
-      <c r="G356" s="16"/>
+      <c r="G356" s="17"/>
     </row>
     <row r="357">
-      <c r="G357" s="16"/>
+      <c r="G357" s="17"/>
     </row>
     <row r="358">
-      <c r="G358" s="16"/>
+      <c r="G358" s="17"/>
     </row>
     <row r="359">
-      <c r="G359" s="16"/>
+      <c r="G359" s="17"/>
     </row>
     <row r="360">
-      <c r="G360" s="16"/>
+      <c r="G360" s="17"/>
     </row>
     <row r="361">
-      <c r="G361" s="16"/>
+      <c r="G361" s="17"/>
     </row>
     <row r="362">
-      <c r="G362" s="16"/>
+      <c r="G362" s="17"/>
     </row>
     <row r="363">
-      <c r="G363" s="16"/>
+      <c r="G363" s="17"/>
     </row>
     <row r="364">
-      <c r="G364" s="16"/>
+      <c r="G364" s="17"/>
     </row>
     <row r="365">
-      <c r="G365" s="16"/>
+      <c r="G365" s="17"/>
     </row>
     <row r="366">
-      <c r="G366" s="16"/>
+      <c r="G366" s="17"/>
     </row>
     <row r="367">
-      <c r="G367" s="16"/>
+      <c r="G367" s="17"/>
     </row>
     <row r="368">
-      <c r="G368" s="16"/>
+      <c r="G368" s="17"/>
     </row>
     <row r="369">
-      <c r="G369" s="16"/>
+      <c r="G369" s="17"/>
     </row>
     <row r="370">
-      <c r="G370" s="16"/>
+      <c r="G370" s="17"/>
     </row>
     <row r="371">
-      <c r="G371" s="16"/>
+      <c r="G371" s="17"/>
     </row>
     <row r="372">
-      <c r="G372" s="16"/>
+      <c r="G372" s="17"/>
     </row>
     <row r="373">
-      <c r="G373" s="16"/>
+      <c r="G373" s="17"/>
     </row>
     <row r="374">
-      <c r="G374" s="16"/>
+      <c r="G374" s="17"/>
     </row>
     <row r="375">
-      <c r="G375" s="16"/>
+      <c r="G375" s="17"/>
     </row>
     <row r="376">
-      <c r="G376" s="16"/>
+      <c r="G376" s="17"/>
     </row>
     <row r="377">
-      <c r="G377" s="16"/>
+      <c r="G377" s="17"/>
     </row>
     <row r="378">
-      <c r="G378" s="16"/>
+      <c r="G378" s="17"/>
     </row>
     <row r="379">
-      <c r="G379" s="16"/>
+      <c r="G379" s="17"/>
     </row>
     <row r="380">
-      <c r="G380" s="16"/>
+      <c r="G380" s="17"/>
     </row>
     <row r="381">
-      <c r="G381" s="16"/>
+      <c r="G381" s="17"/>
     </row>
     <row r="382">
-      <c r="G382" s="16"/>
+      <c r="G382" s="17"/>
     </row>
     <row r="383">
-      <c r="G383" s="16"/>
+      <c r="G383" s="17"/>
     </row>
     <row r="384">
-      <c r="G384" s="16"/>
+      <c r="G384" s="17"/>
     </row>
     <row r="385">
-      <c r="G385" s="16"/>
+      <c r="G385" s="17"/>
     </row>
     <row r="386">
-      <c r="G386" s="16"/>
+      <c r="G386" s="17"/>
     </row>
     <row r="387">
-      <c r="G387" s="16"/>
+      <c r="G387" s="17"/>
     </row>
     <row r="388">
-      <c r="G388" s="16"/>
+      <c r="G388" s="17"/>
     </row>
     <row r="389">
-      <c r="G389" s="16"/>
+      <c r="G389" s="17"/>
     </row>
     <row r="390">
-      <c r="G390" s="16"/>
+      <c r="G390" s="17"/>
     </row>
     <row r="391">
-      <c r="G391" s="16"/>
+      <c r="G391" s="17"/>
     </row>
     <row r="392">
-      <c r="G392" s="16"/>
+      <c r="G392" s="17"/>
     </row>
     <row r="393">
-      <c r="G393" s="16"/>
+      <c r="G393" s="17"/>
     </row>
     <row r="394">
-      <c r="G394" s="16"/>
+      <c r="G394" s="17"/>
     </row>
     <row r="395">
-      <c r="G395" s="16"/>
+      <c r="G395" s="17"/>
     </row>
     <row r="396">
-      <c r="G396" s="16"/>
+      <c r="G396" s="17"/>
     </row>
     <row r="397">
-      <c r="G397" s="16"/>
+      <c r="G397" s="17"/>
     </row>
     <row r="398">
-      <c r="G398" s="16"/>
+      <c r="G398" s="17"/>
     </row>
     <row r="399">
-      <c r="G399" s="16"/>
+      <c r="G399" s="17"/>
     </row>
     <row r="400">
-      <c r="G400" s="16"/>
+      <c r="G400" s="17"/>
     </row>
     <row r="401">
-      <c r="G401" s="16"/>
+      <c r="G401" s="17"/>
     </row>
     <row r="402">
-      <c r="G402" s="16"/>
+      <c r="G402" s="17"/>
     </row>
     <row r="403">
-      <c r="G403" s="16"/>
+      <c r="G403" s="17"/>
     </row>
     <row r="404">
-      <c r="G404" s="16"/>
+      <c r="G404" s="17"/>
     </row>
     <row r="405">
-      <c r="G405" s="16"/>
+      <c r="G405" s="17"/>
     </row>
     <row r="406">
-      <c r="G406" s="16"/>
+      <c r="G406" s="17"/>
     </row>
     <row r="407">
-      <c r="G407" s="16"/>
+      <c r="G407" s="17"/>
     </row>
     <row r="408">
-      <c r="G408" s="16"/>
+      <c r="G408" s="17"/>
     </row>
     <row r="409">
-      <c r="G409" s="16"/>
+      <c r="G409" s="17"/>
     </row>
     <row r="410">
-      <c r="G410" s="16"/>
+      <c r="G410" s="17"/>
     </row>
     <row r="411">
-      <c r="G411" s="16"/>
+      <c r="G411" s="17"/>
     </row>
     <row r="412">
-      <c r="G412" s="16"/>
+      <c r="G412" s="17"/>
     </row>
     <row r="413">
-      <c r="G413" s="16"/>
+      <c r="G413" s="17"/>
     </row>
     <row r="414">
-      <c r="G414" s="16"/>
+      <c r="G414" s="17"/>
     </row>
     <row r="415">
-      <c r="G415" s="16"/>
+      <c r="G415" s="17"/>
     </row>
     <row r="416">
-      <c r="G416" s="16"/>
+      <c r="G416" s="17"/>
     </row>
     <row r="417">
-      <c r="G417" s="16"/>
+      <c r="G417" s="17"/>
     </row>
     <row r="418">
-      <c r="G418" s="16"/>
+      <c r="G418" s="17"/>
     </row>
     <row r="419">
-      <c r="G419" s="16"/>
+      <c r="G419" s="17"/>
     </row>
     <row r="420">
-      <c r="G420" s="16"/>
+      <c r="G420" s="17"/>
     </row>
     <row r="421">
-      <c r="G421" s="16"/>
+      <c r="G421" s="17"/>
     </row>
     <row r="422">
-      <c r="G422" s="16"/>
+      <c r="G422" s="17"/>
     </row>
     <row r="423">
-      <c r="G423" s="16"/>
+      <c r="G423" s="17"/>
     </row>
     <row r="424">
-      <c r="G424" s="16"/>
+      <c r="G424" s="17"/>
     </row>
     <row r="425">
-      <c r="G425" s="16"/>
+      <c r="G425" s="17"/>
     </row>
     <row r="426">
-      <c r="G426" s="16"/>
+      <c r="G426" s="17"/>
     </row>
     <row r="427">
-      <c r="G427" s="16"/>
+      <c r="G427" s="17"/>
     </row>
     <row r="428">
-      <c r="G428" s="16"/>
+      <c r="G428" s="17"/>
     </row>
     <row r="429">
-      <c r="G429" s="16"/>
+      <c r="G429" s="17"/>
     </row>
     <row r="430">
-      <c r="G430" s="16"/>
+      <c r="G430" s="17"/>
     </row>
     <row r="431">
-      <c r="G431" s="16"/>
+      <c r="G431" s="17"/>
     </row>
     <row r="432">
-      <c r="G432" s="16"/>
+      <c r="G432" s="17"/>
     </row>
     <row r="433">
-      <c r="G433" s="16"/>
+      <c r="G433" s="17"/>
     </row>
     <row r="434">
-      <c r="G434" s="16"/>
+      <c r="G434" s="17"/>
     </row>
     <row r="435">
-      <c r="G435" s="16"/>
+      <c r="G435" s="17"/>
     </row>
     <row r="436">
-      <c r="G436" s="16"/>
+      <c r="G436" s="17"/>
     </row>
     <row r="437">
-      <c r="G437" s="16"/>
+      <c r="G437" s="17"/>
     </row>
     <row r="438">
-      <c r="G438" s="16"/>
+      <c r="G438" s="17"/>
     </row>
     <row r="439">
-      <c r="G439" s="16"/>
+      <c r="G439" s="17"/>
     </row>
     <row r="440">
-      <c r="G440" s="16"/>
+      <c r="G440" s="17"/>
     </row>
     <row r="441">
-      <c r="G441" s="16"/>
+      <c r="G441" s="17"/>
     </row>
     <row r="442">
-      <c r="G442" s="16"/>
+      <c r="G442" s="17"/>
     </row>
     <row r="443">
-      <c r="G443" s="16"/>
+      <c r="G443" s="17"/>
     </row>
     <row r="444">
-      <c r="G444" s="16"/>
+      <c r="G444" s="17"/>
     </row>
     <row r="445">
-      <c r="G445" s="16"/>
+      <c r="G445" s="17"/>
     </row>
     <row r="446">
-      <c r="G446" s="16"/>
+      <c r="G446" s="17"/>
     </row>
     <row r="447">
-      <c r="G447" s="16"/>
+      <c r="G447" s="17"/>
     </row>
     <row r="448">
-      <c r="G448" s="16"/>
+      <c r="G448" s="17"/>
     </row>
     <row r="449">
-      <c r="G449" s="16"/>
+      <c r="G449" s="17"/>
     </row>
     <row r="450">
-      <c r="G450" s="16"/>
+      <c r="G450" s="17"/>
     </row>
     <row r="451">
-      <c r="G451" s="16"/>
+      <c r="G451" s="17"/>
     </row>
     <row r="452">
-      <c r="G452" s="16"/>
+      <c r="G452" s="17"/>
     </row>
     <row r="453">
-      <c r="G453" s="16"/>
+      <c r="G453" s="17"/>
     </row>
     <row r="454">
-      <c r="G454" s="16"/>
+      <c r="G454" s="17"/>
     </row>
     <row r="455">
-      <c r="G455" s="16"/>
+      <c r="G455" s="17"/>
     </row>
     <row r="456">
-      <c r="G456" s="16"/>
+      <c r="G456" s="17"/>
     </row>
     <row r="457">
-      <c r="G457" s="16"/>
+      <c r="G457" s="17"/>
     </row>
     <row r="458">
-      <c r="G458" s="16"/>
+      <c r="G458" s="17"/>
     </row>
     <row r="459">
-      <c r="G459" s="16"/>
+      <c r="G459" s="17"/>
     </row>
     <row r="460">
-      <c r="G460" s="16"/>
+      <c r="G460" s="17"/>
     </row>
     <row r="461">
-      <c r="G461" s="16"/>
+      <c r="G461" s="17"/>
     </row>
     <row r="462">
-      <c r="G462" s="16"/>
+      <c r="G462" s="17"/>
     </row>
     <row r="463">
-      <c r="G463" s="16"/>
+      <c r="G463" s="17"/>
     </row>
     <row r="464">
-      <c r="G464" s="16"/>
+      <c r="G464" s="17"/>
     </row>
     <row r="465">
-      <c r="G465" s="16"/>
+      <c r="G465" s="17"/>
     </row>
     <row r="466">
-      <c r="G466" s="16"/>
+      <c r="G466" s="17"/>
     </row>
     <row r="467">
-      <c r="G467" s="16"/>
+      <c r="G467" s="17"/>
     </row>
     <row r="468">
-      <c r="G468" s="16"/>
+      <c r="G468" s="17"/>
     </row>
     <row r="469">
-      <c r="G469" s="16"/>
+      <c r="G469" s="17"/>
     </row>
     <row r="470">
-      <c r="G470" s="16"/>
+      <c r="G470" s="17"/>
     </row>
     <row r="471">
-      <c r="G471" s="16"/>
+      <c r="G471" s="17"/>
     </row>
     <row r="472">
-      <c r="G472" s="16"/>
+      <c r="G472" s="17"/>
     </row>
     <row r="473">
-      <c r="G473" s="16"/>
+      <c r="G473" s="17"/>
     </row>
     <row r="474">
-      <c r="G474" s="16"/>
+      <c r="G474" s="17"/>
     </row>
     <row r="475">
-      <c r="G475" s="16"/>
+      <c r="G475" s="17"/>
     </row>
     <row r="476">
-      <c r="G476" s="16"/>
+      <c r="G476" s="17"/>
     </row>
     <row r="477">
-      <c r="G477" s="16"/>
+      <c r="G477" s="17"/>
     </row>
     <row r="478">
-      <c r="G478" s="16"/>
+      <c r="G478" s="17"/>
     </row>
     <row r="479">
-      <c r="G479" s="16"/>
+      <c r="G479" s="17"/>
     </row>
     <row r="480">
-      <c r="G480" s="16"/>
+      <c r="G480" s="17"/>
     </row>
     <row r="481">
-      <c r="G481" s="16"/>
+      <c r="G481" s="17"/>
     </row>
     <row r="482">
-      <c r="G482" s="16"/>
+      <c r="G482" s="17"/>
     </row>
     <row r="483">
-      <c r="G483" s="16"/>
+      <c r="G483" s="17"/>
     </row>
     <row r="484">
-      <c r="G484" s="16"/>
+      <c r="G484" s="17"/>
     </row>
     <row r="485">
-      <c r="G485" s="16"/>
+      <c r="G485" s="17"/>
     </row>
     <row r="486">
-      <c r="G486" s="16"/>
+      <c r="G486" s="17"/>
     </row>
     <row r="487">
-      <c r="G487" s="16"/>
+      <c r="G487" s="17"/>
     </row>
     <row r="488">
-      <c r="G488" s="16"/>
+      <c r="G488" s="17"/>
     </row>
     <row r="489">
-      <c r="G489" s="16"/>
+      <c r="G489" s="17"/>
     </row>
     <row r="490">
-      <c r="G490" s="16"/>
+      <c r="G490" s="17"/>
     </row>
     <row r="491">
-      <c r="G491" s="16"/>
+      <c r="G491" s="17"/>
     </row>
     <row r="492">
-      <c r="G492" s="16"/>
+      <c r="G492" s="17"/>
     </row>
     <row r="493">
-      <c r="G493" s="16"/>
+      <c r="G493" s="17"/>
     </row>
     <row r="494">
-      <c r="G494" s="16"/>
+      <c r="G494" s="17"/>
     </row>
     <row r="495">
-      <c r="G495" s="16"/>
+      <c r="G495" s="17"/>
     </row>
     <row r="496">
-      <c r="G496" s="16"/>
+      <c r="G496" s="17"/>
     </row>
     <row r="497">
-      <c r="G497" s="16"/>
+      <c r="G497" s="17"/>
     </row>
     <row r="498">
-      <c r="G498" s="16"/>
+      <c r="G498" s="17"/>
     </row>
     <row r="499">
-      <c r="G499" s="16"/>
+      <c r="G499" s="17"/>
     </row>
     <row r="500">
-      <c r="G500" s="16"/>
+      <c r="G500" s="17"/>
     </row>
     <row r="501">
-      <c r="G501" s="16"/>
+      <c r="G501" s="17"/>
     </row>
     <row r="502">
-      <c r="G502" s="16"/>
+      <c r="G502" s="17"/>
     </row>
     <row r="503">
-      <c r="G503" s="16"/>
+      <c r="G503" s="17"/>
     </row>
     <row r="504">
-      <c r="G504" s="16"/>
+      <c r="G504" s="17"/>
     </row>
     <row r="505">
-      <c r="G505" s="16"/>
+      <c r="G505" s="17"/>
     </row>
     <row r="506">
-      <c r="G506" s="16"/>
+      <c r="G506" s="17"/>
     </row>
     <row r="507">
-      <c r="G507" s="16"/>
+      <c r="G507" s="17"/>
     </row>
     <row r="508">
-      <c r="G508" s="16"/>
+      <c r="G508" s="17"/>
     </row>
     <row r="509">
-      <c r="G509" s="16"/>
+      <c r="G509" s="17"/>
     </row>
     <row r="510">
-      <c r="G510" s="16"/>
+      <c r="G510" s="17"/>
     </row>
     <row r="511">
-      <c r="G511" s="16"/>
+      <c r="G511" s="17"/>
     </row>
     <row r="512">
-      <c r="G512" s="16"/>
+      <c r="G512" s="17"/>
     </row>
     <row r="513">
-      <c r="G513" s="16"/>
+      <c r="G513" s="17"/>
     </row>
     <row r="514">
-      <c r="G514" s="16"/>
+      <c r="G514" s="17"/>
     </row>
     <row r="515">
-      <c r="G515" s="16"/>
+      <c r="G515" s="17"/>
     </row>
     <row r="516">
-      <c r="G516" s="16"/>
+      <c r="G516" s="17"/>
     </row>
     <row r="517">
-      <c r="G517" s="16"/>
+      <c r="G517" s="17"/>
     </row>
     <row r="518">
-      <c r="G518" s="16"/>
+      <c r="G518" s="17"/>
     </row>
     <row r="519">
-      <c r="G519" s="16"/>
+      <c r="G519" s="17"/>
     </row>
     <row r="520">
-      <c r="G520" s="16"/>
+      <c r="G520" s="17"/>
     </row>
     <row r="521">
-      <c r="G521" s="16"/>
+      <c r="G521" s="17"/>
     </row>
     <row r="522">
-      <c r="G522" s="16"/>
+      <c r="G522" s="17"/>
     </row>
     <row r="523">
-      <c r="G523" s="16"/>
+      <c r="G523" s="17"/>
     </row>
     <row r="524">
-      <c r="G524" s="16"/>
+      <c r="G524" s="17"/>
     </row>
     <row r="525">
-      <c r="G525" s="16"/>
+      <c r="G525" s="17"/>
     </row>
     <row r="526">
-      <c r="G526" s="16"/>
+      <c r="G526" s="17"/>
     </row>
     <row r="527">
-      <c r="G527" s="16"/>
+      <c r="G527" s="17"/>
     </row>
     <row r="528">
-      <c r="G528" s="16"/>
+      <c r="G528" s="17"/>
     </row>
     <row r="529">
-      <c r="G529" s="16"/>
+      <c r="G529" s="17"/>
     </row>
     <row r="530">
-      <c r="G530" s="16"/>
+      <c r="G530" s="17"/>
     </row>
     <row r="531">
-      <c r="G531" s="16"/>
+      <c r="G531" s="17"/>
     </row>
     <row r="532">
-      <c r="G532" s="16"/>
+      <c r="G532" s="17"/>
     </row>
     <row r="533">
-      <c r="G533" s="16"/>
+      <c r="G533" s="17"/>
     </row>
     <row r="534">
-      <c r="G534" s="16"/>
+      <c r="G534" s="17"/>
     </row>
     <row r="535">
-      <c r="G535" s="16"/>
+      <c r="G535" s="17"/>
     </row>
     <row r="536">
-      <c r="G536" s="16"/>
+      <c r="G536" s="17"/>
     </row>
     <row r="537">
-      <c r="G537" s="16"/>
+      <c r="G537" s="17"/>
     </row>
     <row r="538">
-      <c r="G538" s="16"/>
+      <c r="G538" s="17"/>
     </row>
     <row r="539">
-      <c r="G539" s="16"/>
+      <c r="G539" s="17"/>
     </row>
     <row r="540">
-      <c r="G540" s="16"/>
+      <c r="G540" s="17"/>
     </row>
     <row r="541">
-      <c r="G541" s="16"/>
+      <c r="G541" s="17"/>
     </row>
     <row r="542">
-      <c r="G542" s="16"/>
+      <c r="G542" s="17"/>
     </row>
     <row r="543">
-      <c r="G543" s="16"/>
+      <c r="G543" s="17"/>
     </row>
     <row r="544">
-      <c r="G544" s="16"/>
+      <c r="G544" s="17"/>
     </row>
     <row r="545">
-      <c r="G545" s="16"/>
+      <c r="G545" s="17"/>
     </row>
     <row r="546">
-      <c r="G546" s="16"/>
+      <c r="G546" s="17"/>
     </row>
     <row r="547">
-      <c r="G547" s="16"/>
+      <c r="G547" s="17"/>
     </row>
     <row r="548">
-      <c r="G548" s="16"/>
+      <c r="G548" s="17"/>
     </row>
     <row r="549">
-      <c r="G549" s="16"/>
+      <c r="G549" s="17"/>
     </row>
     <row r="550">
-      <c r="G550" s="16"/>
+      <c r="G550" s="17"/>
     </row>
     <row r="551">
-      <c r="G551" s="16"/>
+      <c r="G551" s="17"/>
     </row>
     <row r="552">
-      <c r="G552" s="16"/>
+      <c r="G552" s="17"/>
     </row>
     <row r="553">
-      <c r="G553" s="16"/>
+      <c r="G553" s="17"/>
     </row>
     <row r="554">
-      <c r="G554" s="16"/>
+      <c r="G554" s="17"/>
     </row>
     <row r="555">
-      <c r="G555" s="16"/>
+      <c r="G555" s="17"/>
     </row>
     <row r="556">
-      <c r="G556" s="16"/>
+      <c r="G556" s="17"/>
     </row>
     <row r="557">
-      <c r="G557" s="16"/>
+      <c r="G557" s="17"/>
     </row>
     <row r="558">
-      <c r="G558" s="16"/>
+      <c r="G558" s="17"/>
     </row>
     <row r="559">
-      <c r="G559" s="16"/>
+      <c r="G559" s="17"/>
     </row>
     <row r="560">
-      <c r="G560" s="16"/>
+      <c r="G560" s="17"/>
     </row>
     <row r="561">
-      <c r="G561" s="16"/>
+      <c r="G561" s="17"/>
     </row>
     <row r="562">
-      <c r="G562" s="16"/>
+      <c r="G562" s="17"/>
     </row>
     <row r="563">
-      <c r="G563" s="16"/>
+      <c r="G563" s="17"/>
     </row>
     <row r="564">
-      <c r="G564" s="16"/>
+      <c r="G564" s="17"/>
     </row>
     <row r="565">
-      <c r="G565" s="16"/>
+      <c r="G565" s="17"/>
     </row>
     <row r="566">
-      <c r="G566" s="16"/>
+      <c r="G566" s="17"/>
     </row>
     <row r="567">
-      <c r="G567" s="16"/>
+      <c r="G567" s="17"/>
     </row>
     <row r="568">
-      <c r="G568" s="16"/>
+      <c r="G568" s="17"/>
     </row>
     <row r="569">
-      <c r="G569" s="16"/>
+      <c r="G569" s="17"/>
     </row>
     <row r="570">
-      <c r="G570" s="16"/>
+      <c r="G570" s="17"/>
     </row>
     <row r="571">
-      <c r="G571" s="16"/>
+      <c r="G571" s="17"/>
     </row>
     <row r="572">
-      <c r="G572" s="16"/>
+      <c r="G572" s="17"/>
     </row>
     <row r="573">
-      <c r="G573" s="16"/>
+      <c r="G573" s="17"/>
     </row>
     <row r="574">
-      <c r="G574" s="16"/>
+      <c r="G574" s="17"/>
     </row>
     <row r="575">
-      <c r="G575" s="16"/>
+      <c r="G575" s="17"/>
     </row>
     <row r="576">
-      <c r="G576" s="16"/>
+      <c r="G576" s="17"/>
     </row>
     <row r="577">
-      <c r="G577" s="16"/>
+      <c r="G577" s="17"/>
     </row>
     <row r="578">
-      <c r="G578" s="16"/>
+      <c r="G578" s="17"/>
     </row>
     <row r="579">
-      <c r="G579" s="16"/>
+      <c r="G579" s="17"/>
     </row>
     <row r="580">
-      <c r="G580" s="16"/>
+      <c r="G580" s="17"/>
     </row>
     <row r="581">
-      <c r="G581" s="16"/>
+      <c r="G581" s="17"/>
     </row>
     <row r="582">
-      <c r="G582" s="16"/>
+      <c r="G582" s="17"/>
     </row>
     <row r="583">
-      <c r="G583" s="16"/>
+      <c r="G583" s="17"/>
     </row>
     <row r="584">
-      <c r="G584" s="16"/>
+      <c r="G584" s="17"/>
     </row>
     <row r="585">
-      <c r="G585" s="16"/>
+      <c r="G585" s="17"/>
     </row>
     <row r="586">
-      <c r="G586" s="16"/>
+      <c r="G586" s="17"/>
     </row>
     <row r="587">
-      <c r="G587" s="16"/>
+      <c r="G587" s="17"/>
     </row>
     <row r="588">
-      <c r="G588" s="16"/>
+      <c r="G588" s="17"/>
     </row>
     <row r="589">
-      <c r="G589" s="16"/>
+      <c r="G589" s="17"/>
     </row>
     <row r="590">
-      <c r="G590" s="16"/>
+      <c r="G590" s="17"/>
     </row>
     <row r="591">
-      <c r="G591" s="16"/>
+      <c r="G591" s="17"/>
     </row>
     <row r="592">
-      <c r="G592" s="16"/>
+      <c r="G592" s="17"/>
     </row>
     <row r="593">
-      <c r="G593" s="16"/>
+      <c r="G593" s="17"/>
     </row>
     <row r="594">
-      <c r="G594" s="16"/>
+      <c r="G594" s="17"/>
     </row>
     <row r="595">
-      <c r="G595" s="16"/>
+      <c r="G595" s="17"/>
     </row>
     <row r="596">
-      <c r="G596" s="16"/>
+      <c r="G596" s="17"/>
     </row>
     <row r="597">
-      <c r="G597" s="16"/>
+      <c r="G597" s="17"/>
     </row>
     <row r="598">
-      <c r="G598" s="16"/>
+      <c r="G598" s="17"/>
     </row>
     <row r="599">
-      <c r="G599" s="16"/>
+      <c r="G599" s="17"/>
     </row>
     <row r="600">
-      <c r="G600" s="16"/>
+      <c r="G600" s="17"/>
     </row>
     <row r="601">
-      <c r="G601" s="16"/>
+      <c r="G601" s="17"/>
     </row>
     <row r="602">
-      <c r="G602" s="16"/>
+      <c r="G602" s="17"/>
     </row>
     <row r="603">
-      <c r="G603" s="16"/>
+      <c r="G603" s="17"/>
     </row>
     <row r="604">
-      <c r="G604" s="16"/>
+      <c r="G604" s="17"/>
     </row>
     <row r="605">
-      <c r="G605" s="16"/>
+      <c r="G605" s="17"/>
     </row>
     <row r="606">
-      <c r="G606" s="16"/>
+      <c r="G606" s="17"/>
     </row>
     <row r="607">
-      <c r="G607" s="16"/>
+      <c r="G607" s="17"/>
     </row>
     <row r="608">
-      <c r="G608" s="16"/>
+      <c r="G608" s="17"/>
     </row>
     <row r="609">
-      <c r="G609" s="16"/>
+      <c r="G609" s="17"/>
     </row>
     <row r="610">
-      <c r="G610" s="16"/>
+      <c r="G610" s="17"/>
     </row>
     <row r="611">
-      <c r="G611" s="16"/>
+      <c r="G611" s="17"/>
     </row>
     <row r="612">
-      <c r="G612" s="16"/>
+      <c r="G612" s="17"/>
     </row>
     <row r="613">
-      <c r="G613" s="16"/>
+      <c r="G613" s="17"/>
     </row>
     <row r="614">
-      <c r="G614" s="16"/>
+      <c r="G614" s="17"/>
     </row>
     <row r="615">
-      <c r="G615" s="16"/>
+      <c r="G615" s="17"/>
     </row>
     <row r="616">
-      <c r="G616" s="16"/>
+      <c r="G616" s="17"/>
     </row>
     <row r="617">
-      <c r="G617" s="16"/>
+      <c r="G617" s="17"/>
     </row>
     <row r="618">
-      <c r="G618" s="16"/>
+      <c r="G618" s="17"/>
     </row>
     <row r="619">
-      <c r="G619" s="16"/>
+      <c r="G619" s="17"/>
     </row>
     <row r="620">
-      <c r="G620" s="16"/>
+      <c r="G620" s="17"/>
     </row>
     <row r="621">
-      <c r="G621" s="16"/>
+      <c r="G621" s="17"/>
     </row>
     <row r="622">
-      <c r="G622" s="16"/>
+      <c r="G622" s="17"/>
     </row>
     <row r="623">
-      <c r="G623" s="16"/>
+      <c r="G623" s="17"/>
     </row>
     <row r="624">
-      <c r="G624" s="16"/>
+      <c r="G624" s="17"/>
     </row>
     <row r="625">
-      <c r="G625" s="16"/>
+      <c r="G625" s="17"/>
     </row>
     <row r="626">
-      <c r="G626" s="16"/>
+      <c r="G626" s="17"/>
     </row>
     <row r="627">
-      <c r="G627" s="16"/>
+      <c r="G627" s="17"/>
     </row>
     <row r="628">
-      <c r="G628" s="16"/>
+      <c r="G628" s="17"/>
     </row>
     <row r="629">
-      <c r="G629" s="16"/>
+      <c r="G629" s="17"/>
     </row>
     <row r="630">
-      <c r="G630" s="16"/>
+      <c r="G630" s="17"/>
     </row>
     <row r="631">
-      <c r="G631" s="16"/>
+      <c r="G631" s="17"/>
     </row>
     <row r="632">
-      <c r="G632" s="16"/>
+      <c r="G632" s="17"/>
     </row>
     <row r="633">
-      <c r="G633" s="16"/>
+      <c r="G633" s="17"/>
     </row>
     <row r="634">
-      <c r="G634" s="16"/>
+      <c r="G634" s="17"/>
     </row>
     <row r="635">
-      <c r="G635" s="16"/>
+      <c r="G635" s="17"/>
     </row>
     <row r="636">
-      <c r="G636" s="16"/>
+      <c r="G636" s="17"/>
     </row>
     <row r="637">
-      <c r="G637" s="16"/>
+      <c r="G637" s="17"/>
     </row>
     <row r="638">
-      <c r="G638" s="16"/>
+      <c r="G638" s="17"/>
     </row>
     <row r="639">
-      <c r="G639" s="16"/>
+      <c r="G639" s="17"/>
     </row>
     <row r="640">
-      <c r="G640" s="16"/>
+      <c r="G640" s="17"/>
     </row>
     <row r="641">
-      <c r="G641" s="16"/>
+      <c r="G641" s="17"/>
     </row>
     <row r="642">
-      <c r="G642" s="16"/>
+      <c r="G642" s="17"/>
     </row>
     <row r="643">
-      <c r="G643" s="16"/>
+      <c r="G643" s="17"/>
     </row>
     <row r="644">
-      <c r="G644" s="16"/>
+      <c r="G644" s="17"/>
     </row>
     <row r="645">
-      <c r="G645" s="16"/>
+      <c r="G645" s="17"/>
     </row>
     <row r="646">
-      <c r="G646" s="16"/>
+      <c r="G646" s="17"/>
     </row>
     <row r="647">
-      <c r="G647" s="16"/>
+      <c r="G647" s="17"/>
     </row>
     <row r="648">
-      <c r="G648" s="16"/>
+      <c r="G648" s="17"/>
     </row>
     <row r="649">
-      <c r="G649" s="16"/>
+      <c r="G649" s="17"/>
     </row>
     <row r="650">
-      <c r="G650" s="16"/>
+      <c r="G650" s="17"/>
     </row>
     <row r="651">
-      <c r="G651" s="16"/>
+      <c r="G651" s="17"/>
     </row>
     <row r="652">
-      <c r="G652" s="16"/>
+      <c r="G652" s="17"/>
     </row>
     <row r="653">
-      <c r="G653" s="16"/>
+      <c r="G653" s="17"/>
     </row>
     <row r="654">
-      <c r="G654" s="16"/>
+      <c r="G654" s="17"/>
     </row>
     <row r="655">
-      <c r="G655" s="16"/>
+      <c r="G655" s="17"/>
     </row>
     <row r="656">
-      <c r="G656" s="16"/>
+      <c r="G656" s="17"/>
     </row>
     <row r="657">
-      <c r="G657" s="16"/>
+      <c r="G657" s="17"/>
     </row>
     <row r="658">
-      <c r="G658" s="16"/>
+      <c r="G658" s="17"/>
     </row>
     <row r="659">
-      <c r="G659" s="16"/>
+      <c r="G659" s="17"/>
     </row>
     <row r="660">
-      <c r="G660" s="16"/>
+      <c r="G660" s="17"/>
     </row>
     <row r="661">
-      <c r="G661" s="16"/>
+      <c r="G661" s="17"/>
     </row>
     <row r="662">
-      <c r="G662" s="16"/>
+      <c r="G662" s="17"/>
     </row>
     <row r="663">
-      <c r="G663" s="16"/>
+      <c r="G663" s="17"/>
     </row>
     <row r="664">
-      <c r="G664" s="16"/>
+      <c r="G664" s="17"/>
     </row>
     <row r="665">
-      <c r="G665" s="16"/>
+      <c r="G665" s="17"/>
     </row>
     <row r="666">
-      <c r="G666" s="16"/>
+      <c r="G666" s="17"/>
     </row>
     <row r="667">
-      <c r="G667" s="16"/>
+      <c r="G667" s="17"/>
     </row>
     <row r="668">
-      <c r="G668" s="16"/>
+      <c r="G668" s="17"/>
     </row>
     <row r="669">
-      <c r="G669" s="16"/>
+      <c r="G669" s="17"/>
     </row>
     <row r="670">
-      <c r="G670" s="16"/>
+      <c r="G670" s="17"/>
     </row>
     <row r="671">
-      <c r="G671" s="16"/>
+      <c r="G671" s="17"/>
     </row>
     <row r="672">
-      <c r="G672" s="16"/>
+      <c r="G672" s="17"/>
     </row>
     <row r="673">
-      <c r="G673" s="16"/>
+      <c r="G673" s="17"/>
     </row>
     <row r="674">
-      <c r="G674" s="16"/>
+      <c r="G674" s="17"/>
     </row>
     <row r="675">
-      <c r="G675" s="16"/>
+      <c r="G675" s="17"/>
     </row>
     <row r="676">
-      <c r="G676" s="16"/>
+      <c r="G676" s="17"/>
     </row>
     <row r="677">
-      <c r="G677" s="16"/>
+      <c r="G677" s="17"/>
     </row>
     <row r="678">
-      <c r="G678" s="16"/>
+      <c r="G678" s="17"/>
     </row>
     <row r="679">
-      <c r="G679" s="16"/>
+      <c r="G679" s="17"/>
     </row>
     <row r="680">
-      <c r="G680" s="16"/>
+      <c r="G680" s="17"/>
     </row>
     <row r="681">
-      <c r="G681" s="16"/>
+      <c r="G681" s="17"/>
     </row>
     <row r="682">
-      <c r="G682" s="16"/>
+      <c r="G682" s="17"/>
     </row>
     <row r="683">
-      <c r="G683" s="16"/>
+      <c r="G683" s="17"/>
     </row>
     <row r="684">
-      <c r="G684" s="16"/>
+      <c r="G684" s="17"/>
     </row>
     <row r="685">
-      <c r="G685" s="16"/>
+      <c r="G685" s="17"/>
     </row>
     <row r="686">
-      <c r="G686" s="16"/>
+      <c r="G686" s="17"/>
     </row>
     <row r="687">
-      <c r="G687" s="16"/>
+      <c r="G687" s="17"/>
     </row>
     <row r="688">
-      <c r="G688" s="16"/>
+      <c r="G688" s="17"/>
     </row>
     <row r="689">
-      <c r="G689" s="16"/>
+      <c r="G689" s="17"/>
     </row>
     <row r="690">
-      <c r="G690" s="16"/>
+      <c r="G690" s="17"/>
     </row>
     <row r="691">
-      <c r="G691" s="16"/>
+      <c r="G691" s="17"/>
     </row>
     <row r="692">
-      <c r="G692" s="16"/>
+      <c r="G692" s="17"/>
     </row>
     <row r="693">
-      <c r="G693" s="16"/>
+      <c r="G693" s="17"/>
     </row>
     <row r="694">
-      <c r="G694" s="16"/>
+      <c r="G694" s="17"/>
     </row>
     <row r="695">
-      <c r="G695" s="16"/>
+      <c r="G695" s="17"/>
     </row>
     <row r="696">
-      <c r="G696" s="16"/>
+      <c r="G696" s="17"/>
     </row>
     <row r="697">
-      <c r="G697" s="16"/>
+      <c r="G697" s="17"/>
     </row>
     <row r="698">
-      <c r="G698" s="16"/>
+      <c r="G698" s="17"/>
     </row>
     <row r="699">
-      <c r="G699" s="16"/>
+      <c r="G699" s="17"/>
     </row>
     <row r="700">
-      <c r="G700" s="16"/>
+      <c r="G700" s="17"/>
     </row>
     <row r="701">
-      <c r="G701" s="16"/>
+      <c r="G701" s="17"/>
     </row>
     <row r="702">
-      <c r="G702" s="16"/>
+      <c r="G702" s="17"/>
     </row>
     <row r="703">
-      <c r="G703" s="16"/>
+      <c r="G703" s="17"/>
     </row>
     <row r="704">
-      <c r="G704" s="16"/>
+      <c r="G704" s="17"/>
     </row>
     <row r="705">
-      <c r="G705" s="16"/>
+      <c r="G705" s="17"/>
     </row>
     <row r="706">
-      <c r="G706" s="16"/>
+      <c r="G706" s="17"/>
     </row>
     <row r="707">
-      <c r="G707" s="16"/>
+      <c r="G707" s="17"/>
     </row>
     <row r="708">
-      <c r="G708" s="16"/>
+      <c r="G708" s="17"/>
     </row>
     <row r="709">
-      <c r="G709" s="16"/>
+      <c r="G709" s="17"/>
     </row>
     <row r="710">
-      <c r="G710" s="16"/>
+      <c r="G710" s="17"/>
     </row>
     <row r="711">
-      <c r="G711" s="16"/>
+      <c r="G711" s="17"/>
     </row>
     <row r="712">
-      <c r="G712" s="16"/>
+      <c r="G712" s="17"/>
     </row>
     <row r="713">
-      <c r="G713" s="16"/>
+      <c r="G713" s="17"/>
     </row>
     <row r="714">
-      <c r="G714" s="16"/>
+      <c r="G714" s="17"/>
     </row>
     <row r="715">
-      <c r="G715" s="16"/>
+      <c r="G715" s="17"/>
     </row>
     <row r="716">
-      <c r="G716" s="16"/>
+      <c r="G716" s="17"/>
     </row>
     <row r="717">
-      <c r="G717" s="16"/>
+      <c r="G717" s="17"/>
     </row>
     <row r="718">
-      <c r="G718" s="16"/>
+      <c r="G718" s="17"/>
     </row>
     <row r="719">
-      <c r="G719" s="16"/>
+      <c r="G719" s="17"/>
     </row>
     <row r="720">
-      <c r="G720" s="16"/>
+      <c r="G720" s="17"/>
     </row>
     <row r="721">
-      <c r="G721" s="16"/>
+      <c r="G721" s="17"/>
     </row>
     <row r="722">
-      <c r="G722" s="16"/>
+      <c r="G722" s="17"/>
     </row>
     <row r="723">
-      <c r="G723" s="16"/>
+      <c r="G723" s="17"/>
     </row>
     <row r="724">
-      <c r="G724" s="16"/>
+      <c r="G724" s="17"/>
     </row>
     <row r="725">
-      <c r="G725" s="16"/>
+      <c r="G725" s="17"/>
     </row>
     <row r="726">
-      <c r="G726" s="16"/>
+      <c r="G726" s="17"/>
     </row>
     <row r="727">
-      <c r="G727" s="16"/>
+      <c r="G727" s="17"/>
     </row>
     <row r="728">
-      <c r="G728" s="16"/>
+      <c r="G728" s="17"/>
     </row>
     <row r="729">
-      <c r="G729" s="16"/>
+      <c r="G729" s="17"/>
     </row>
     <row r="730">
-      <c r="G730" s="16"/>
+      <c r="G730" s="17"/>
     </row>
     <row r="731">
-      <c r="G731" s="16"/>
+      <c r="G731" s="17"/>
     </row>
     <row r="732">
-      <c r="G732" s="16"/>
+      <c r="G732" s="17"/>
     </row>
     <row r="733">
-      <c r="G733" s="16"/>
+      <c r="G733" s="17"/>
     </row>
     <row r="734">
-      <c r="G734" s="16"/>
+      <c r="G734" s="17"/>
     </row>
     <row r="735">
-      <c r="G735" s="16"/>
+      <c r="G735" s="17"/>
     </row>
     <row r="736">
-      <c r="G736" s="16"/>
+      <c r="G736" s="17"/>
     </row>
     <row r="737">
-      <c r="G737" s="16"/>
+      <c r="G737" s="17"/>
     </row>
     <row r="738">
-      <c r="G738" s="16"/>
+      <c r="G738" s="17"/>
     </row>
     <row r="739">
-      <c r="G739" s="16"/>
+      <c r="G739" s="17"/>
     </row>
     <row r="740">
-      <c r="G740" s="16"/>
+      <c r="G740" s="17"/>
     </row>
     <row r="741">
-      <c r="G741" s="16"/>
+      <c r="G741" s="17"/>
     </row>
     <row r="742">
-      <c r="G742" s="16"/>
+      <c r="G742" s="17"/>
     </row>
     <row r="743">
-      <c r="G743" s="16"/>
+      <c r="G743" s="17"/>
     </row>
     <row r="744">
-      <c r="G744" s="16"/>
+      <c r="G744" s="17"/>
     </row>
     <row r="745">
-      <c r="G745" s="16"/>
+      <c r="G745" s="17"/>
     </row>
     <row r="746">
-      <c r="G746" s="16"/>
+      <c r="G746" s="17"/>
     </row>
     <row r="747">
-      <c r="G747" s="16"/>
+      <c r="G747" s="17"/>
     </row>
     <row r="748">
-      <c r="G748" s="16"/>
+      <c r="G748" s="17"/>
     </row>
     <row r="749">
-      <c r="G749" s="16"/>
+      <c r="G749" s="17"/>
     </row>
     <row r="750">
-      <c r="G750" s="16"/>
+      <c r="G750" s="17"/>
     </row>
     <row r="751">
-      <c r="G751" s="16"/>
+      <c r="G751" s="17"/>
     </row>
     <row r="752">
-      <c r="G752" s="16"/>
+      <c r="G752" s="17"/>
     </row>
     <row r="753">
-      <c r="G753" s="16"/>
+      <c r="G753" s="17"/>
     </row>
     <row r="754">
-      <c r="G754" s="16"/>
+      <c r="G754" s="17"/>
     </row>
     <row r="755">
-      <c r="G755" s="16"/>
+      <c r="G755" s="17"/>
     </row>
     <row r="756">
-      <c r="G756" s="16"/>
+      <c r="G756" s="17"/>
     </row>
     <row r="757">
-      <c r="G757" s="16"/>
+      <c r="G757" s="17"/>
     </row>
     <row r="758">
-      <c r="G758" s="16"/>
+      <c r="G758" s="17"/>
     </row>
     <row r="759">
-      <c r="G759" s="16"/>
+      <c r="G759" s="17"/>
     </row>
     <row r="760">
-      <c r="G760" s="16"/>
+      <c r="G760" s="17"/>
     </row>
     <row r="761">
-      <c r="G761" s="16"/>
+      <c r="G761" s="17"/>
     </row>
     <row r="762">
-      <c r="G762" s="16"/>
+      <c r="G762" s="17"/>
     </row>
     <row r="763">
-      <c r="G763" s="16"/>
+      <c r="G763" s="17"/>
     </row>
     <row r="764">
-      <c r="G764" s="16"/>
+      <c r="G764" s="17"/>
     </row>
     <row r="765">
-      <c r="G765" s="16"/>
+      <c r="G765" s="17"/>
     </row>
     <row r="766">
-      <c r="G766" s="16"/>
+      <c r="G766" s="17"/>
     </row>
     <row r="767">
-      <c r="G767" s="16"/>
+      <c r="G767" s="17"/>
     </row>
     <row r="768">
-      <c r="G768" s="16"/>
+      <c r="G768" s="17"/>
     </row>
     <row r="769">
-      <c r="G769" s="16"/>
+      <c r="G769" s="17"/>
     </row>
     <row r="770">
-      <c r="G770" s="16"/>
+      <c r="G770" s="17"/>
     </row>
     <row r="771">
-      <c r="G771" s="16"/>
+      <c r="G771" s="17"/>
     </row>
     <row r="772">
-      <c r="G772" s="16"/>
+      <c r="G772" s="17"/>
     </row>
     <row r="773">
-      <c r="G773" s="16"/>
+      <c r="G773" s="17"/>
     </row>
     <row r="774">
-      <c r="G774" s="16"/>
+      <c r="G774" s="17"/>
     </row>
     <row r="775">
-      <c r="G775" s="16"/>
+      <c r="G775" s="17"/>
     </row>
     <row r="776">
-      <c r="G776" s="16"/>
+      <c r="G776" s="17"/>
     </row>
     <row r="777">
-      <c r="G777" s="16"/>
+      <c r="G777" s="17"/>
     </row>
     <row r="778">
-      <c r="G778" s="16"/>
+      <c r="G778" s="17"/>
     </row>
     <row r="779">
-      <c r="G779" s="16"/>
+      <c r="G779" s="17"/>
     </row>
     <row r="780">
-      <c r="G780" s="16"/>
+      <c r="G780" s="17"/>
     </row>
     <row r="781">
-      <c r="G781" s="16"/>
+      <c r="G781" s="17"/>
     </row>
     <row r="782">
-      <c r="G782" s="16"/>
+      <c r="G782" s="17"/>
     </row>
     <row r="783">
-      <c r="G783" s="16"/>
+      <c r="G783" s="17"/>
     </row>
     <row r="784">
-      <c r="G784" s="16"/>
+      <c r="G784" s="17"/>
     </row>
     <row r="785">
-      <c r="G785" s="16"/>
+      <c r="G785" s="17"/>
     </row>
     <row r="786">
-      <c r="G786" s="16"/>
+      <c r="G786" s="17"/>
     </row>
     <row r="787">
-      <c r="G787" s="16"/>
+      <c r="G787" s="17"/>
     </row>
     <row r="788">
-      <c r="G788" s="16"/>
+      <c r="G788" s="17"/>
     </row>
     <row r="789">
-      <c r="G789" s="16"/>
+      <c r="G789" s="17"/>
     </row>
     <row r="790">
-      <c r="G790" s="16"/>
+      <c r="G790" s="17"/>
     </row>
     <row r="791">
-      <c r="G791" s="16"/>
+      <c r="G791" s="17"/>
     </row>
     <row r="792">
-      <c r="G792" s="16"/>
+      <c r="G792" s="17"/>
     </row>
     <row r="793">
-      <c r="G793" s="16"/>
+      <c r="G793" s="17"/>
     </row>
     <row r="794">
-      <c r="G794" s="16"/>
+      <c r="G794" s="17"/>
     </row>
     <row r="795">
-      <c r="G795" s="16"/>
+      <c r="G795" s="17"/>
     </row>
     <row r="796">
-      <c r="G796" s="16"/>
+      <c r="G796" s="17"/>
     </row>
     <row r="797">
-      <c r="G797" s="16"/>
+      <c r="G797" s="17"/>
     </row>
     <row r="798">
-      <c r="G798" s="16"/>
+      <c r="G798" s="17"/>
     </row>
     <row r="799">
-      <c r="G799" s="16"/>
+      <c r="G799" s="17"/>
     </row>
     <row r="800">
-      <c r="G800" s="16"/>
+      <c r="G800" s="17"/>
     </row>
     <row r="801">
-      <c r="G801" s="16"/>
+      <c r="G801" s="17"/>
     </row>
     <row r="802">
-      <c r="G802" s="16"/>
+      <c r="G802" s="17"/>
     </row>
     <row r="803">
-      <c r="G803" s="16"/>
+      <c r="G803" s="17"/>
     </row>
     <row r="804">
-      <c r="G804" s="16"/>
+      <c r="G804" s="17"/>
     </row>
     <row r="805">
-      <c r="G805" s="16"/>
+      <c r="G805" s="17"/>
     </row>
     <row r="806">
-      <c r="G806" s="16"/>
+      <c r="G806" s="17"/>
     </row>
     <row r="807">
-      <c r="G807" s="16"/>
+      <c r="G807" s="17"/>
     </row>
     <row r="808">
-      <c r="G808" s="16"/>
+      <c r="G808" s="17"/>
     </row>
     <row r="809">
-      <c r="G809" s="16"/>
+      <c r="G809" s="17"/>
     </row>
     <row r="810">
-      <c r="G810" s="16"/>
+      <c r="G810" s="17"/>
     </row>
     <row r="811">
-      <c r="G811" s="16"/>
+      <c r="G811" s="17"/>
     </row>
     <row r="812">
-      <c r="G812" s="16"/>
+      <c r="G812" s="17"/>
     </row>
     <row r="813">
-      <c r="G813" s="16"/>
+      <c r="G813" s="17"/>
     </row>
     <row r="814">
-      <c r="G814" s="16"/>
+      <c r="G814" s="17"/>
     </row>
     <row r="815">
-      <c r="G815" s="16"/>
+      <c r="G815" s="17"/>
     </row>
     <row r="816">
-      <c r="G816" s="16"/>
+      <c r="G816" s="17"/>
     </row>
     <row r="817">
-      <c r="G817" s="16"/>
+      <c r="G817" s="17"/>
     </row>
     <row r="818">
-      <c r="G818" s="16"/>
+      <c r="G818" s="17"/>
     </row>
     <row r="819">
-      <c r="G819" s="16"/>
+      <c r="G819" s="17"/>
     </row>
     <row r="820">
-      <c r="G820" s="16"/>
+      <c r="G820" s="17"/>
     </row>
     <row r="821">
-      <c r="G821" s="16"/>
+      <c r="G821" s="17"/>
     </row>
     <row r="822">
-      <c r="G822" s="16"/>
+      <c r="G822" s="17"/>
     </row>
     <row r="823">
-      <c r="G823" s="16"/>
+      <c r="G823" s="17"/>
     </row>
     <row r="824">
-      <c r="G824" s="16"/>
+      <c r="G824" s="17"/>
     </row>
     <row r="825">
-      <c r="G825" s="16"/>
+      <c r="G825" s="17"/>
     </row>
     <row r="826">
-      <c r="G826" s="16"/>
+      <c r="G826" s="17"/>
     </row>
     <row r="827">
-      <c r="G827" s="16"/>
+      <c r="G827" s="17"/>
     </row>
     <row r="828">
-      <c r="G828" s="16"/>
+      <c r="G828" s="17"/>
     </row>
     <row r="829">
-      <c r="G829" s="16"/>
+      <c r="G829" s="17"/>
     </row>
     <row r="830">
-      <c r="G830" s="16"/>
+      <c r="G830" s="17"/>
     </row>
     <row r="831">
-      <c r="G831" s="16"/>
+      <c r="G831" s="17"/>
     </row>
     <row r="832">
-      <c r="G832" s="16"/>
+      <c r="G832" s="17"/>
     </row>
     <row r="833">
-      <c r="G833" s="16"/>
+      <c r="G833" s="17"/>
     </row>
     <row r="834">
-      <c r="G834" s="16"/>
+      <c r="G834" s="17"/>
     </row>
     <row r="835">
-      <c r="G835" s="16"/>
+      <c r="G835" s="17"/>
     </row>
     <row r="836">
-      <c r="G836" s="16"/>
+      <c r="G836" s="17"/>
     </row>
     <row r="837">
-      <c r="G837" s="16"/>
+      <c r="G837" s="17"/>
     </row>
     <row r="838">
-      <c r="G838" s="16"/>
+      <c r="G838" s="17"/>
     </row>
     <row r="839">
-      <c r="G839" s="16"/>
+      <c r="G839" s="17"/>
     </row>
     <row r="840">
-      <c r="G840" s="16"/>
+      <c r="G840" s="17"/>
     </row>
     <row r="841">
-      <c r="G841" s="16"/>
+      <c r="G841" s="17"/>
     </row>
     <row r="842">
-      <c r="G842" s="16"/>
+      <c r="G842" s="17"/>
     </row>
     <row r="843">
-      <c r="G843" s="16"/>
+      <c r="G843" s="17"/>
     </row>
     <row r="844">
-      <c r="G844" s="16"/>
+      <c r="G844" s="17"/>
     </row>
     <row r="845">
-      <c r="G845" s="16"/>
+      <c r="G845" s="17"/>
     </row>
     <row r="846">
-      <c r="G846" s="16"/>
+      <c r="G846" s="17"/>
     </row>
     <row r="847">
-      <c r="G847" s="16"/>
+      <c r="G847" s="17"/>
     </row>
     <row r="848">
-      <c r="G848" s="16"/>
+      <c r="G848" s="17"/>
     </row>
     <row r="849">
-      <c r="G849" s="16"/>
+      <c r="G849" s="17"/>
     </row>
     <row r="850">
-      <c r="G850" s="16"/>
+      <c r="G850" s="17"/>
     </row>
     <row r="851">
-      <c r="G851" s="16"/>
+      <c r="G851" s="17"/>
     </row>
     <row r="852">
-      <c r="G852" s="16"/>
+      <c r="G852" s="17"/>
     </row>
     <row r="853">
-      <c r="G853" s="16"/>
+      <c r="G853" s="17"/>
     </row>
     <row r="854">
-      <c r="G854" s="16"/>
+      <c r="G854" s="17"/>
     </row>
     <row r="855">
-      <c r="G855" s="16"/>
+      <c r="G855" s="17"/>
     </row>
     <row r="856">
-      <c r="G856" s="16"/>
+      <c r="G856" s="17"/>
     </row>
     <row r="857">
-      <c r="G857" s="16"/>
+      <c r="G857" s="17"/>
     </row>
     <row r="858">
-      <c r="G858" s="16"/>
+      <c r="G858" s="17"/>
     </row>
     <row r="859">
-      <c r="G859" s="16"/>
+      <c r="G859" s="17"/>
     </row>
     <row r="860">
-      <c r="G860" s="16"/>
+      <c r="G860" s="17"/>
     </row>
     <row r="861">
-      <c r="G861" s="16"/>
+      <c r="G861" s="17"/>
     </row>
     <row r="862">
-      <c r="G862" s="16"/>
+      <c r="G862" s="17"/>
     </row>
     <row r="863">
-      <c r="G863" s="16"/>
+      <c r="G863" s="17"/>
     </row>
     <row r="864">
-      <c r="G864" s="16"/>
+      <c r="G864" s="17"/>
     </row>
     <row r="865">
-      <c r="G865" s="16"/>
+      <c r="G865" s="17"/>
     </row>
     <row r="866">
-      <c r="G866" s="16"/>
+      <c r="G866" s="17"/>
     </row>
     <row r="867">
-      <c r="G867" s="16"/>
+      <c r="G867" s="17"/>
     </row>
     <row r="868">
-      <c r="G868" s="16"/>
+      <c r="G868" s="17"/>
     </row>
     <row r="869">
-      <c r="G869" s="16"/>
+      <c r="G869" s="17"/>
     </row>
     <row r="870">
-      <c r="G870" s="16"/>
+      <c r="G870" s="17"/>
     </row>
     <row r="871">
-      <c r="G871" s="16"/>
+      <c r="G871" s="17"/>
     </row>
     <row r="872">
-      <c r="G872" s="16"/>
+      <c r="G872" s="17"/>
     </row>
     <row r="873">
-      <c r="G873" s="16"/>
+      <c r="G873" s="17"/>
     </row>
     <row r="874">
-      <c r="G874" s="16"/>
+      <c r="G874" s="17"/>
     </row>
     <row r="875">
-      <c r="G875" s="16"/>
+      <c r="G875" s="17"/>
     </row>
     <row r="876">
-      <c r="G876" s="16"/>
+      <c r="G876" s="17"/>
     </row>
     <row r="877">
-      <c r="G877" s="16"/>
+      <c r="G877" s="17"/>
     </row>
     <row r="878">
-      <c r="G878" s="16"/>
+      <c r="G878" s="17"/>
     </row>
     <row r="879">
-      <c r="G879" s="16"/>
+      <c r="G879" s="17"/>
     </row>
     <row r="880">
-      <c r="G880" s="16"/>
+      <c r="G880" s="17"/>
     </row>
     <row r="881">
-      <c r="G881" s="16"/>
+      <c r="G881" s="17"/>
     </row>
     <row r="882">
-      <c r="G882" s="16"/>
+      <c r="G882" s="17"/>
     </row>
     <row r="883">
-      <c r="G883" s="16"/>
+      <c r="G883" s="17"/>
     </row>
     <row r="884">
-      <c r="G884" s="16"/>
+      <c r="G884" s="17"/>
     </row>
     <row r="885">
-      <c r="G885" s="16"/>
+      <c r="G885" s="17"/>
     </row>
     <row r="886">
-      <c r="G886" s="16"/>
+      <c r="G886" s="17"/>
     </row>
     <row r="887">
-      <c r="G887" s="16"/>
+      <c r="G887" s="17"/>
     </row>
     <row r="888">
-      <c r="G888" s="16"/>
+      <c r="G888" s="17"/>
     </row>
     <row r="889">
-      <c r="G889" s="16"/>
+      <c r="G889" s="17"/>
     </row>
     <row r="890">
-      <c r="G890" s="16"/>
+      <c r="G890" s="17"/>
     </row>
     <row r="891">
-      <c r="G891" s="16"/>
+      <c r="G891" s="17"/>
     </row>
     <row r="892">
-      <c r="G892" s="16"/>
+      <c r="G892" s="17"/>
     </row>
     <row r="893">
-      <c r="G893" s="16"/>
+      <c r="G893" s="17"/>
     </row>
     <row r="894">
-      <c r="G894" s="16"/>
+      <c r="G894" s="17"/>
     </row>
     <row r="895">
-      <c r="G895" s="16"/>
+      <c r="G895" s="17"/>
     </row>
     <row r="896">
-      <c r="G896" s="16"/>
+      <c r="G896" s="17"/>
     </row>
     <row r="897">
-      <c r="G897" s="16"/>
+      <c r="G897" s="17"/>
     </row>
     <row r="898">
-      <c r="G898" s="16"/>
+      <c r="G898" s="17"/>
     </row>
     <row r="899">
-      <c r="G899" s="16"/>
+      <c r="G899" s="17"/>
     </row>
     <row r="900">
-      <c r="G900" s="16"/>
+      <c r="G900" s="17"/>
     </row>
     <row r="901">
-      <c r="G901" s="16"/>
+      <c r="G901" s="17"/>
     </row>
     <row r="902">
-      <c r="G902" s="16"/>
+      <c r="G902" s="17"/>
     </row>
     <row r="903">
-      <c r="G903" s="16"/>
+      <c r="G903" s="17"/>
     </row>
     <row r="904">
-      <c r="G904" s="16"/>
+      <c r="G904" s="17"/>
     </row>
     <row r="905">
-      <c r="G905" s="16"/>
+      <c r="G905" s="17"/>
     </row>
     <row r="906">
-      <c r="G906" s="16"/>
+      <c r="G906" s="17"/>
     </row>
     <row r="907">
-      <c r="G907" s="16"/>
+      <c r="G907" s="17"/>
     </row>
     <row r="908">
-      <c r="G908" s="16"/>
+      <c r="G908" s="17"/>
     </row>
     <row r="909">
-      <c r="G909" s="16"/>
+      <c r="G909" s="17"/>
     </row>
     <row r="910">
-      <c r="G910" s="16"/>
+      <c r="G910" s="17"/>
     </row>
     <row r="911">
-      <c r="G911" s="16"/>
+      <c r="G911" s="17"/>
     </row>
     <row r="912">
-      <c r="G912" s="16"/>
+      <c r="G912" s="17"/>
     </row>
     <row r="913">
-      <c r="G913" s="16"/>
+      <c r="G913" s="17"/>
     </row>
     <row r="914">
-      <c r="G914" s="16"/>
+      <c r="G914" s="17"/>
     </row>
     <row r="915">
-      <c r="G915" s="16"/>
+      <c r="G915" s="17"/>
     </row>
     <row r="916">
-      <c r="G916" s="16"/>
+      <c r="G916" s="17"/>
     </row>
     <row r="917">
-      <c r="G917" s="16"/>
+      <c r="G917" s="17"/>
     </row>
     <row r="918">
-      <c r="G918" s="16"/>
+      <c r="G918" s="17"/>
     </row>
     <row r="919">
-      <c r="G919" s="16"/>
+      <c r="G919" s="17"/>
     </row>
     <row r="920">
-      <c r="G920" s="16"/>
+      <c r="G920" s="17"/>
     </row>
     <row r="921">
-      <c r="G921" s="16"/>
+      <c r="G921" s="17"/>
     </row>
     <row r="922">
-      <c r="G922" s="16"/>
+      <c r="G922" s="17"/>
     </row>
     <row r="923">
-      <c r="G923" s="16"/>
+      <c r="G923" s="17"/>
     </row>
     <row r="924">
-      <c r="G924" s="16"/>
+      <c r="G924" s="17"/>
     </row>
     <row r="925">
-      <c r="G925" s="16"/>
+      <c r="G925" s="17"/>
     </row>
     <row r="926">
-      <c r="G926" s="16"/>
+      <c r="G926" s="17"/>
     </row>
     <row r="927">
-      <c r="G927" s="16"/>
+      <c r="G927" s="17"/>
     </row>
     <row r="928">
-      <c r="G928" s="16"/>
+      <c r="G928" s="17"/>
     </row>
     <row r="929">
-      <c r="G929" s="16"/>
+      <c r="G929" s="17"/>
     </row>
     <row r="930">
-      <c r="G930" s="16"/>
+      <c r="G930" s="17"/>
     </row>
     <row r="931">
-      <c r="G931" s="16"/>
+      <c r="G931" s="17"/>
     </row>
     <row r="932">
-      <c r="G932" s="16"/>
+      <c r="G932" s="17"/>
     </row>
     <row r="933">
-      <c r="G933" s="16"/>
+      <c r="G933" s="17"/>
     </row>
     <row r="934">
-      <c r="G934" s="16"/>
+      <c r="G934" s="17"/>
     </row>
     <row r="935">
-      <c r="G935" s="16"/>
+      <c r="G935" s="17"/>
     </row>
     <row r="936">
-      <c r="G936" s="16"/>
+      <c r="G936" s="17"/>
     </row>
     <row r="937">
-      <c r="G937" s="16"/>
+      <c r="G937" s="17"/>
     </row>
     <row r="938">
-      <c r="G938" s="16"/>
+      <c r="G938" s="17"/>
     </row>
     <row r="939">
-      <c r="G939" s="16"/>
+      <c r="G939" s="17"/>
     </row>
     <row r="940">
-      <c r="G940" s="16"/>
+      <c r="G940" s="17"/>
     </row>
     <row r="941">
-      <c r="G941" s="16"/>
+      <c r="G941" s="17"/>
     </row>
     <row r="942">
-      <c r="G942" s="16"/>
+      <c r="G942" s="17"/>
     </row>
     <row r="943">
-      <c r="G943" s="16"/>
+      <c r="G943" s="17"/>
     </row>
     <row r="944">
-      <c r="G944" s="16"/>
+      <c r="G944" s="17"/>
     </row>
     <row r="945">
-      <c r="G945" s="16"/>
+      <c r="G945" s="17"/>
     </row>
     <row r="946">
-      <c r="G946" s="16"/>
+      <c r="G946" s="17"/>
     </row>
     <row r="947">
-      <c r="G947" s="16"/>
+      <c r="G947" s="17"/>
     </row>
     <row r="948">
-      <c r="G948" s="16"/>
+      <c r="G948" s="17"/>
     </row>
     <row r="949">
-      <c r="G949" s="16"/>
+      <c r="G949" s="17"/>
     </row>
     <row r="950">
-      <c r="G950" s="16"/>
+      <c r="G950" s="17"/>
     </row>
     <row r="951">
-      <c r="G951" s="16"/>
+      <c r="G951" s="17"/>
     </row>
     <row r="952">
-      <c r="G952" s="16"/>
+      <c r="G952" s="17"/>
     </row>
     <row r="953">
-      <c r="G953" s="16"/>
+      <c r="G953" s="17"/>
     </row>
     <row r="954">
-      <c r="G954" s="16"/>
+      <c r="G954" s="17"/>
     </row>
     <row r="955">
-      <c r="G955" s="16"/>
+      <c r="G955" s="17"/>
     </row>
     <row r="956">
-      <c r="G956" s="16"/>
+      <c r="G956" s="17"/>
     </row>
     <row r="957">
-      <c r="G957" s="16"/>
+      <c r="G957" s="17"/>
     </row>
     <row r="958">
-      <c r="G958" s="16"/>
+      <c r="G958" s="17"/>
     </row>
     <row r="959">
-      <c r="G959" s="16"/>
+      <c r="G959" s="17"/>
     </row>
     <row r="960">
-      <c r="G960" s="16"/>
+      <c r="G960" s="17"/>
     </row>
     <row r="961">
-      <c r="G961" s="16"/>
+      <c r="G961" s="17"/>
     </row>
     <row r="962">
-      <c r="G962" s="16"/>
+      <c r="G962" s="17"/>
     </row>
     <row r="963">
-      <c r="G963" s="16"/>
+      <c r="G963" s="17"/>
     </row>
     <row r="964">
-      <c r="G964" s="16"/>
+      <c r="G964" s="17"/>
     </row>
     <row r="965">
-      <c r="G965" s="16"/>
+      <c r="G965" s="17"/>
     </row>
     <row r="966">
-      <c r="G966" s="16"/>
+      <c r="G966" s="17"/>
     </row>
     <row r="967">
-      <c r="G967" s="16"/>
+      <c r="G967" s="17"/>
     </row>
     <row r="968">
-      <c r="G968" s="16"/>
+      <c r="G968" s="17"/>
     </row>
     <row r="969">
-      <c r="G969" s="16"/>
+      <c r="G969" s="17"/>
     </row>
     <row r="970">
-      <c r="G970" s="16"/>
+      <c r="G970" s="17"/>
     </row>
     <row r="971">
-      <c r="G971" s="16"/>
+      <c r="G971" s="17"/>
     </row>
     <row r="972">
-      <c r="G972" s="16"/>
+      <c r="G972" s="17"/>
     </row>
   </sheetData>
   <autoFilter ref="$A$1:$I$74"/>
   <hyperlinks>
-    <hyperlink r:id="rId1" ref="F2"/>
-    <hyperlink r:id="rId2" ref="F4"/>
+    <hyperlink r:id="rId1" ref="F20"/>
+    <hyperlink r:id="rId2" ref="F65"/>
   </hyperlinks>
   <drawing r:id="rId3"/>
 </worksheet>

--- a/article list.xlsx
+++ b/article list.xlsx
@@ -6,14 +6,14 @@
     <sheet state="visible" name="Sheet1" sheetId="1" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">Sheet1!$A$1:$I$74</definedName>
+    <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">Sheet1!$A$1:$I$73</definedName>
   </definedNames>
   <calcPr/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="464" uniqueCount="238">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="457" uniqueCount="235">
   <si>
     <t>Article Title</t>
   </si>
@@ -174,70 +174,61 @@
     <t>https://aapt.scitation.org/doi/pdf/10.1119/1.1503377</t>
   </si>
   <si>
-    <t>The effects of a concept-construction lab course on FCI performance</t>
-  </si>
-  <si>
-    <t>David J. Van Domelen, and Alan Van Heuvelen</t>
-  </si>
-  <si>
-    <t>https://aapt.scitation.org/doi/pdf/10.1119/1.1377284</t>
+    <t>Surveying students’ conceptual knowledge of electricity and magnetism</t>
+  </si>
+  <si>
+    <t>David P. Maloney, Thomas L. O’Kuma, Curtis J. Hieggelke, and Alan Van Heuvelen</t>
+  </si>
+  <si>
+    <t>https://aapt.scitation.org/doi/pdf/10.1119/1.1371296</t>
+  </si>
+  <si>
+    <t>Characterizing the epistemological development of physics majors</t>
+  </si>
+  <si>
+    <t>Elizabeth Gire, Barbara Jones, and Edward Price</t>
+  </si>
+  <si>
+    <t>https://journals.aps.org/prper/abstract/10.1103/PhysRevSTPER.5.010103</t>
+  </si>
+  <si>
+    <t>Extending positive CLASS results across multiple instructors and multiple classes of Modeling Instruction</t>
+  </si>
+  <si>
+    <t>Eric Brewe, Adrienne Traxler, Jorge de la Garza, and Laird H. Kramer</t>
+  </si>
+  <si>
+    <t>https://journals.aps.org/prper/abstract/10.1103/PhysRevSTPER.9.020116</t>
+  </si>
+  <si>
+    <t>Using module analysis for multiple choice responses: A new method applied to Force Concept Inventory data</t>
+  </si>
+  <si>
+    <t>Eric Brewe, Jesper Bruun, and Ian G. Bearden</t>
+  </si>
+  <si>
+    <t>https://journals.aps.org/prper/abstract/10.1103/PhysRevPhysEducRes.12.020131</t>
+  </si>
+  <si>
+    <t>Secondary implementation of interactive engagement teaching techniques: Choices and challenges in a Gulf Arab context</t>
+  </si>
+  <si>
+    <t>George Hitt and Abdel Isakovic and O. Fawwaz and MS Bawa'aneh and Nayla el kork and S. Makkiyil and I. A. Qattan</t>
+  </si>
+  <si>
+    <t>https://journals.aps.org/prper/abstract/10.1103/PhysRevSTPER.10.020123</t>
   </si>
   <si>
     <t>MPEX</t>
   </si>
   <si>
-    <t>Surveying students’ conceptual knowledge of electricity and magnetism</t>
-  </si>
-  <si>
-    <t>David P. Maloney, Thomas L. O’Kuma, Curtis J. Hieggelke, and Alan Van Heuvelen</t>
-  </si>
-  <si>
-    <t>https://aapt.scitation.org/doi/pdf/10.1119/1.1371296</t>
-  </si>
-  <si>
-    <t>Characterizing the epistemological development of physics majors</t>
-  </si>
-  <si>
-    <t>Elizabeth Gire, Barbara Jones, and Edward Price</t>
-  </si>
-  <si>
-    <t>https://journals.aps.org/prper/abstract/10.1103/PhysRevSTPER.5.010103</t>
-  </si>
-  <si>
-    <t>Extending positive CLASS results across multiple instructors and multiple classes of Modeling Instruction</t>
-  </si>
-  <si>
-    <t>Eric Brewe, Adrienne Traxler, Jorge de la Garza, and Laird H. Kramer</t>
-  </si>
-  <si>
-    <t>https://journals.aps.org/prper/abstract/10.1103/PhysRevSTPER.9.020116</t>
-  </si>
-  <si>
-    <t>Using module analysis for multiple choice responses: A new method applied to Force Concept Inventory data</t>
-  </si>
-  <si>
-    <t>Eric Brewe, Jesper Bruun, and Ian G. Bearden</t>
-  </si>
-  <si>
-    <t>https://journals.aps.org/prper/abstract/10.1103/PhysRevPhysEducRes.12.020131</t>
-  </si>
-  <si>
-    <t>Secondary implementation of interactive engagement teaching techniques: Choices and challenges in a Gulf Arab context</t>
-  </si>
-  <si>
-    <t>George Hitt and Abdel Isakovic and O. Fawwaz and MS Bawa'aneh and Nayla el kork and S. Makkiyil and I. A. Qattan</t>
-  </si>
-  <si>
-    <t>https://journals.aps.org/prper/abstract/10.1103/PhysRevSTPER.10.020123</t>
-  </si>
-  <si>
     <t>Force concept inventory</t>
   </si>
   <si>
     <t>David Hestenes and Malcolm Wells and Gregg Swackhamer</t>
   </si>
   <si>
-    <t>the physics teacher</t>
+    <t>The Physics Teacher</t>
   </si>
   <si>
     <t>https://aapt.scitation.org/doi/abs/10.1119/1.2343497?journalCode=pte</t>
@@ -1211,7 +1202,7 @@
         <v>54</v>
       </c>
       <c r="C14" s="3">
-        <v>2002.0</v>
+        <v>2001.0</v>
       </c>
       <c r="D14" s="3" t="s">
         <v>41</v>
@@ -1223,56 +1214,54 @@
         <v>55</v>
       </c>
       <c r="G14" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="H14" s="3" t="s">
-        <v>14</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="H14" s="3"/>
       <c r="I14" s="3"/>
     </row>
     <row r="15">
       <c r="A15" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="B15" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="B15" s="3" t="s">
-        <v>58</v>
-      </c>
       <c r="C15" s="3">
-        <v>2001.0</v>
+        <v>2009.0</v>
       </c>
       <c r="D15" s="3" t="s">
         <v>41</v>
       </c>
       <c r="E15" s="3" t="s">
-        <v>42</v>
+        <v>12</v>
       </c>
       <c r="F15" s="3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="G15" s="6" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="H15" s="3"/>
       <c r="I15" s="3"/>
     </row>
     <row r="16">
       <c r="A16" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="B16" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="B16" s="3" t="s">
+      <c r="C16" s="3">
+        <v>2013.0</v>
+      </c>
+      <c r="D16" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E16" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="F16" s="3" t="s">
         <v>61</v>
-      </c>
-      <c r="C16" s="3">
-        <v>2009.0</v>
-      </c>
-      <c r="D16" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="E16" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="F16" s="3" t="s">
-        <v>62</v>
       </c>
       <c r="G16" s="6" t="s">
         <v>25</v>
@@ -1282,13 +1271,13 @@
     </row>
     <row r="17">
       <c r="A17" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="B17" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="B17" s="3" t="s">
-        <v>64</v>
-      </c>
       <c r="C17" s="3">
-        <v>2013.0</v>
+        <v>2016.0</v>
       </c>
       <c r="D17" s="3" t="s">
         <v>11</v>
@@ -1297,23 +1286,23 @@
         <v>12</v>
       </c>
       <c r="F17" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="G17" s="6" t="s">
-        <v>25</v>
+        <v>64</v>
+      </c>
+      <c r="G17" s="4" t="s">
+        <v>14</v>
       </c>
       <c r="H17" s="3"/>
       <c r="I17" s="3"/>
     </row>
     <row r="18">
       <c r="A18" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="B18" s="5" t="s">
         <v>66</v>
       </c>
-      <c r="B18" s="3" t="s">
-        <v>67</v>
-      </c>
       <c r="C18" s="3">
-        <v>2016.0</v>
+        <v>2014.0</v>
       </c>
       <c r="D18" s="3" t="s">
         <v>11</v>
@@ -1322,58 +1311,58 @@
         <v>12</v>
       </c>
       <c r="F18" s="3" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="G18" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="H18" s="3"/>
+      <c r="H18" s="3" t="s">
+        <v>68</v>
+      </c>
       <c r="I18" s="3"/>
     </row>
     <row r="19">
       <c r="A19" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="B19" s="5" t="s">
+      <c r="B19" s="7" t="s">
         <v>70</v>
       </c>
       <c r="C19" s="3">
-        <v>2014.0</v>
+        <v>1992.0</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="E19" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="F19" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="E19" s="5" t="s">
         <v>71</v>
+      </c>
+      <c r="F19" s="8" t="s">
+        <v>72</v>
       </c>
       <c r="G19" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="H19" s="3" t="s">
-        <v>56</v>
-      </c>
+      <c r="H19" s="3"/>
       <c r="I19" s="3"/>
     </row>
     <row r="20">
       <c r="A20" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="B20" s="7" t="s">
         <v>73</v>
       </c>
+      <c r="B20" s="5" t="s">
+        <v>74</v>
+      </c>
       <c r="C20" s="3">
-        <v>1992.0</v>
+        <v>1995.0</v>
       </c>
       <c r="D20" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="E20" s="3" t="s">
-        <v>74</v>
-      </c>
-      <c r="F20" s="8" t="s">
+      <c r="E20" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="F20" s="3" t="s">
         <v>75</v>
       </c>
       <c r="G20" s="4" t="s">
@@ -1386,17 +1375,17 @@
       <c r="A21" s="3" t="s">
         <v>76</v>
       </c>
-      <c r="B21" s="5" t="s">
+      <c r="B21" s="3" t="s">
         <v>77</v>
       </c>
       <c r="C21" s="3">
-        <v>1995.0</v>
+        <v>2014.0</v>
       </c>
       <c r="D21" s="3" t="s">
-        <v>41</v>
+        <v>11</v>
       </c>
       <c r="E21" s="3" t="s">
-        <v>74</v>
+        <v>12</v>
       </c>
       <c r="F21" s="3" t="s">
         <v>78</v>
@@ -1412,10 +1401,10 @@
         <v>79</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="C22" s="3">
-        <v>2014.0</v>
+        <v>2016.0</v>
       </c>
       <c r="D22" s="3" t="s">
         <v>11</v>
@@ -1424,7 +1413,7 @@
         <v>12</v>
       </c>
       <c r="F22" s="3" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G22" s="4" t="s">
         <v>14</v>
@@ -1434,13 +1423,13 @@
     </row>
     <row r="23">
       <c r="A23" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="B23" s="3" t="s">
         <v>82</v>
       </c>
-      <c r="B23" s="3" t="s">
-        <v>80</v>
-      </c>
       <c r="C23" s="3">
-        <v>2016.0</v>
+        <v>2017.0</v>
       </c>
       <c r="D23" s="3" t="s">
         <v>11</v>
@@ -1465,7 +1454,7 @@
         <v>85</v>
       </c>
       <c r="C24" s="3">
-        <v>2017.0</v>
+        <v>2016.0</v>
       </c>
       <c r="D24" s="3" t="s">
         <v>11</v>
@@ -1476,21 +1465,23 @@
       <c r="F24" s="3" t="s">
         <v>86</v>
       </c>
-      <c r="G24" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="H24" s="3"/>
+      <c r="G24" s="6" t="s">
+        <v>87</v>
+      </c>
+      <c r="H24" s="3" t="s">
+        <v>25</v>
+      </c>
       <c r="I24" s="3"/>
     </row>
     <row r="25">
       <c r="A25" s="3" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="C25" s="3">
-        <v>2016.0</v>
+        <v>2013.0</v>
       </c>
       <c r="D25" s="3" t="s">
         <v>11</v>
@@ -1499,14 +1490,12 @@
         <v>12</v>
       </c>
       <c r="F25" s="3" t="s">
-        <v>89</v>
-      </c>
-      <c r="G25" s="6" t="s">
         <v>90</v>
       </c>
-      <c r="H25" s="3" t="s">
-        <v>25</v>
-      </c>
+      <c r="G25" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="H25" s="3"/>
       <c r="I25" s="3"/>
     </row>
     <row r="26">
@@ -1517,7 +1506,7 @@
         <v>92</v>
       </c>
       <c r="C26" s="3">
-        <v>2013.0</v>
+        <v>2016.0</v>
       </c>
       <c r="D26" s="3" t="s">
         <v>11</v>
@@ -1542,7 +1531,7 @@
         <v>95</v>
       </c>
       <c r="C27" s="3">
-        <v>2016.0</v>
+        <v>2015.0</v>
       </c>
       <c r="D27" s="3" t="s">
         <v>11</v>
@@ -1567,7 +1556,7 @@
         <v>98</v>
       </c>
       <c r="C28" s="3">
-        <v>2015.0</v>
+        <v>2012.0</v>
       </c>
       <c r="D28" s="3" t="s">
         <v>11</v>
@@ -1578,8 +1567,8 @@
       <c r="F28" s="3" t="s">
         <v>99</v>
       </c>
-      <c r="G28" s="4" t="s">
-        <v>14</v>
+      <c r="G28" s="6" t="s">
+        <v>18</v>
       </c>
       <c r="H28" s="3"/>
       <c r="I28" s="3"/>
@@ -1603,8 +1592,8 @@
       <c r="F29" s="3" t="s">
         <v>102</v>
       </c>
-      <c r="G29" s="6" t="s">
-        <v>18</v>
+      <c r="G29" s="4" t="s">
+        <v>14</v>
       </c>
       <c r="H29" s="3"/>
       <c r="I29" s="3"/>
@@ -1617,7 +1606,7 @@
         <v>104</v>
       </c>
       <c r="C30" s="3">
-        <v>2012.0</v>
+        <v>2016.0</v>
       </c>
       <c r="D30" s="3" t="s">
         <v>11</v>
@@ -1628,8 +1617,8 @@
       <c r="F30" s="3" t="s">
         <v>105</v>
       </c>
-      <c r="G30" s="4" t="s">
-        <v>14</v>
+      <c r="G30" s="6" t="s">
+        <v>18</v>
       </c>
       <c r="H30" s="3"/>
       <c r="I30" s="3"/>
@@ -1642,7 +1631,7 @@
         <v>107</v>
       </c>
       <c r="C31" s="3">
-        <v>2016.0</v>
+        <v>2013.0</v>
       </c>
       <c r="D31" s="3" t="s">
         <v>11</v>
@@ -1653,8 +1642,8 @@
       <c r="F31" s="3" t="s">
         <v>108</v>
       </c>
-      <c r="G31" s="6" t="s">
-        <v>18</v>
+      <c r="G31" s="4" t="s">
+        <v>14</v>
       </c>
       <c r="H31" s="3"/>
       <c r="I31" s="3"/>
@@ -1663,11 +1652,11 @@
       <c r="A32" s="3" t="s">
         <v>109</v>
       </c>
-      <c r="B32" s="3" t="s">
+      <c r="B32" s="5" t="s">
         <v>110</v>
       </c>
       <c r="C32" s="3">
-        <v>2013.0</v>
+        <v>2014.0</v>
       </c>
       <c r="D32" s="3" t="s">
         <v>11</v>
@@ -1678,8 +1667,8 @@
       <c r="F32" s="3" t="s">
         <v>111</v>
       </c>
-      <c r="G32" s="4" t="s">
-        <v>14</v>
+      <c r="G32" s="6" t="s">
+        <v>25</v>
       </c>
       <c r="H32" s="3"/>
       <c r="I32" s="3"/>
@@ -1688,14 +1677,14 @@
       <c r="A33" s="3" t="s">
         <v>112</v>
       </c>
-      <c r="B33" s="5" t="s">
+      <c r="B33" s="3" t="s">
         <v>113</v>
       </c>
       <c r="C33" s="3">
-        <v>2014.0</v>
+        <v>2008.0</v>
       </c>
       <c r="D33" s="3" t="s">
-        <v>11</v>
+        <v>41</v>
       </c>
       <c r="E33" s="3" t="s">
         <v>12</v>
@@ -1717,10 +1706,10 @@
         <v>116</v>
       </c>
       <c r="C34" s="3">
-        <v>2008.0</v>
+        <v>2015.0</v>
       </c>
       <c r="D34" s="3" t="s">
-        <v>41</v>
+        <v>11</v>
       </c>
       <c r="E34" s="3" t="s">
         <v>12</v>
@@ -1729,7 +1718,7 @@
         <v>117</v>
       </c>
       <c r="G34" s="6" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="H34" s="3"/>
       <c r="I34" s="3"/>
@@ -1742,7 +1731,7 @@
         <v>119</v>
       </c>
       <c r="C35" s="3">
-        <v>2015.0</v>
+        <v>2014.0</v>
       </c>
       <c r="D35" s="3" t="s">
         <v>11</v>
@@ -1760,106 +1749,110 @@
       <c r="I35" s="3"/>
     </row>
     <row r="36">
-      <c r="A36" s="3" t="s">
+      <c r="A36" s="9" t="s">
         <v>121</v>
       </c>
-      <c r="B36" s="3" t="s">
+      <c r="B36" s="9" t="s">
         <v>122</v>
       </c>
-      <c r="C36" s="3">
+      <c r="C36" s="9">
+        <v>2016.0</v>
+      </c>
+      <c r="D36" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="E36" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="F36" s="9" t="s">
+        <v>123</v>
+      </c>
+      <c r="G36" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="H36" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="I36" s="9"/>
+    </row>
+    <row r="37">
+      <c r="A37" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="B37" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="C37" s="3">
+        <v>2012.0</v>
+      </c>
+      <c r="D37" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E37" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="F37" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="G37" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="H37" s="3"/>
+      <c r="I37" s="3"/>
+    </row>
+    <row r="38">
+      <c r="A38" s="9" t="s">
+        <v>127</v>
+      </c>
+      <c r="B38" s="9" t="s">
+        <v>128</v>
+      </c>
+      <c r="C38" s="9">
         <v>2014.0</v>
       </c>
-      <c r="D36" s="3" t="s">
+      <c r="D38" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="E36" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="F36" s="3" t="s">
-        <v>123</v>
-      </c>
-      <c r="G36" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="H36" s="3"/>
-      <c r="I36" s="3"/>
-    </row>
-    <row r="37">
-      <c r="A37" s="9" t="s">
-        <v>124</v>
-      </c>
-      <c r="B37" s="9" t="s">
-        <v>125</v>
-      </c>
-      <c r="C37" s="9">
-        <v>2016.0</v>
-      </c>
-      <c r="D37" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="E37" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="F37" s="9" t="s">
-        <v>126</v>
-      </c>
-      <c r="G37" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="H37" s="11" t="s">
-        <v>14</v>
-      </c>
-      <c r="I37" s="9"/>
-    </row>
-    <row r="38">
-      <c r="A38" s="3" t="s">
-        <v>127</v>
-      </c>
-      <c r="B38" s="3" t="s">
-        <v>128</v>
-      </c>
-      <c r="C38" s="3">
-        <v>2012.0</v>
-      </c>
-      <c r="D38" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="E38" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="F38" s="3" t="s">
+      <c r="E38" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="F38" s="9" t="s">
         <v>129</v>
       </c>
-      <c r="G38" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="H38" s="3"/>
-      <c r="I38" s="3"/>
+      <c r="G38" s="13" t="s">
+        <v>38</v>
+      </c>
+      <c r="H38" s="9"/>
+      <c r="I38" s="9"/>
     </row>
     <row r="39">
-      <c r="A39" s="9" t="s">
+      <c r="A39" s="3" t="s">
         <v>130</v>
       </c>
-      <c r="B39" s="9" t="s">
+      <c r="B39" s="3" t="s">
         <v>131</v>
       </c>
-      <c r="C39" s="9">
-        <v>2014.0</v>
-      </c>
-      <c r="D39" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="E39" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="F39" s="9" t="s">
+      <c r="C39" s="3">
+        <v>2010.0</v>
+      </c>
+      <c r="D39" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="E39" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="F39" s="3" t="s">
         <v>132</v>
       </c>
-      <c r="G39" s="13" t="s">
+      <c r="G39" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="H39" s="9"/>
-      <c r="I39" s="9"/>
+      <c r="H39" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="I39" s="3" t="s">
+        <v>25</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" s="3" t="s">
@@ -1869,7 +1862,7 @@
         <v>134</v>
       </c>
       <c r="C40" s="3">
-        <v>2010.0</v>
+        <v>2009.0</v>
       </c>
       <c r="D40" s="3" t="s">
         <v>41</v>
@@ -1881,14 +1874,10 @@
         <v>135</v>
       </c>
       <c r="G40" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="H40" s="3" t="s">
-        <v>90</v>
-      </c>
-      <c r="I40" s="3" t="s">
         <v>25</v>
       </c>
+      <c r="H40" s="3"/>
+      <c r="I40" s="3"/>
     </row>
     <row r="41">
       <c r="A41" s="3" t="s">
@@ -1904,15 +1893,17 @@
         <v>41</v>
       </c>
       <c r="E41" s="3" t="s">
-        <v>12</v>
+        <v>42</v>
       </c>
       <c r="F41" s="3" t="s">
         <v>138</v>
       </c>
       <c r="G41" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="H41" s="3"/>
+        <v>38</v>
+      </c>
+      <c r="H41" s="3" t="s">
+        <v>14</v>
+      </c>
       <c r="I41" s="3"/>
     </row>
     <row r="42">
@@ -1923,13 +1914,13 @@
         <v>140</v>
       </c>
       <c r="C42" s="3">
-        <v>2009.0</v>
+        <v>2014.0</v>
       </c>
       <c r="D42" s="3" t="s">
-        <v>41</v>
+        <v>11</v>
       </c>
       <c r="E42" s="3" t="s">
-        <v>42</v>
+        <v>12</v>
       </c>
       <c r="F42" s="3" t="s">
         <v>141</v>
@@ -1937,9 +1928,7 @@
       <c r="G42" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="H42" s="3" t="s">
-        <v>14</v>
-      </c>
+      <c r="H42" s="3"/>
       <c r="I42" s="3"/>
     </row>
     <row r="43">
@@ -1947,7 +1936,7 @@
         <v>142</v>
       </c>
       <c r="B43" s="3" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="C43" s="3">
         <v>2014.0</v>
@@ -1959,20 +1948,22 @@
         <v>12</v>
       </c>
       <c r="F43" s="3" t="s">
-        <v>144</v>
-      </c>
-      <c r="G43" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="H43" s="3"/>
+        <v>143</v>
+      </c>
+      <c r="G43" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="H43" s="3" t="s">
+        <v>25</v>
+      </c>
       <c r="I43" s="3"/>
     </row>
     <row r="44">
       <c r="A44" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="B44" s="3" t="s">
         <v>145</v>
-      </c>
-      <c r="B44" s="3" t="s">
-        <v>143</v>
       </c>
       <c r="C44" s="3">
         <v>2014.0</v>
@@ -1989,9 +1980,7 @@
       <c r="G44" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="H44" s="3" t="s">
-        <v>25</v>
-      </c>
+      <c r="H44" s="3"/>
       <c r="I44" s="3"/>
     </row>
     <row r="45">
@@ -2002,7 +1991,7 @@
         <v>148</v>
       </c>
       <c r="C45" s="3">
-        <v>2014.0</v>
+        <v>2016.0</v>
       </c>
       <c r="D45" s="3" t="s">
         <v>11</v>
@@ -2013,8 +2002,8 @@
       <c r="F45" s="3" t="s">
         <v>149</v>
       </c>
-      <c r="G45" s="4" t="s">
-        <v>14</v>
+      <c r="G45" s="6" t="s">
+        <v>25</v>
       </c>
       <c r="H45" s="3"/>
       <c r="I45" s="3"/>
@@ -2027,10 +2016,10 @@
         <v>151</v>
       </c>
       <c r="C46" s="3">
-        <v>2016.0</v>
+        <v>2006.0</v>
       </c>
       <c r="D46" s="3" t="s">
-        <v>11</v>
+        <v>41</v>
       </c>
       <c r="E46" s="3" t="s">
         <v>12</v>
@@ -2039,7 +2028,7 @@
         <v>152</v>
       </c>
       <c r="G46" s="6" t="s">
-        <v>25</v>
+        <v>38</v>
       </c>
       <c r="H46" s="3"/>
       <c r="I46" s="3"/>
@@ -2048,14 +2037,14 @@
       <c r="A47" s="3" t="s">
         <v>153</v>
       </c>
-      <c r="B47" s="3" t="s">
+      <c r="B47" s="5" t="s">
         <v>154</v>
       </c>
       <c r="C47" s="3">
-        <v>2006.0</v>
+        <v>2017.0</v>
       </c>
       <c r="D47" s="3" t="s">
-        <v>41</v>
+        <v>11</v>
       </c>
       <c r="E47" s="3" t="s">
         <v>12</v>
@@ -2063,8 +2052,8 @@
       <c r="F47" s="3" t="s">
         <v>155</v>
       </c>
-      <c r="G47" s="6" t="s">
-        <v>38</v>
+      <c r="G47" s="4" t="s">
+        <v>14</v>
       </c>
       <c r="H47" s="3"/>
       <c r="I47" s="3"/>
@@ -2073,11 +2062,11 @@
       <c r="A48" s="3" t="s">
         <v>156</v>
       </c>
-      <c r="B48" s="5" t="s">
+      <c r="B48" s="3" t="s">
         <v>157</v>
       </c>
       <c r="C48" s="3">
-        <v>2017.0</v>
+        <v>2012.0</v>
       </c>
       <c r="D48" s="3" t="s">
         <v>11</v>
@@ -2088,8 +2077,8 @@
       <c r="F48" s="3" t="s">
         <v>158</v>
       </c>
-      <c r="G48" s="4" t="s">
-        <v>14</v>
+      <c r="G48" s="6" t="s">
+        <v>25</v>
       </c>
       <c r="H48" s="3"/>
       <c r="I48" s="3"/>
@@ -2102,19 +2091,19 @@
         <v>160</v>
       </c>
       <c r="C49" s="3">
-        <v>2012.0</v>
+        <v>2006.0</v>
       </c>
       <c r="D49" s="3" t="s">
-        <v>11</v>
+        <v>41</v>
       </c>
       <c r="E49" s="3" t="s">
-        <v>12</v>
+        <v>42</v>
       </c>
       <c r="F49" s="3" t="s">
         <v>161</v>
       </c>
       <c r="G49" s="6" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="H49" s="3"/>
       <c r="I49" s="3"/>
@@ -2127,21 +2116,23 @@
         <v>163</v>
       </c>
       <c r="C50" s="3">
-        <v>2006.0</v>
+        <v>2011.0</v>
       </c>
       <c r="D50" s="3" t="s">
         <v>41</v>
       </c>
       <c r="E50" s="3" t="s">
-        <v>42</v>
+        <v>12</v>
       </c>
       <c r="F50" s="3" t="s">
         <v>164</v>
       </c>
       <c r="G50" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="H50" s="3"/>
+        <v>25</v>
+      </c>
+      <c r="H50" s="3" t="s">
+        <v>14</v>
+      </c>
       <c r="I50" s="3"/>
     </row>
     <row r="51">
@@ -2152,10 +2143,10 @@
         <v>166</v>
       </c>
       <c r="C51" s="3">
-        <v>2011.0</v>
+        <v>2016.0</v>
       </c>
       <c r="D51" s="3" t="s">
-        <v>41</v>
+        <v>11</v>
       </c>
       <c r="E51" s="3" t="s">
         <v>12</v>
@@ -2163,12 +2154,10 @@
       <c r="F51" s="3" t="s">
         <v>167</v>
       </c>
-      <c r="G51" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="H51" s="3" t="s">
+      <c r="G51" s="4" t="s">
         <v>14</v>
       </c>
+      <c r="H51" s="3"/>
       <c r="I51" s="3"/>
     </row>
     <row r="52">
@@ -2179,10 +2168,10 @@
         <v>169</v>
       </c>
       <c r="C52" s="3">
-        <v>2016.0</v>
+        <v>2009.0</v>
       </c>
       <c r="D52" s="3" t="s">
-        <v>11</v>
+        <v>41</v>
       </c>
       <c r="E52" s="3" t="s">
         <v>12</v>
@@ -2190,8 +2179,8 @@
       <c r="F52" s="3" t="s">
         <v>170</v>
       </c>
-      <c r="G52" s="4" t="s">
-        <v>14</v>
+      <c r="G52" s="6" t="s">
+        <v>38</v>
       </c>
       <c r="H52" s="3"/>
       <c r="I52" s="3"/>
@@ -2204,10 +2193,10 @@
         <v>172</v>
       </c>
       <c r="C53" s="3">
-        <v>2009.0</v>
+        <v>2014.0</v>
       </c>
       <c r="D53" s="3" t="s">
-        <v>41</v>
+        <v>11</v>
       </c>
       <c r="E53" s="3" t="s">
         <v>12</v>
@@ -2215,11 +2204,15 @@
       <c r="F53" s="3" t="s">
         <v>173</v>
       </c>
-      <c r="G53" s="6" t="s">
+      <c r="G53" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="H53" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="H53" s="3"/>
-      <c r="I53" s="3"/>
+      <c r="I53" s="3" t="s">
+        <v>25</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54" s="3" t="s">
@@ -2229,7 +2222,7 @@
         <v>175</v>
       </c>
       <c r="C54" s="3">
-        <v>2014.0</v>
+        <v>2016.0</v>
       </c>
       <c r="D54" s="3" t="s">
         <v>11</v>
@@ -2240,15 +2233,11 @@
       <c r="F54" s="3" t="s">
         <v>176</v>
       </c>
-      <c r="G54" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="H54" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="I54" s="3" t="s">
+      <c r="G54" s="6" t="s">
         <v>25</v>
       </c>
+      <c r="H54" s="3"/>
+      <c r="I54" s="3"/>
     </row>
     <row r="55">
       <c r="A55" s="3" t="s">
@@ -2258,7 +2247,7 @@
         <v>178</v>
       </c>
       <c r="C55" s="3">
-        <v>2016.0</v>
+        <v>2017.0</v>
       </c>
       <c r="D55" s="3" t="s">
         <v>11</v>
@@ -2270,20 +2259,22 @@
         <v>179</v>
       </c>
       <c r="G55" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="H55" s="3"/>
+        <v>180</v>
+      </c>
+      <c r="H55" s="3" t="s">
+        <v>14</v>
+      </c>
       <c r="I55" s="3"/>
     </row>
     <row r="56">
       <c r="A56" s="3" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="B56" s="3" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="C56" s="3">
-        <v>2017.0</v>
+        <v>2012.0</v>
       </c>
       <c r="D56" s="3" t="s">
         <v>11</v>
@@ -2292,14 +2283,12 @@
         <v>12</v>
       </c>
       <c r="F56" s="3" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="G56" s="6" t="s">
-        <v>183</v>
-      </c>
-      <c r="H56" s="3" t="s">
-        <v>14</v>
-      </c>
+        <v>25</v>
+      </c>
+      <c r="H56" s="3"/>
       <c r="I56" s="3"/>
     </row>
     <row r="57">
@@ -2310,7 +2299,7 @@
         <v>185</v>
       </c>
       <c r="C57" s="3">
-        <v>2012.0</v>
+        <v>2013.0</v>
       </c>
       <c r="D57" s="3" t="s">
         <v>11</v>
@@ -2335,7 +2324,7 @@
         <v>188</v>
       </c>
       <c r="C58" s="3">
-        <v>2013.0</v>
+        <v>2017.0</v>
       </c>
       <c r="D58" s="3" t="s">
         <v>11</v>
@@ -2372,7 +2361,7 @@
         <v>192</v>
       </c>
       <c r="G59" s="6" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="H59" s="3"/>
       <c r="I59" s="3"/>
@@ -2381,14 +2370,14 @@
       <c r="A60" s="3" t="s">
         <v>193</v>
       </c>
-      <c r="B60" s="3" t="s">
+      <c r="B60" s="5" t="s">
         <v>194</v>
       </c>
       <c r="C60" s="3">
-        <v>2017.0</v>
+        <v>2009.0</v>
       </c>
       <c r="D60" s="3" t="s">
-        <v>11</v>
+        <v>41</v>
       </c>
       <c r="E60" s="3" t="s">
         <v>12</v>
@@ -2397,7 +2386,7 @@
         <v>195</v>
       </c>
       <c r="G60" s="6" t="s">
-        <v>18</v>
+        <v>38</v>
       </c>
       <c r="H60" s="3"/>
       <c r="I60" s="3"/>
@@ -2406,14 +2395,14 @@
       <c r="A61" s="3" t="s">
         <v>196</v>
       </c>
-      <c r="B61" s="5" t="s">
+      <c r="B61" s="3" t="s">
         <v>197</v>
       </c>
       <c r="C61" s="3">
-        <v>2009.0</v>
+        <v>2016.0</v>
       </c>
       <c r="D61" s="3" t="s">
-        <v>41</v>
+        <v>11</v>
       </c>
       <c r="E61" s="3" t="s">
         <v>12</v>
@@ -2421,8 +2410,8 @@
       <c r="F61" s="3" t="s">
         <v>198</v>
       </c>
-      <c r="G61" s="6" t="s">
-        <v>38</v>
+      <c r="G61" s="4" t="s">
+        <v>14</v>
       </c>
       <c r="H61" s="3"/>
       <c r="I61" s="3"/>
@@ -2435,7 +2424,7 @@
         <v>200</v>
       </c>
       <c r="C62" s="3">
-        <v>2016.0</v>
+        <v>2015.0</v>
       </c>
       <c r="D62" s="3" t="s">
         <v>11</v>
@@ -2460,10 +2449,10 @@
         <v>203</v>
       </c>
       <c r="C63" s="3">
-        <v>2015.0</v>
+        <v>2011.0</v>
       </c>
       <c r="D63" s="3" t="s">
-        <v>11</v>
+        <v>41</v>
       </c>
       <c r="E63" s="3" t="s">
         <v>12</v>
@@ -2471,8 +2460,8 @@
       <c r="F63" s="3" t="s">
         <v>204</v>
       </c>
-      <c r="G63" s="4" t="s">
-        <v>14</v>
+      <c r="G63" s="6" t="s">
+        <v>25</v>
       </c>
       <c r="H63" s="3"/>
       <c r="I63" s="3"/>
@@ -2485,19 +2474,19 @@
         <v>206</v>
       </c>
       <c r="C64" s="3">
-        <v>2011.0</v>
+        <v>1997.0</v>
       </c>
       <c r="D64" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="E64" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="F64" s="3" t="s">
+      <c r="E64" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="F64" s="8" t="s">
         <v>207</v>
       </c>
-      <c r="G64" s="6" t="s">
-        <v>25</v>
+      <c r="G64" s="4" t="s">
+        <v>14</v>
       </c>
       <c r="H64" s="3"/>
       <c r="I64" s="3"/>
@@ -2510,19 +2499,19 @@
         <v>209</v>
       </c>
       <c r="C65" s="3">
-        <v>1997.0</v>
+        <v>2008.0</v>
       </c>
       <c r="D65" s="3" t="s">
         <v>41</v>
       </c>
       <c r="E65" s="3" t="s">
-        <v>74</v>
-      </c>
-      <c r="F65" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="F65" s="3" t="s">
         <v>210</v>
       </c>
-      <c r="G65" s="4" t="s">
-        <v>14</v>
+      <c r="G65" s="6" t="s">
+        <v>38</v>
       </c>
       <c r="H65" s="3"/>
       <c r="I65" s="3"/>
@@ -2535,7 +2524,7 @@
         <v>212</v>
       </c>
       <c r="C66" s="3">
-        <v>2008.0</v>
+        <v>2007.0</v>
       </c>
       <c r="D66" s="3" t="s">
         <v>41</v>
@@ -2549,7 +2538,9 @@
       <c r="G66" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="H66" s="3"/>
+      <c r="H66" s="3" t="s">
+        <v>87</v>
+      </c>
       <c r="I66" s="3"/>
     </row>
     <row r="67">
@@ -2560,10 +2551,10 @@
         <v>215</v>
       </c>
       <c r="C67" s="3">
-        <v>2007.0</v>
+        <v>2015.0</v>
       </c>
       <c r="D67" s="3" t="s">
-        <v>41</v>
+        <v>11</v>
       </c>
       <c r="E67" s="3" t="s">
         <v>12</v>
@@ -2571,12 +2562,10 @@
       <c r="F67" s="3" t="s">
         <v>216</v>
       </c>
-      <c r="G67" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="H67" s="3" t="s">
-        <v>90</v>
-      </c>
+      <c r="G67" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="H67" s="3"/>
       <c r="I67" s="3"/>
     </row>
     <row r="68">
@@ -2587,7 +2576,7 @@
         <v>218</v>
       </c>
       <c r="C68" s="3">
-        <v>2015.0</v>
+        <v>2017.0</v>
       </c>
       <c r="D68" s="3" t="s">
         <v>11</v>
@@ -2612,7 +2601,7 @@
         <v>221</v>
       </c>
       <c r="C69" s="3">
-        <v>2017.0</v>
+        <v>2012.0</v>
       </c>
       <c r="D69" s="3" t="s">
         <v>11</v>
@@ -2630,56 +2619,56 @@
       <c r="I69" s="3"/>
     </row>
     <row r="70">
-      <c r="A70" s="3" t="s">
+      <c r="A70" s="9" t="s">
         <v>223</v>
       </c>
-      <c r="B70" s="3" t="s">
+      <c r="B70" s="11" t="s">
         <v>224</v>
       </c>
-      <c r="C70" s="3">
-        <v>2012.0</v>
-      </c>
-      <c r="D70" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="E70" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="F70" s="3" t="s">
+      <c r="C70" s="9">
+        <v>2010.0</v>
+      </c>
+      <c r="D70" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="E70" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="F70" s="9" t="s">
         <v>225</v>
       </c>
-      <c r="G70" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="H70" s="3"/>
-      <c r="I70" s="3"/>
+      <c r="G70" s="13" t="s">
+        <v>38</v>
+      </c>
+      <c r="H70" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="I70" s="9"/>
     </row>
     <row r="71">
-      <c r="A71" s="9" t="s">
+      <c r="A71" s="3" t="s">
         <v>226</v>
       </c>
-      <c r="B71" s="11" t="s">
+      <c r="B71" s="3" t="s">
         <v>227</v>
       </c>
-      <c r="C71" s="9">
-        <v>2010.0</v>
-      </c>
-      <c r="D71" s="9" t="s">
+      <c r="C71" s="3">
+        <v>2008.0</v>
+      </c>
+      <c r="D71" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="E71" s="9" t="s">
-        <v>42</v>
-      </c>
-      <c r="F71" s="9" t="s">
+      <c r="E71" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="F71" s="3" t="s">
         <v>228</v>
       </c>
-      <c r="G71" s="13" t="s">
-        <v>38</v>
-      </c>
-      <c r="H71" s="9" t="s">
+      <c r="G71" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="I71" s="9"/>
+      <c r="H71" s="3"/>
+      <c r="I71" s="3"/>
     </row>
     <row r="72">
       <c r="A72" s="3" t="s">
@@ -2689,7 +2678,7 @@
         <v>230</v>
       </c>
       <c r="C72" s="3">
-        <v>2008.0</v>
+        <v>2009.0</v>
       </c>
       <c r="D72" s="3" t="s">
         <v>41</v>
@@ -2710,11 +2699,11 @@
       <c r="A73" s="3" t="s">
         <v>232</v>
       </c>
-      <c r="B73" s="3" t="s">
+      <c r="B73" s="5" t="s">
         <v>233</v>
       </c>
       <c r="C73" s="3">
-        <v>2009.0</v>
+        <v>2006.0</v>
       </c>
       <c r="D73" s="3" t="s">
         <v>41</v>
@@ -2732,29 +2721,15 @@
       <c r="I73" s="3"/>
     </row>
     <row r="74">
-      <c r="A74" s="3" t="s">
-        <v>235</v>
-      </c>
-      <c r="B74" s="5" t="s">
-        <v>236</v>
-      </c>
-      <c r="C74" s="3">
-        <v>2006.0</v>
-      </c>
-      <c r="D74" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="E74" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="F74" s="3" t="s">
-        <v>237</v>
-      </c>
-      <c r="G74" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="H74" s="3"/>
-      <c r="I74" s="3"/>
+      <c r="A74" s="14"/>
+      <c r="B74" s="14"/>
+      <c r="C74" s="14"/>
+      <c r="D74" s="15"/>
+      <c r="E74" s="14"/>
+      <c r="F74" s="14"/>
+      <c r="G74" s="16"/>
+      <c r="H74" s="14"/>
+      <c r="I74" s="14"/>
     </row>
     <row r="75">
       <c r="A75" s="14"/>
@@ -2768,15 +2743,7 @@
       <c r="I75" s="14"/>
     </row>
     <row r="76">
-      <c r="A76" s="14"/>
-      <c r="B76" s="14"/>
-      <c r="C76" s="14"/>
-      <c r="D76" s="15"/>
-      <c r="E76" s="14"/>
-      <c r="F76" s="14"/>
-      <c r="G76" s="16"/>
-      <c r="H76" s="14"/>
-      <c r="I76" s="14"/>
+      <c r="G76" s="17"/>
     </row>
     <row r="77">
       <c r="G77" s="17"/>
@@ -5463,14 +5430,11 @@
     <row r="971">
       <c r="G971" s="17"/>
     </row>
-    <row r="972">
-      <c r="G972" s="17"/>
-    </row>
   </sheetData>
-  <autoFilter ref="$A$1:$I$74"/>
+  <autoFilter ref="$A$1:$I$73"/>
   <hyperlinks>
-    <hyperlink r:id="rId1" ref="F20"/>
-    <hyperlink r:id="rId2" ref="F65"/>
+    <hyperlink r:id="rId1" ref="F19"/>
+    <hyperlink r:id="rId2" ref="F64"/>
   </hyperlinks>
   <drawing r:id="rId3"/>
 </worksheet>
